--- a/DOC/製造/スケジュール.xlsx
+++ b/DOC/製造/スケジュール.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\会社\会社\Softtech\社内インフラ\社内管理システム\製造\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\製造\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB3F8C8-2A8D-422C-90C1-7EB9958259A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9D98BE-DCCC-40E2-8883-1534EB9048BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="1485" windowWidth="23820" windowHeight="11970" xr2:uid="{A861EC69-7AA4-481C-AECD-2394675AA9AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A861EC69-7AA4-481C-AECD-2394675AA9AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>2/18</t>
     <phoneticPr fontId="1"/>
@@ -339,6 +339,29 @@
   </si>
   <si>
     <t>★リリース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗率</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発環境構築</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウチク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -406,7 +429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -431,6 +454,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -452,15 +478,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -506,15 +532,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -560,15 +586,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -614,15 +640,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -668,15 +694,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -722,15 +748,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1074,40 +1100,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3E3847-597B-4A0E-93EA-087970AC1C3F}">
-  <dimension ref="A2:AR19"/>
+  <dimension ref="A2:AS20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23.625" customWidth="1"/>
     <col min="2" max="2" width="5.75" customWidth="1"/>
-    <col min="3" max="4" width="5.625" customWidth="1"/>
-    <col min="5" max="6" width="5.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.625" customWidth="1"/>
-    <col min="8" max="8" width="5.625" style="1" customWidth="1"/>
-    <col min="9" max="11" width="5.625" customWidth="1"/>
-    <col min="12" max="13" width="5.625" style="1" customWidth="1"/>
-    <col min="14" max="18" width="5.625" customWidth="1"/>
-    <col min="19" max="20" width="5.625" style="1" customWidth="1"/>
-    <col min="21" max="26" width="5.625" customWidth="1"/>
-    <col min="27" max="28" width="5.625" style="1" customWidth="1"/>
-    <col min="29" max="32" width="5.625" customWidth="1"/>
-    <col min="33" max="35" width="5.625" style="1" customWidth="1"/>
-    <col min="36" max="40" width="5.625" customWidth="1"/>
-    <col min="41" max="42" width="5.625" style="1" customWidth="1"/>
-    <col min="43" max="44" width="5.625" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="4" max="5" width="5.625" customWidth="1"/>
+    <col min="6" max="7" width="5.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.625" customWidth="1"/>
+    <col min="9" max="9" width="5.625" style="1" customWidth="1"/>
+    <col min="10" max="12" width="5.625" customWidth="1"/>
+    <col min="13" max="14" width="5.625" style="1" customWidth="1"/>
+    <col min="15" max="19" width="5.625" customWidth="1"/>
+    <col min="20" max="21" width="5.625" style="1" customWidth="1"/>
+    <col min="22" max="27" width="5.625" customWidth="1"/>
+    <col min="28" max="29" width="5.625" style="1" customWidth="1"/>
+    <col min="30" max="33" width="5.625" customWidth="1"/>
+    <col min="34" max="36" width="5.625" style="1" customWidth="1"/>
+    <col min="37" max="41" width="5.625" customWidth="1"/>
+    <col min="42" max="43" width="5.625" style="1" customWidth="1"/>
+    <col min="44" max="45" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -1117,10 +1144,10 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
@@ -1149,924 +1176,997 @@
       <c r="AO2" s="7"/>
       <c r="AP2" s="7"/>
       <c r="AQ2" s="7"/>
-      <c r="AR2" s="2"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="2"/>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AC3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AL3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM3" s="3" t="s">
+      <c r="AN3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AN3" s="3" t="s">
+      <c r="AO3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AP3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AQ3" s="3" t="s">
+      <c r="AR3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AR3" s="3" t="s">
+      <c r="AS3" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:44" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
-        <v>46</v>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="6"/>
-      <c r="AP4" s="6"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>45</v>
+    <row r="5" spans="1:45" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="2"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="2"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="6"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="6"/>
+      <c r="L5" s="2"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="2"/>
+      <c r="N5" s="6"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="6"/>
+      <c r="S5" s="2"/>
       <c r="T5" s="6"/>
-      <c r="U5" s="2"/>
+      <c r="U5" s="6"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="6"/>
+      <c r="AA5" s="2"/>
       <c r="AB5" s="6"/>
-      <c r="AC5" s="2"/>
+      <c r="AC5" s="6"/>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
-      <c r="AG5" s="6"/>
+      <c r="AG5" s="2"/>
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
-      <c r="AJ5" s="2"/>
+      <c r="AJ5" s="6"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
-      <c r="AO5" s="6"/>
+      <c r="AO5" s="2"/>
       <c r="AP5" s="6"/>
-      <c r="AQ5" s="2"/>
+      <c r="AQ5" s="6"/>
       <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="6"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="2"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="6"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="6"/>
+      <c r="L6" s="2"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="2"/>
+      <c r="N6" s="6"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="6"/>
+      <c r="S6" s="2"/>
       <c r="T6" s="6"/>
-      <c r="U6" s="2"/>
+      <c r="U6" s="6"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="6"/>
+      <c r="AA6" s="2"/>
       <c r="AB6" s="6"/>
-      <c r="AC6" s="2"/>
+      <c r="AC6" s="6"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
-      <c r="AG6" s="6"/>
+      <c r="AG6" s="2"/>
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
-      <c r="AJ6" s="2"/>
+      <c r="AJ6" s="6"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" s="2"/>
-      <c r="AO6" s="6"/>
+      <c r="AO6" s="2"/>
       <c r="AP6" s="6"/>
-      <c r="AQ6" s="2"/>
+      <c r="AQ6" s="6"/>
       <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="6"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="2"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="6"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="6"/>
+      <c r="L7" s="2"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="2"/>
+      <c r="N7" s="6"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="6"/>
+      <c r="S7" s="2"/>
       <c r="T7" s="6"/>
-      <c r="U7" s="2"/>
+      <c r="U7" s="6"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="6"/>
+      <c r="AA7" s="2"/>
       <c r="AB7" s="6"/>
-      <c r="AC7" s="2"/>
+      <c r="AC7" s="6"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
-      <c r="AG7" s="6"/>
+      <c r="AG7" s="2"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
-      <c r="AJ7" s="2"/>
+      <c r="AJ7" s="6"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
-      <c r="AO7" s="6"/>
+      <c r="AO7" s="2"/>
       <c r="AP7" s="6"/>
-      <c r="AQ7" s="2"/>
+      <c r="AQ7" s="6"/>
       <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.8</v>
+      </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="6"/>
+      <c r="E8" s="2"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="2"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="6"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="2"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="2"/>
+      <c r="N8" s="6"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="6"/>
+      <c r="S8" s="2"/>
       <c r="T8" s="6"/>
-      <c r="U8" s="2"/>
+      <c r="U8" s="6"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="6"/>
+      <c r="AA8" s="2"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="2"/>
+      <c r="AC8" s="6"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
-      <c r="AG8" s="6"/>
+      <c r="AG8" s="2"/>
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
-      <c r="AJ8" s="2"/>
+      <c r="AJ8" s="6"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" s="2"/>
-      <c r="AO8" s="6"/>
+      <c r="AO8" s="2"/>
       <c r="AP8" s="6"/>
-      <c r="AQ8" s="2"/>
+      <c r="AQ8" s="6"/>
       <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="2"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="6"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="2"/>
       <c r="M9" s="6"/>
-      <c r="N9" s="2"/>
+      <c r="N9" s="6"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="6"/>
+      <c r="S9" s="2"/>
       <c r="T9" s="6"/>
-      <c r="U9" s="2"/>
+      <c r="U9" s="6"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="6"/>
+      <c r="AA9" s="2"/>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="2"/>
+      <c r="AC9" s="6"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
-      <c r="AG9" s="6"/>
+      <c r="AG9" s="2"/>
       <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
-      <c r="AJ9" s="2"/>
+      <c r="AJ9" s="6"/>
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
-      <c r="AO9" s="6"/>
+      <c r="AO9" s="2"/>
       <c r="AP9" s="6"/>
-      <c r="AQ9" s="2"/>
+      <c r="AQ9" s="6"/>
       <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="6"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="2"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="6"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="6"/>
+      <c r="L10" s="2"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="2"/>
+      <c r="N10" s="6"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="6"/>
+      <c r="S10" s="2"/>
       <c r="T10" s="6"/>
-      <c r="U10" s="2"/>
+      <c r="U10" s="6"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="6"/>
+      <c r="AA10" s="2"/>
       <c r="AB10" s="6"/>
-      <c r="AC10" s="2"/>
+      <c r="AC10" s="6"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
-      <c r="AG10" s="6"/>
+      <c r="AG10" s="2"/>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
-      <c r="AJ10" s="2"/>
+      <c r="AJ10" s="6"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" s="2"/>
-      <c r="AO10" s="6"/>
+      <c r="AO10" s="2"/>
       <c r="AP10" s="6"/>
-      <c r="AQ10" s="2"/>
+      <c r="AQ10" s="6"/>
       <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="6"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="2"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="6"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="6"/>
+      <c r="L11" s="2"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="2"/>
+      <c r="N11" s="6"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="6"/>
+      <c r="S11" s="2"/>
       <c r="T11" s="6"/>
-      <c r="U11" s="2"/>
+      <c r="U11" s="6"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="6"/>
+      <c r="AA11" s="2"/>
       <c r="AB11" s="6"/>
-      <c r="AC11" s="2"/>
+      <c r="AC11" s="6"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
-      <c r="AG11" s="6"/>
+      <c r="AG11" s="2"/>
       <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
-      <c r="AJ11" s="2"/>
+      <c r="AJ11" s="6"/>
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" s="2"/>
-      <c r="AO11" s="6"/>
+      <c r="AO11" s="2"/>
       <c r="AP11" s="6"/>
-      <c r="AQ11" s="2"/>
+      <c r="AQ11" s="6"/>
       <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="6"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="2"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="6"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="6"/>
+      <c r="L12" s="2"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="2"/>
+      <c r="N12" s="6"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="6"/>
+      <c r="S12" s="2"/>
       <c r="T12" s="6"/>
-      <c r="U12" s="2"/>
+      <c r="U12" s="6"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="6"/>
+      <c r="AA12" s="2"/>
       <c r="AB12" s="6"/>
-      <c r="AC12" s="2"/>
+      <c r="AC12" s="6"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
-      <c r="AG12" s="6"/>
+      <c r="AG12" s="2"/>
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
-      <c r="AJ12" s="2"/>
+      <c r="AJ12" s="6"/>
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
-      <c r="AO12" s="6"/>
+      <c r="AO12" s="2"/>
       <c r="AP12" s="6"/>
-      <c r="AQ12" s="2"/>
+      <c r="AQ12" s="6"/>
       <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="6"/>
+      <c r="E13" s="2"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="2"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="6"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="6"/>
+      <c r="L13" s="2"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="2"/>
+      <c r="N13" s="6"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="6"/>
+      <c r="S13" s="2"/>
       <c r="T13" s="6"/>
-      <c r="U13" s="2"/>
+      <c r="U13" s="6"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="6"/>
+      <c r="AA13" s="2"/>
       <c r="AB13" s="6"/>
-      <c r="AC13" s="2"/>
+      <c r="AC13" s="6"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
-      <c r="AG13" s="6"/>
+      <c r="AG13" s="2"/>
       <c r="AH13" s="6"/>
       <c r="AI13" s="6"/>
-      <c r="AJ13" s="2"/>
+      <c r="AJ13" s="6"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" s="2"/>
-      <c r="AO13" s="6"/>
+      <c r="AO13" s="2"/>
       <c r="AP13" s="6"/>
-      <c r="AQ13" s="2"/>
+      <c r="AQ13" s="6"/>
       <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="6"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="2"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="6"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="6"/>
+      <c r="L14" s="2"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="2"/>
+      <c r="N14" s="6"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="6"/>
+      <c r="S14" s="2"/>
       <c r="T14" s="6"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="U14" s="6"/>
+      <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="6"/>
+      <c r="AA14" s="2"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="2"/>
+      <c r="AC14" s="6"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
-      <c r="AG14" s="6"/>
+      <c r="AG14" s="2"/>
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
-      <c r="AJ14" s="2"/>
+      <c r="AJ14" s="6"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
-      <c r="AO14" s="6"/>
+      <c r="AO14" s="2"/>
       <c r="AP14" s="6"/>
-      <c r="AQ14" s="2"/>
+      <c r="AQ14" s="6"/>
       <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="6"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="2"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="6"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="6"/>
+      <c r="L15" s="2"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="2"/>
+      <c r="N15" s="6"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="6"/>
+      <c r="S15" s="2"/>
       <c r="T15" s="6"/>
-      <c r="U15" s="2"/>
+      <c r="U15" s="6"/>
       <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
+      <c r="W15" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="6"/>
+      <c r="AA15" s="2"/>
       <c r="AB15" s="6"/>
-      <c r="AC15" s="2"/>
+      <c r="AC15" s="6"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
-      <c r="AG15" s="6"/>
+      <c r="AG15" s="2"/>
       <c r="AH15" s="6"/>
       <c r="AI15" s="6"/>
-      <c r="AJ15" s="2"/>
+      <c r="AJ15" s="6"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" s="2"/>
-      <c r="AO15" s="6"/>
+      <c r="AO15" s="2"/>
       <c r="AP15" s="6"/>
-      <c r="AQ15" s="2"/>
+      <c r="AQ15" s="6"/>
       <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="6"/>
+      <c r="E16" s="2"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="2"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="6"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="6"/>
+      <c r="L16" s="2"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="2"/>
+      <c r="N16" s="6"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="6"/>
+      <c r="S16" s="2"/>
       <c r="T16" s="6"/>
-      <c r="U16" s="2"/>
+      <c r="U16" s="6"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="6"/>
+      <c r="AA16" s="2"/>
       <c r="AB16" s="6"/>
-      <c r="AC16" s="2"/>
+      <c r="AC16" s="6"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
-      <c r="AG16" s="6"/>
+      <c r="AG16" s="2"/>
       <c r="AH16" s="6"/>
       <c r="AI16" s="6"/>
-      <c r="AJ16" s="2"/>
+      <c r="AJ16" s="6"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" s="2"/>
-      <c r="AO16" s="6"/>
+      <c r="AO16" s="2"/>
       <c r="AP16" s="6"/>
-      <c r="AQ16" s="2"/>
+      <c r="AQ16" s="6"/>
       <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="6"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="2"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="6"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="6"/>
+      <c r="L17" s="2"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="2"/>
+      <c r="N17" s="6"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="6"/>
+      <c r="S17" s="2"/>
       <c r="T17" s="6"/>
-      <c r="U17" s="2"/>
+      <c r="U17" s="6"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="6"/>
+      <c r="AA17" s="2"/>
       <c r="AB17" s="6"/>
-      <c r="AC17" s="2"/>
+      <c r="AC17" s="6"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
-      <c r="AG17" s="6"/>
+      <c r="AG17" s="2"/>
       <c r="AH17" s="6"/>
       <c r="AI17" s="6"/>
-      <c r="AJ17" s="2"/>
+      <c r="AJ17" s="6"/>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" s="2"/>
-      <c r="AO17" s="6"/>
+      <c r="AO17" s="2"/>
       <c r="AP17" s="6"/>
-      <c r="AQ17" s="2"/>
+      <c r="AQ17" s="6"/>
       <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="6"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="2"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="6"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="6"/>
+      <c r="L18" s="2"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="2"/>
+      <c r="N18" s="6"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="6"/>
+      <c r="S18" s="2"/>
       <c r="T18" s="6"/>
-      <c r="U18" s="2"/>
+      <c r="U18" s="6"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="6"/>
+      <c r="AA18" s="2"/>
       <c r="AB18" s="6"/>
-      <c r="AC18" s="2"/>
+      <c r="AC18" s="6"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
-      <c r="AG18" s="6"/>
+      <c r="AG18" s="2"/>
       <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
-      <c r="AJ18" s="2"/>
+      <c r="AJ18" s="6"/>
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" s="2"/>
-      <c r="AO18" s="6"/>
+      <c r="AO18" s="2"/>
       <c r="AP18" s="6"/>
-      <c r="AQ18" s="2"/>
+      <c r="AQ18" s="6"/>
       <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="6"/>
+      <c r="E19" s="2"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="2"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="6"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="6"/>
+      <c r="L19" s="2"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="2"/>
+      <c r="N19" s="6"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="6"/>
+      <c r="S19" s="2"/>
       <c r="T19" s="6"/>
-      <c r="U19" s="2"/>
+      <c r="U19" s="6"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="6"/>
+      <c r="AA19" s="2"/>
       <c r="AB19" s="6"/>
-      <c r="AC19" s="2"/>
+      <c r="AC19" s="6"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
-      <c r="AG19" s="6"/>
+      <c r="AG19" s="2"/>
       <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
-      <c r="AJ19" s="2"/>
+      <c r="AJ19" s="6"/>
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" s="2"/>
-      <c r="AO19" s="6"/>
+      <c r="AO19" s="2"/>
       <c r="AP19" s="6"/>
-      <c r="AQ19" s="2"/>
+      <c r="AQ19" s="6"/>
       <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="6"/>
+      <c r="AQ20" s="6"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="N2:AQ2"/>
+    <mergeCell ref="D2:N2"/>
+    <mergeCell ref="O2:AR2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/製造/スケジュール.xlsx
+++ b/DOC/製造/スケジュール.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\製造\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9D98BE-DCCC-40E2-8883-1534EB9048BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7A6F4811-9AEB-4B65-A189-0F1618AEF1CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A861EC69-7AA4-481C-AECD-2394675AA9AB}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="29070" windowHeight="16500" xr2:uid="{A861EC69-7AA4-481C-AECD-2394675AA9AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
   <si>
     <t>2/18</t>
     <phoneticPr fontId="1"/>
@@ -270,20 +266,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　詳細設計</t>
-    <rPh sb="1" eb="3">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　コーディング</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　単体テスト</t>
     <rPh sb="1" eb="3">
       <t>タンタイ</t>
@@ -338,10 +320,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>★リリース</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>進捗率</t>
     <rPh sb="0" eb="2">
       <t>シンチョク</t>
@@ -361,6 +339,47 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★</t>
+  </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　詳細設計_リスト</t>
+    <rPh sb="1" eb="3">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　詳細設計_作成</t>
+    <rPh sb="1" eb="3">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　コーディング_リスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　コーディング_作成</t>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -451,11 +470,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,13 +500,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -501,9 +520,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2247900" y="1762125"/>
-          <a:ext cx="847725" cy="9525"/>
+        <a:xfrm>
+          <a:off x="3067050" y="2009776"/>
+          <a:ext cx="3876675" cy="19049"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -532,16 +551,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:rowOff>123827</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -556,8 +575,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3943350" y="2257425"/>
-          <a:ext cx="1285875" cy="9526"/>
+          <a:off x="7762875" y="2476500"/>
+          <a:ext cx="3467100" cy="28577"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -586,16 +605,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -610,8 +629,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5276850" y="2495550"/>
-          <a:ext cx="2066925" cy="19050"/>
+          <a:off x="11258550" y="3209925"/>
+          <a:ext cx="4686300" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -640,77 +659,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133352</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6A3DB88-877F-48F2-B7A7-47A8F3D4F47B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7391400" y="2771776"/>
-          <a:ext cx="828675" cy="9524"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B69E80AD-39A7-44BA-A880-31115581719B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48DBD194-09B5-4CF2-A1B5-5BE563890A10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -718,62 +683,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8229600" y="3009900"/>
-          <a:ext cx="847725" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{299A13A2-4A32-45E9-B90F-31615819DBDA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9953625" y="3248025"/>
-          <a:ext cx="381000" cy="1"/>
+          <a:off x="7781925" y="2724150"/>
+          <a:ext cx="3400425" cy="28577"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1100,17 +1011,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3E3847-597B-4A0E-93EA-087970AC1C3F}">
-  <dimension ref="A2:AS20"/>
+  <dimension ref="A2:AS22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23.625" customWidth="1"/>
     <col min="2" max="2" width="5.75" customWidth="1"/>
-    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="7.875" customWidth="1"/>
     <col min="4" max="5" width="5.625" customWidth="1"/>
     <col min="6" max="7" width="5.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.625" customWidth="1"/>
@@ -1132,51 +1043,51 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="7"/>
-      <c r="AR2" s="7"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
       <c r="AS2" s="2"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.4">
@@ -1187,7 +1098,7 @@
         <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -1318,7 +1229,7 @@
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>50</v>
@@ -1520,12 +1431,12 @@
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>0.8</v>
       </c>
       <c r="D8" s="2"/>
@@ -1536,7 +1447,9 @@
       <c r="I8" s="6"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="2"/>
@@ -1620,9 +1533,9 @@
       <c r="AR9" s="2"/>
       <c r="AS9" s="2"/>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>49</v>
@@ -1646,7 +1559,9 @@
       <c r="S10" s="2"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="2"/>
+      <c r="V10" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
@@ -1671,9 +1586,9 @@
       <c r="AR10" s="2"/>
       <c r="AS10" s="2"/>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>49</v>
@@ -1697,7 +1612,9 @@
       <c r="S11" s="2"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
-      <c r="V11" s="2"/>
+      <c r="V11" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
@@ -1722,12 +1639,12 @@
       <c r="AR11" s="2"/>
       <c r="AS11" s="2"/>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1773,9 +1690,9 @@
       <c r="AR12" s="2"/>
       <c r="AS12" s="2"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>49</v>
@@ -1810,7 +1727,9 @@
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
+      <c r="AG13" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="AH13" s="6"/>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
@@ -1824,9 +1743,9 @@
       <c r="AR13" s="2"/>
       <c r="AS13" s="2"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>49</v>
@@ -1875,12 +1794,12 @@
       <c r="AR14" s="2"/>
       <c r="AS14" s="2"/>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1902,9 +1821,7 @@
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
       <c r="V15" s="2"/>
-      <c r="W15" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
@@ -1928,9 +1845,13 @@
       <c r="AR15" s="2"/>
       <c r="AS15" s="2"/>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+    <row r="16" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1975,9 +1896,13 @@
       <c r="AR16" s="2"/>
       <c r="AS16" s="2"/>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+    <row r="17" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -2022,7 +1947,7 @@
       <c r="AR17" s="2"/>
       <c r="AS17" s="2"/>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2069,7 +1994,7 @@
       <c r="AR18" s="2"/>
       <c r="AS18" s="2"/>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2116,7 +2041,7 @@
       <c r="AR19" s="2"/>
       <c r="AS19" s="2"/>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2163,6 +2088,100 @@
       <c r="AR20" s="2"/>
       <c r="AS20" s="2"/>
     </row>
+    <row r="21" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="6"/>
+      <c r="AQ21" s="6"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+    </row>
+    <row r="22" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="6"/>
+      <c r="AQ22" s="6"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D2:N2"/>

--- a/DOC/製造/スケジュール.xlsx
+++ b/DOC/製造/スケジュール.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7A6F4811-9AEB-4B65-A189-0F1618AEF1CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{06AF44C4-4D02-4855-BAD9-67832E61DB2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="29070" windowHeight="16500" xr2:uid="{A861EC69-7AA4-481C-AECD-2394675AA9AB}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="29100" windowHeight="16500" activeTab="1" xr2:uid="{A861EC69-7AA4-481C-AECD-2394675AA9AB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="システム" sheetId="1" r:id="rId1"/>
+    <sheet name="馬さん" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:T12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
   <si>
     <t>2/18</t>
     <phoneticPr fontId="1"/>
@@ -380,6 +381,13 @@
     <t>　コーディング_作成</t>
     <rPh sb="8" eb="10">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>否</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -448,7 +456,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -475,6 +483,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1013,7 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3E3847-597B-4A0E-93EA-087970AC1C3F}">
   <dimension ref="A2:AS22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -2192,4 +2203,238 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666A32BF-3047-477A-9ACB-3C8A9C656A54}">
+  <dimension ref="B2:AF4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="3" customWidth="1"/>
+    <col min="3" max="3" width="3.25" customWidth="1"/>
+    <col min="4" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="8" width="4.625" style="1" customWidth="1"/>
+    <col min="9" max="13" width="4.625" customWidth="1"/>
+    <col min="14" max="15" width="4.625" style="1" customWidth="1"/>
+    <col min="16" max="20" width="4.625" customWidth="1"/>
+    <col min="21" max="22" width="4.625" style="1" customWidth="1"/>
+    <col min="23" max="28" width="4.625" customWidth="1"/>
+    <col min="29" max="30" width="4.625" style="1" customWidth="1"/>
+    <col min="31" max="32" width="4.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:32" x14ac:dyDescent="0.4">
+      <c r="B2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+    </row>
+    <row r="3" spans="2:32" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>11</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+      <c r="N3" s="1">
+        <v>13</v>
+      </c>
+      <c r="O3" s="1">
+        <v>14</v>
+      </c>
+      <c r="P3">
+        <v>15</v>
+      </c>
+      <c r="Q3">
+        <v>16</v>
+      </c>
+      <c r="R3">
+        <v>17</v>
+      </c>
+      <c r="S3">
+        <v>18</v>
+      </c>
+      <c r="T3">
+        <v>19</v>
+      </c>
+      <c r="U3" s="1">
+        <v>20</v>
+      </c>
+      <c r="V3" s="1">
+        <v>21</v>
+      </c>
+      <c r="W3">
+        <v>22</v>
+      </c>
+      <c r="X3">
+        <v>23</v>
+      </c>
+      <c r="Y3">
+        <v>24</v>
+      </c>
+      <c r="Z3">
+        <v>25</v>
+      </c>
+      <c r="AA3">
+        <v>26</v>
+      </c>
+      <c r="AB3">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE3">
+        <v>30</v>
+      </c>
+      <c r="AF3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:32" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R4" t="s">
+        <v>66</v>
+      </c>
+      <c r="S4" t="s">
+        <v>66</v>
+      </c>
+      <c r="T4" t="s">
+        <v>66</v>
+      </c>
+      <c r="U4" t="s">
+        <v>66</v>
+      </c>
+      <c r="V4" t="s">
+        <v>66</v>
+      </c>
+      <c r="W4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:AF2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DOC/製造/スケジュール.xlsx
+++ b/DOC/製造/スケジュール.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{06AF44C4-4D02-4855-BAD9-67832E61DB2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2996D6C2-57E1-4425-9E23-4B6CB2494DC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="29100" windowHeight="16500" activeTab="1" xr2:uid="{A861EC69-7AA4-481C-AECD-2394675AA9AB}"/>
+    <workbookView xWindow="825" yWindow="705" windowWidth="29100" windowHeight="16500" xr2:uid="{A861EC69-7AA4-481C-AECD-2394675AA9AB}"/>
   </bookViews>
   <sheets>
     <sheet name="システム" sheetId="1" r:id="rId1"/>
     <sheet name="馬さん" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:T12"/>
+  <oleSize ref="A1:AB14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
   <si>
     <t>2/18</t>
     <phoneticPr fontId="1"/>
@@ -345,9 +345,6 @@
   </si>
   <si>
     <t>★</t>
-  </si>
-  <si>
-    <t>★</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -388,6 +385,29 @@
     <t>否</t>
     <rPh sb="0" eb="1">
       <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠管理画面、アップロードファイル対応（Properties)</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>着手</t>
+    <rPh sb="0" eb="2">
+      <t>チャクシュ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -510,13 +530,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -564,14 +584,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>123827</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -585,9 +605,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7762875" y="2476500"/>
-          <a:ext cx="3467100" cy="28577"/>
+        <a:xfrm>
+          <a:off x="7543800" y="2505078"/>
+          <a:ext cx="1685925" cy="9522"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -618,13 +638,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -670,16 +690,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133352</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -693,9 +713,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7781925" y="2724150"/>
-          <a:ext cx="3400425" cy="28577"/>
+        <a:xfrm>
+          <a:off x="9286875" y="2724150"/>
+          <a:ext cx="1676400" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -703,6 +723,61 @@
         <a:ln w="28575">
           <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFADA888-699A-45E8-8440-EAA0199B37FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7924800" y="276225"/>
+          <a:ext cx="9525" cy="5038725"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1022,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3E3847-597B-4A0E-93EA-087970AC1C3F}">
-  <dimension ref="A2:AS22"/>
+  <dimension ref="A2:AS23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1039,7 +1114,8 @@
     <col min="9" max="9" width="5.625" style="1" customWidth="1"/>
     <col min="10" max="12" width="5.625" customWidth="1"/>
     <col min="13" max="14" width="5.625" style="1" customWidth="1"/>
-    <col min="15" max="19" width="5.625" customWidth="1"/>
+    <col min="15" max="15" width="4.875" customWidth="1"/>
+    <col min="16" max="19" width="5.625" customWidth="1"/>
     <col min="20" max="21" width="5.625" style="1" customWidth="1"/>
     <col min="22" max="27" width="5.625" customWidth="1"/>
     <col min="28" max="29" width="5.625" style="1" customWidth="1"/>
@@ -1340,14 +1416,16 @@
       <c r="AR5" s="2"/>
       <c r="AS5" s="2"/>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="6"/>
@@ -1391,12 +1469,14 @@
       <c r="AR6" s="2"/>
       <c r="AS6" s="2"/>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+    <row r="7" spans="1:45" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="6"/>
@@ -1440,16 +1520,12 @@
       <c r="AR7" s="2"/>
       <c r="AS7" s="2"/>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.8</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="6"/>
@@ -1458,9 +1534,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="L8" s="2"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="2"/>
@@ -1495,12 +1569,16 @@
       <c r="AR8" s="2"/>
       <c r="AS8" s="2"/>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.8</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="6"/>
@@ -1509,7 +1587,9 @@
       <c r="I9" s="6"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="2"/>
@@ -1546,11 +1626,9 @@
     </row>
     <row r="10" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1570,9 +1648,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
@@ -1599,7 +1675,7 @@
     </row>
     <row r="11" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>49</v>
@@ -1619,13 +1695,13 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+      <c r="R11" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="S11" s="2"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
-      <c r="V11" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
@@ -1652,10 +1728,10 @@
     </row>
     <row r="12" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>50</v>
+        <v>62</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1676,7 +1752,9 @@
       <c r="S12" s="2"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
-      <c r="V12" s="2"/>
+      <c r="V12" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
@@ -1703,10 +1781,10 @@
     </row>
     <row r="13" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1738,9 +1816,7 @@
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
-      <c r="AG13" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="AG13" s="2"/>
       <c r="AH13" s="6"/>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
@@ -1756,7 +1832,7 @@
     </row>
     <row r="14" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>49</v>
@@ -1791,7 +1867,9 @@
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
+      <c r="AG14" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
       <c r="AJ14" s="6"/>
@@ -1807,7 +1885,7 @@
     </row>
     <row r="15" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>49</v>
@@ -1858,7 +1936,7 @@
     </row>
     <row r="16" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>49</v>
@@ -1909,10 +1987,10 @@
     </row>
     <row r="17" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1959,8 +2037,12 @@
       <c r="AS17" s="2"/>
     </row>
     <row r="18" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -2193,6 +2275,53 @@
       <c r="AR22" s="2"/>
       <c r="AS22" s="2"/>
     </row>
+    <row r="23" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="6"/>
+      <c r="AQ23" s="6"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D2:N2"/>
@@ -2209,8 +2338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666A32BF-3047-477A-9ACB-3C8A9C656A54}">
   <dimension ref="B2:AF4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2360,73 +2489,73 @@
     </row>
     <row r="4" spans="2:32" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AC4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AD4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AE4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/製造/スケジュール.xlsx
+++ b/DOC/製造/スケジュール.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2996D6C2-57E1-4425-9E23-4B6CB2494DC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{39F493F3-94EA-4FBB-AD29-EC5699284B3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="705" windowWidth="29100" windowHeight="16500" xr2:uid="{A861EC69-7AA4-481C-AECD-2394675AA9AB}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="29100" windowHeight="16500" xr2:uid="{A861EC69-7AA4-481C-AECD-2394675AA9AB}"/>
   </bookViews>
   <sheets>
     <sheet name="システム" sheetId="1" r:id="rId1"/>
@@ -744,16 +744,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -768,7 +768,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7924800" y="276225"/>
+          <a:off x="8782050" y="314325"/>
           <a:ext cx="9525" cy="5038725"/>
         </a:xfrm>
         <a:prstGeom prst="line">

--- a/DOC/製造/スケジュール.xlsx
+++ b/DOC/製造/スケジュール.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{39F493F3-94EA-4FBB-AD29-EC5699284B3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3014F143-4174-464F-B5A2-F544D9A6EA9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="29100" windowHeight="16500" xr2:uid="{A861EC69-7AA4-481C-AECD-2394675AA9AB}"/>
+    <workbookView xWindow="1950" yWindow="780" windowWidth="29100" windowHeight="16500" xr2:uid="{A861EC69-7AA4-481C-AECD-2394675AA9AB}"/>
   </bookViews>
   <sheets>
     <sheet name="システム" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
   <si>
     <t>2/18</t>
     <phoneticPr fontId="1"/>
@@ -389,7 +389,40 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>勤怠管理画面、アップロードファイル対応（Properties)</t>
+    <r>
+      <t>勤怠管理画面、アップロードファイル対応（Properties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>→　Table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <rPh sb="0" eb="2">
       <t>キンタイ</t>
     </rPh>
@@ -401,13 +434,6 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>着手</t>
-    <rPh sb="0" eb="2">
-      <t>チャクシュ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -416,7 +442,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,6 +457,20 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -476,7 +516,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -506,6 +546,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1100,7 +1143,7 @@
   <dimension ref="A2:AS23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1423,8 +1466,8 @@
       <c r="B6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>67</v>
+      <c r="C6" s="10">
+        <v>1</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>

--- a/DOC/製造/スケジュール.xlsx
+++ b/DOC/製造/スケジュール.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3014F143-4174-464F-B5A2-F544D9A6EA9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A3E1CF3D-9ACE-4F5F-B116-7FB8AEF24615}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="780" windowWidth="29100" windowHeight="16500" xr2:uid="{A861EC69-7AA4-481C-AECD-2394675AA9AB}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="29100" windowHeight="16500" xr2:uid="{A861EC69-7AA4-481C-AECD-2394675AA9AB}"/>
   </bookViews>
   <sheets>
     <sheet name="システム" sheetId="1" r:id="rId1"/>
@@ -541,14 +541,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1143,7 +1143,7 @@
   <dimension ref="A2:AS23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1173,51 +1173,51 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="9"/>
+      <c r="AP2" s="9"/>
+      <c r="AQ2" s="9"/>
+      <c r="AR2" s="9"/>
       <c r="AS2" s="2"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.4">
@@ -1466,7 +1466,7 @@
       <c r="B6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>1</v>
       </c>
       <c r="D6" s="2"/>
@@ -1519,7 +1519,9 @@
       <c r="B7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="6"/>
@@ -2401,39 +2403,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:32" x14ac:dyDescent="0.4">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
     </row>
     <row r="3" spans="2:32" x14ac:dyDescent="0.4">
       <c r="B3">

--- a/DOC/製造/スケジュール.xlsx
+++ b/DOC/製造/スケジュール.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A3E1CF3D-9ACE-4F5F-B116-7FB8AEF24615}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F41D4C9B-AF83-4E49-B42B-9B45D0649161}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="29100" windowHeight="16500" xr2:uid="{A861EC69-7AA4-481C-AECD-2394675AA9AB}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="29100" windowHeight="16500" xr2:uid="{A861EC69-7AA4-481C-AECD-2394675AA9AB}"/>
   </bookViews>
   <sheets>
     <sheet name="システム" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
   <si>
     <t>2/18</t>
     <phoneticPr fontId="1"/>
@@ -179,31 +179,6 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>給料紹介_厚生年金と厚生健康と分ける</t>
-    <rPh sb="0" eb="2">
-      <t>キュウリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ネンキン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -434,6 +409,41 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>給料照会_厚生年金と厚生健康と分ける</t>
+    <rPh sb="0" eb="2">
+      <t>キュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ネンキン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>王(梅）</t>
+    <rPh sb="0" eb="1">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1143,7 +1153,7 @@
   <dimension ref="A2:AS23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1225,10 +1235,10 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -1359,10 +1369,10 @@
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
@@ -1410,10 +1420,10 @@
     </row>
     <row r="5" spans="1:45" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="2"/>
@@ -1464,7 +1474,7 @@
         <v>45</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="8">
         <v>1</v>
@@ -1514,10 +1524,10 @@
     </row>
     <row r="7" spans="1:45" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="8">
         <v>1</v>
@@ -1567,7 +1577,7 @@
     </row>
     <row r="8" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1616,10 +1626,10 @@
     </row>
     <row r="9" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="7">
         <v>0.8</v>
@@ -1633,7 +1643,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -1671,7 +1681,7 @@
     </row>
     <row r="10" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1720,10 +1730,10 @@
     </row>
     <row r="11" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1741,7 +1751,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="6"/>
@@ -1773,10 +1783,10 @@
     </row>
     <row r="12" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1798,7 +1808,7 @@
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -1826,10 +1836,10 @@
     </row>
     <row r="13" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1877,10 +1887,10 @@
     </row>
     <row r="14" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1913,7 +1923,7 @@
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
@@ -1930,10 +1940,10 @@
     </row>
     <row r="15" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1981,10 +1991,10 @@
     </row>
     <row r="16" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2032,10 +2042,10 @@
     </row>
     <row r="17" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2083,10 +2093,10 @@
     </row>
     <row r="18" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2534,73 +2544,73 @@
     </row>
     <row r="4" spans="2:32" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AC4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AD4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AE4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/製造/スケジュール.xlsx
+++ b/DOC/製造/スケジュール.xlsx
@@ -3,16 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F41D4C9B-AF83-4E49-B42B-9B45D0649161}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\製造\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836AF2DC-EB8D-4E41-87A6-C616ADD434DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="29100" windowHeight="16500" xr2:uid="{A861EC69-7AA4-481C-AECD-2394675AA9AB}"/>
+    <workbookView xWindow="4965" yWindow="540" windowWidth="20115" windowHeight="13365" xr2:uid="{A861EC69-7AA4-481C-AECD-2394675AA9AB}"/>
   </bookViews>
   <sheets>
     <sheet name="システム" sheetId="1" r:id="rId1"/>
     <sheet name="馬さん" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:AB14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="134">
   <si>
     <t>2/18</t>
     <phoneticPr fontId="1"/>
@@ -209,13 +213,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>楊</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>馬</t>
     <rPh sb="0" eb="1">
       <t>マ</t>
@@ -275,16 +272,6 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ジッシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>★2回名リリース</t>
-    <rPh sb="2" eb="3">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -447,12 +434,266 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>4/1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4/2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4/3</t>
+  </si>
+  <si>
+    <t>4/4</t>
+  </si>
+  <si>
+    <t>4/5</t>
+  </si>
+  <si>
+    <t>4/6</t>
+  </si>
+  <si>
+    <t>4/7</t>
+  </si>
+  <si>
+    <t>4/8</t>
+  </si>
+  <si>
+    <t>4/9</t>
+  </si>
+  <si>
+    <t>4/10</t>
+  </si>
+  <si>
+    <t>4/11</t>
+  </si>
+  <si>
+    <t>4/12</t>
+  </si>
+  <si>
+    <t>4/13</t>
+  </si>
+  <si>
+    <t>4/14</t>
+  </si>
+  <si>
+    <t>4/15</t>
+  </si>
+  <si>
+    <t>4/16</t>
+  </si>
+  <si>
+    <t>4/17</t>
+  </si>
+  <si>
+    <t>4/18</t>
+  </si>
+  <si>
+    <t>4/19</t>
+  </si>
+  <si>
+    <t>4/20</t>
+  </si>
+  <si>
+    <t>4/21</t>
+  </si>
+  <si>
+    <t>4/22</t>
+  </si>
+  <si>
+    <t>4/23</t>
+  </si>
+  <si>
+    <t>4/24</t>
+  </si>
+  <si>
+    <t>4/25</t>
+  </si>
+  <si>
+    <t>4/26</t>
+  </si>
+  <si>
+    <t>4/27</t>
+  </si>
+  <si>
+    <t>4/28</t>
+  </si>
+  <si>
+    <t>4/29</t>
+  </si>
+  <si>
+    <t>4/30</t>
+  </si>
+  <si>
+    <t>5/1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5/2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5/3</t>
+  </si>
+  <si>
+    <t>5/4</t>
+  </si>
+  <si>
+    <t>5/5</t>
+  </si>
+  <si>
+    <t>5/6</t>
+  </si>
+  <si>
+    <t>5/7</t>
+  </si>
+  <si>
+    <t>5/8</t>
+  </si>
+  <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>5/10</t>
+  </si>
+  <si>
+    <t>5/11</t>
+  </si>
+  <si>
+    <t>5/12</t>
+  </si>
+  <si>
+    <t>5/13</t>
+  </si>
+  <si>
+    <t>5/14</t>
+  </si>
+  <si>
+    <t>5/15</t>
+  </si>
+  <si>
+    <t>5/16</t>
+  </si>
+  <si>
+    <t>5/17</t>
+  </si>
+  <si>
+    <t>5/18</t>
+  </si>
+  <si>
+    <t>5/19</t>
+  </si>
+  <si>
+    <t>5/20</t>
+  </si>
+  <si>
+    <t>5/21</t>
+  </si>
+  <si>
+    <t>5/22</t>
+  </si>
+  <si>
+    <t>5/23</t>
+  </si>
+  <si>
+    <t>5/24</t>
+  </si>
+  <si>
+    <t>5/25</t>
+  </si>
+  <si>
+    <t>5/26</t>
+  </si>
+  <si>
+    <t>5/27</t>
+  </si>
+  <si>
+    <t>5/28</t>
+  </si>
+  <si>
+    <t>5/29</t>
+  </si>
+  <si>
+    <t>5/30</t>
+  </si>
+  <si>
+    <t>5/31</t>
+  </si>
+  <si>
+    <t>楊</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★2回目リリース</t>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    勤怠リスト_詳細設計</t>
+    <rPh sb="4" eb="6">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　勤怠リスト製造</t>
+    <rPh sb="7" eb="9">
+      <t>セイゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　勤怠リスト単体</t>
+    <rPh sb="7" eb="9">
+      <t>タンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>勤怠リスト結合</t>
+    </r>
+    <rPh sb="7" eb="9">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リリース</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,6 +723,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -497,7 +745,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -520,13 +768,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -559,6 +820,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,13 +913,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>123828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -691,13 +967,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -745,13 +1021,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -805,7 +1081,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -832,6 +1108,210 @@
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE8B269-0323-4DEA-98EC-5C1E8AE4DCAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2924175" y="2990850"/>
+          <a:ext cx="2714625" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAEAC50A-D360-4144-9CAD-A3FF722FD00E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6267450" y="3219451"/>
+          <a:ext cx="1657350" cy="9524"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123827</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A900A1D-2D6B-425F-97D0-5AB3CAB3746B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8505825" y="3448050"/>
+          <a:ext cx="933450" cy="9527"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152403</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A87F08E-AE7C-44DD-B395-10311F17E042}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9448800" y="3714750"/>
+          <a:ext cx="609600" cy="9528"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1150,36 +1630,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3E3847-597B-4A0E-93EA-087970AC1C3F}">
-  <dimension ref="A2:AS23"/>
+  <dimension ref="A2:DB97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="BQ16" sqref="BQ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23.625" customWidth="1"/>
     <col min="2" max="2" width="5.75" customWidth="1"/>
-    <col min="3" max="3" width="7.875" customWidth="1"/>
-    <col min="4" max="5" width="5.625" customWidth="1"/>
-    <col min="6" max="7" width="5.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.625" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="1" customWidth="1"/>
-    <col min="10" max="12" width="5.625" customWidth="1"/>
-    <col min="13" max="14" width="5.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="4.875" customWidth="1"/>
-    <col min="16" max="19" width="5.625" customWidth="1"/>
-    <col min="20" max="21" width="5.625" style="1" customWidth="1"/>
-    <col min="22" max="27" width="5.625" customWidth="1"/>
-    <col min="28" max="29" width="5.625" style="1" customWidth="1"/>
-    <col min="30" max="33" width="5.625" customWidth="1"/>
-    <col min="34" max="36" width="5.625" style="1" customWidth="1"/>
-    <col min="37" max="41" width="5.625" customWidth="1"/>
-    <col min="42" max="43" width="5.625" style="1" customWidth="1"/>
-    <col min="44" max="45" width="5.625" customWidth="1"/>
+    <col min="3" max="3" width="7.625" customWidth="1"/>
+    <col min="4" max="5" width="5.625" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="5.625" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="5.625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="5.625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="12" width="5.625" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="5.625" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="4.875" hidden="1" customWidth="1"/>
+    <col min="16" max="19" width="5.625" hidden="1" customWidth="1"/>
+    <col min="20" max="21" width="5.625" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="27" width="5.625" hidden="1" customWidth="1"/>
+    <col min="28" max="29" width="5.625" style="1" hidden="1" customWidth="1"/>
+    <col min="30" max="33" width="5.625" hidden="1" customWidth="1"/>
+    <col min="34" max="36" width="5.625" style="1" hidden="1" customWidth="1"/>
+    <col min="37" max="41" width="5.625" hidden="1" customWidth="1"/>
+    <col min="42" max="43" width="5.625" style="1" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="5.625" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="0.875" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="4.125" customWidth="1"/>
+    <col min="47" max="47" width="4" customWidth="1"/>
+    <col min="48" max="49" width="4" style="1" customWidth="1"/>
+    <col min="50" max="54" width="4" customWidth="1"/>
+    <col min="55" max="56" width="4.25" style="1" customWidth="1"/>
+    <col min="57" max="61" width="4.25" customWidth="1"/>
+    <col min="62" max="63" width="4.25" style="1" customWidth="1"/>
+    <col min="64" max="68" width="4.25" customWidth="1"/>
+    <col min="69" max="70" width="4.25" style="1" customWidth="1"/>
+    <col min="71" max="73" width="4.25" customWidth="1"/>
+    <col min="74" max="74" width="4.25" style="1" customWidth="1"/>
+    <col min="75" max="75" width="4.25" customWidth="1"/>
+    <col min="76" max="77" width="4" style="1" customWidth="1"/>
+    <col min="78" max="82" width="4" customWidth="1"/>
+    <col min="83" max="84" width="4" style="1" customWidth="1"/>
+    <col min="85" max="106" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:106" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1228,9 +1725,69 @@
       <c r="AP2" s="9"/>
       <c r="AQ2" s="9"/>
       <c r="AR2" s="9"/>
-      <c r="AS2" s="2"/>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6"/>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BH2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BJ2" s="6"/>
+      <c r="BK2" s="6"/>
+      <c r="BL2" s="2"/>
+      <c r="BM2" s="2"/>
+      <c r="BN2" s="2"/>
+      <c r="BO2" s="2"/>
+      <c r="BP2" s="2"/>
+      <c r="BQ2" s="6"/>
+      <c r="BR2" s="6"/>
+      <c r="BS2" s="2"/>
+      <c r="BT2" s="2"/>
+      <c r="BU2" s="2"/>
+      <c r="BV2" s="6"/>
+      <c r="BW2" s="2"/>
+      <c r="BX2" s="6"/>
+      <c r="BY2" s="6"/>
+      <c r="BZ2" s="2"/>
+      <c r="CA2" s="2"/>
+      <c r="CB2" s="2"/>
+      <c r="CC2" s="2"/>
+      <c r="CD2" s="2"/>
+      <c r="CE2" s="6"/>
+      <c r="CF2" s="6"/>
+      <c r="CG2" s="2"/>
+      <c r="CH2" s="2"/>
+      <c r="CI2" s="2"/>
+      <c r="CJ2" s="2"/>
+      <c r="CK2" s="2"/>
+      <c r="CL2" s="2"/>
+      <c r="CM2" s="2"/>
+      <c r="CN2" s="2"/>
+      <c r="CO2" s="2"/>
+      <c r="CP2" s="2"/>
+      <c r="CQ2" s="2"/>
+      <c r="CR2" s="2"/>
+      <c r="CS2" s="2"/>
+      <c r="CT2" s="2"/>
+      <c r="CU2" s="2"/>
+      <c r="CV2" s="2"/>
+      <c r="CW2" s="2"/>
+      <c r="CX2" s="2"/>
+      <c r="CY2" s="2"/>
+      <c r="CZ2" s="2"/>
+      <c r="DA2" s="2"/>
+    </row>
+    <row r="3" spans="1:106" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -1238,7 +1795,7 @@
         <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -1363,18 +1920,203 @@
       <c r="AR3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AS3" s="3" t="s">
+      <c r="AS3" s="13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AT3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BK3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BO3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BP3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="BQ3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BR3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BS3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BU3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BV3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BW3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BX3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="BY3" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="BZ3" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="CA3" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB3" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="CC3" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="CD3" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="CE3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="CF3" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG3" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="CH3" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="CI3" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="CJ3" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK3" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="CL3" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="CM3" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="CN3" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="CO3" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="CP3" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="CQ3" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="CR3" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="CS3" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="CT3" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="CU3" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="CV3" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="CW3" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="CX3" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="CY3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="CZ3" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="DA3" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="DB3" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:106" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
@@ -1416,14 +2158,74 @@
       <c r="AP4" s="4"/>
       <c r="AQ4" s="4"/>
       <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-    </row>
-    <row r="5" spans="1:45" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="6"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="6"/>
+      <c r="BD4" s="6"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BJ4" s="6"/>
+      <c r="BK4" s="6"/>
+      <c r="BL4" s="2"/>
+      <c r="BM4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BO4" s="2"/>
+      <c r="BP4" s="2"/>
+      <c r="BQ4" s="6"/>
+      <c r="BR4" s="6"/>
+      <c r="BS4" s="2"/>
+      <c r="BT4" s="2"/>
+      <c r="BU4" s="2"/>
+      <c r="BV4" s="6"/>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="6"/>
+      <c r="BY4" s="6"/>
+      <c r="BZ4" s="2"/>
+      <c r="CA4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CC4" s="2"/>
+      <c r="CD4" s="2"/>
+      <c r="CE4" s="6"/>
+      <c r="CF4" s="6"/>
+      <c r="CG4" s="2"/>
+      <c r="CH4" s="2"/>
+      <c r="CI4" s="2"/>
+      <c r="CJ4" s="2"/>
+      <c r="CK4" s="2"/>
+      <c r="CL4" s="2"/>
+      <c r="CM4" s="2"/>
+      <c r="CN4" s="2"/>
+      <c r="CO4" s="2"/>
+      <c r="CP4" s="2"/>
+      <c r="CQ4" s="2"/>
+      <c r="CR4" s="2"/>
+      <c r="CS4" s="2"/>
+      <c r="CT4" s="2"/>
+      <c r="CU4" s="2"/>
+      <c r="CV4" s="2"/>
+      <c r="CW4" s="2"/>
+      <c r="CX4" s="2"/>
+      <c r="CY4" s="2"/>
+      <c r="CZ4" s="2"/>
+      <c r="DA4" s="2"/>
+    </row>
+    <row r="5" spans="1:106" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="2"/>
@@ -1467,14 +2269,74 @@
       <c r="AP5" s="6"/>
       <c r="AQ5" s="6"/>
       <c r="AR5" s="2"/>
-      <c r="AS5" s="2"/>
-    </row>
-    <row r="6" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AS5" s="12"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="6"/>
+      <c r="AW5" s="6"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="6"/>
+      <c r="BD5" s="6"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
+      <c r="BJ5" s="6"/>
+      <c r="BK5" s="6"/>
+      <c r="BL5" s="2"/>
+      <c r="BM5" s="2"/>
+      <c r="BN5" s="2"/>
+      <c r="BO5" s="2"/>
+      <c r="BP5" s="2"/>
+      <c r="BQ5" s="6"/>
+      <c r="BR5" s="6"/>
+      <c r="BS5" s="2"/>
+      <c r="BT5" s="2"/>
+      <c r="BU5" s="2"/>
+      <c r="BV5" s="6"/>
+      <c r="BW5" s="2"/>
+      <c r="BX5" s="6"/>
+      <c r="BY5" s="6"/>
+      <c r="BZ5" s="2"/>
+      <c r="CA5" s="2"/>
+      <c r="CB5" s="2"/>
+      <c r="CC5" s="2"/>
+      <c r="CD5" s="2"/>
+      <c r="CE5" s="6"/>
+      <c r="CF5" s="6"/>
+      <c r="CG5" s="2"/>
+      <c r="CH5" s="2"/>
+      <c r="CI5" s="2"/>
+      <c r="CJ5" s="2"/>
+      <c r="CK5" s="2"/>
+      <c r="CL5" s="2"/>
+      <c r="CM5" s="2"/>
+      <c r="CN5" s="2"/>
+      <c r="CO5" s="2"/>
+      <c r="CP5" s="2"/>
+      <c r="CQ5" s="2"/>
+      <c r="CR5" s="2"/>
+      <c r="CS5" s="2"/>
+      <c r="CT5" s="2"/>
+      <c r="CU5" s="2"/>
+      <c r="CV5" s="2"/>
+      <c r="CW5" s="2"/>
+      <c r="CX5" s="2"/>
+      <c r="CY5" s="2"/>
+      <c r="CZ5" s="2"/>
+      <c r="DA5" s="2"/>
+    </row>
+    <row r="6" spans="1:106" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="8">
         <v>1</v>
@@ -1520,14 +2382,74 @@
       <c r="AP6" s="6"/>
       <c r="AQ6" s="6"/>
       <c r="AR6" s="2"/>
-      <c r="AS6" s="2"/>
-    </row>
-    <row r="7" spans="1:45" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="6"/>
+      <c r="AW6" s="6"/>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="2"/>
+      <c r="AZ6" s="2"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="6"/>
+      <c r="BD6" s="6"/>
+      <c r="BE6" s="2"/>
+      <c r="BF6" s="2"/>
+      <c r="BG6" s="2"/>
+      <c r="BH6" s="2"/>
+      <c r="BI6" s="2"/>
+      <c r="BJ6" s="6"/>
+      <c r="BK6" s="6"/>
+      <c r="BL6" s="2"/>
+      <c r="BM6" s="2"/>
+      <c r="BN6" s="2"/>
+      <c r="BO6" s="2"/>
+      <c r="BP6" s="2"/>
+      <c r="BQ6" s="6"/>
+      <c r="BR6" s="6"/>
+      <c r="BS6" s="2"/>
+      <c r="BT6" s="2"/>
+      <c r="BU6" s="2"/>
+      <c r="BV6" s="6"/>
+      <c r="BW6" s="2"/>
+      <c r="BX6" s="6"/>
+      <c r="BY6" s="6"/>
+      <c r="BZ6" s="2"/>
+      <c r="CA6" s="2"/>
+      <c r="CB6" s="2"/>
+      <c r="CC6" s="2"/>
+      <c r="CD6" s="2"/>
+      <c r="CE6" s="6"/>
+      <c r="CF6" s="6"/>
+      <c r="CG6" s="2"/>
+      <c r="CH6" s="2"/>
+      <c r="CI6" s="2"/>
+      <c r="CJ6" s="2"/>
+      <c r="CK6" s="2"/>
+      <c r="CL6" s="2"/>
+      <c r="CM6" s="2"/>
+      <c r="CN6" s="2"/>
+      <c r="CO6" s="2"/>
+      <c r="CP6" s="2"/>
+      <c r="CQ6" s="2"/>
+      <c r="CR6" s="2"/>
+      <c r="CS6" s="2"/>
+      <c r="CT6" s="2"/>
+      <c r="CU6" s="2"/>
+      <c r="CV6" s="2"/>
+      <c r="CW6" s="2"/>
+      <c r="CX6" s="2"/>
+      <c r="CY6" s="2"/>
+      <c r="CZ6" s="2"/>
+      <c r="DA6" s="2"/>
+    </row>
+    <row r="7" spans="1:106" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="8">
         <v>1</v>
@@ -1573,9 +2495,69 @@
       <c r="AP7" s="6"/>
       <c r="AQ7" s="6"/>
       <c r="AR7" s="2"/>
-      <c r="AS7" s="2"/>
-    </row>
-    <row r="8" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AS7" s="12"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="2"/>
+      <c r="BG7" s="2"/>
+      <c r="BH7" s="2"/>
+      <c r="BI7" s="2"/>
+      <c r="BJ7" s="6"/>
+      <c r="BK7" s="6"/>
+      <c r="BL7" s="2"/>
+      <c r="BM7" s="2"/>
+      <c r="BN7" s="2"/>
+      <c r="BO7" s="2"/>
+      <c r="BP7" s="2"/>
+      <c r="BQ7" s="6"/>
+      <c r="BR7" s="6"/>
+      <c r="BS7" s="2"/>
+      <c r="BT7" s="2"/>
+      <c r="BU7" s="2"/>
+      <c r="BV7" s="6"/>
+      <c r="BW7" s="2"/>
+      <c r="BX7" s="6"/>
+      <c r="BY7" s="6"/>
+      <c r="BZ7" s="2"/>
+      <c r="CA7" s="2"/>
+      <c r="CB7" s="2"/>
+      <c r="CC7" s="2"/>
+      <c r="CD7" s="2"/>
+      <c r="CE7" s="6"/>
+      <c r="CF7" s="6"/>
+      <c r="CG7" s="2"/>
+      <c r="CH7" s="2"/>
+      <c r="CI7" s="2"/>
+      <c r="CJ7" s="2"/>
+      <c r="CK7" s="2"/>
+      <c r="CL7" s="2"/>
+      <c r="CM7" s="2"/>
+      <c r="CN7" s="2"/>
+      <c r="CO7" s="2"/>
+      <c r="CP7" s="2"/>
+      <c r="CQ7" s="2"/>
+      <c r="CR7" s="2"/>
+      <c r="CS7" s="2"/>
+      <c r="CT7" s="2"/>
+      <c r="CU7" s="2"/>
+      <c r="CV7" s="2"/>
+      <c r="CW7" s="2"/>
+      <c r="CX7" s="2"/>
+      <c r="CY7" s="2"/>
+      <c r="CZ7" s="2"/>
+      <c r="DA7" s="2"/>
+    </row>
+    <row r="8" spans="1:106" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -1622,17 +2604,77 @@
       <c r="AP8" s="6"/>
       <c r="AQ8" s="6"/>
       <c r="AR8" s="2"/>
-      <c r="AS8" s="2"/>
-    </row>
-    <row r="9" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="2"/>
+      <c r="BF8" s="2"/>
+      <c r="BG8" s="2"/>
+      <c r="BH8" s="2"/>
+      <c r="BI8" s="2"/>
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="6"/>
+      <c r="BL8" s="2"/>
+      <c r="BM8" s="2"/>
+      <c r="BN8" s="2"/>
+      <c r="BO8" s="2"/>
+      <c r="BP8" s="2"/>
+      <c r="BQ8" s="6"/>
+      <c r="BR8" s="6"/>
+      <c r="BS8" s="2"/>
+      <c r="BT8" s="2"/>
+      <c r="BU8" s="2"/>
+      <c r="BV8" s="6"/>
+      <c r="BW8" s="2"/>
+      <c r="BX8" s="6"/>
+      <c r="BY8" s="6"/>
+      <c r="BZ8" s="2"/>
+      <c r="CA8" s="2"/>
+      <c r="CB8" s="2"/>
+      <c r="CC8" s="2"/>
+      <c r="CD8" s="2"/>
+      <c r="CE8" s="6"/>
+      <c r="CF8" s="6"/>
+      <c r="CG8" s="2"/>
+      <c r="CH8" s="2"/>
+      <c r="CI8" s="2"/>
+      <c r="CJ8" s="2"/>
+      <c r="CK8" s="2"/>
+      <c r="CL8" s="2"/>
+      <c r="CM8" s="2"/>
+      <c r="CN8" s="2"/>
+      <c r="CO8" s="2"/>
+      <c r="CP8" s="2"/>
+      <c r="CQ8" s="2"/>
+      <c r="CR8" s="2"/>
+      <c r="CS8" s="2"/>
+      <c r="CT8" s="2"/>
+      <c r="CU8" s="2"/>
+      <c r="CV8" s="2"/>
+      <c r="CW8" s="2"/>
+      <c r="CX8" s="2"/>
+      <c r="CY8" s="2"/>
+      <c r="CZ8" s="2"/>
+      <c r="DA8" s="2"/>
+    </row>
+    <row r="9" spans="1:106" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.8</v>
+        <v>51</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1643,7 +2685,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -1677,14 +2719,76 @@
       <c r="AP9" s="6"/>
       <c r="AQ9" s="6"/>
       <c r="AR9" s="2"/>
-      <c r="AS9" s="2"/>
-    </row>
-    <row r="10" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="AS9" s="12"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="6"/>
+      <c r="AW9" s="6"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="6"/>
+      <c r="BD9" s="6"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2"/>
+      <c r="BG9" s="2"/>
+      <c r="BH9" s="2"/>
+      <c r="BI9" s="2"/>
+      <c r="BJ9" s="6"/>
+      <c r="BK9" s="6"/>
+      <c r="BL9" s="2"/>
+      <c r="BM9" s="2"/>
+      <c r="BN9" s="2"/>
+      <c r="BO9" s="2"/>
+      <c r="BP9" s="2"/>
+      <c r="BQ9" s="6"/>
+      <c r="BR9" s="6"/>
+      <c r="BS9" s="2"/>
+      <c r="BT9" s="2"/>
+      <c r="BU9" s="2"/>
+      <c r="BV9" s="6"/>
+      <c r="BW9" s="2"/>
+      <c r="BX9" s="6"/>
+      <c r="BY9" s="6"/>
+      <c r="BZ9" s="2"/>
+      <c r="CA9" s="2"/>
+      <c r="CB9" s="2"/>
+      <c r="CC9" s="2"/>
+      <c r="CD9" s="2"/>
+      <c r="CE9" s="6"/>
+      <c r="CF9" s="6"/>
+      <c r="CG9" s="2"/>
+      <c r="CH9" s="2"/>
+      <c r="CI9" s="2"/>
+      <c r="CJ9" s="2"/>
+      <c r="CK9" s="2"/>
+      <c r="CL9" s="2"/>
+      <c r="CM9" s="2"/>
+      <c r="CN9" s="2"/>
+      <c r="CO9" s="2"/>
+      <c r="CP9" s="2"/>
+      <c r="CQ9" s="2"/>
+      <c r="CR9" s="2"/>
+      <c r="CS9" s="2"/>
+      <c r="CT9" s="2"/>
+      <c r="CU9" s="2"/>
+      <c r="CV9" s="2"/>
+      <c r="CW9" s="2"/>
+      <c r="CX9" s="2"/>
+      <c r="CY9" s="2"/>
+      <c r="CZ9" s="2"/>
+      <c r="DA9" s="2"/>
+    </row>
+    <row r="10" spans="1:106" x14ac:dyDescent="0.4">
+      <c r="A10" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="8"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="6"/>
@@ -1726,16 +2830,76 @@
       <c r="AP10" s="6"/>
       <c r="AQ10" s="6"/>
       <c r="AR10" s="2"/>
-      <c r="AS10" s="2"/>
-    </row>
-    <row r="11" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="AS10" s="12"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="6"/>
+      <c r="AW10" s="6"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="6"/>
+      <c r="BD10" s="6"/>
+      <c r="BE10" s="2"/>
+      <c r="BF10" s="2"/>
+      <c r="BG10" s="2"/>
+      <c r="BH10" s="2"/>
+      <c r="BI10" s="2"/>
+      <c r="BJ10" s="6"/>
+      <c r="BK10" s="6"/>
+      <c r="BL10" s="2"/>
+      <c r="BM10" s="2"/>
+      <c r="BN10" s="2"/>
+      <c r="BO10" s="2"/>
+      <c r="BP10" s="2"/>
+      <c r="BQ10" s="6"/>
+      <c r="BR10" s="6"/>
+      <c r="BS10" s="2"/>
+      <c r="BT10" s="2"/>
+      <c r="BU10" s="2"/>
+      <c r="BV10" s="6"/>
+      <c r="BW10" s="2"/>
+      <c r="BX10" s="6"/>
+      <c r="BY10" s="6"/>
+      <c r="BZ10" s="2"/>
+      <c r="CA10" s="2"/>
+      <c r="CB10" s="2"/>
+      <c r="CC10" s="2"/>
+      <c r="CD10" s="2"/>
+      <c r="CE10" s="6"/>
+      <c r="CF10" s="6"/>
+      <c r="CG10" s="2"/>
+      <c r="CH10" s="2"/>
+      <c r="CI10" s="2"/>
+      <c r="CJ10" s="2"/>
+      <c r="CK10" s="2"/>
+      <c r="CL10" s="2"/>
+      <c r="CM10" s="2"/>
+      <c r="CN10" s="2"/>
+      <c r="CO10" s="2"/>
+      <c r="CP10" s="2"/>
+      <c r="CQ10" s="2"/>
+      <c r="CR10" s="2"/>
+      <c r="CS10" s="2"/>
+      <c r="CT10" s="2"/>
+      <c r="CU10" s="2"/>
+      <c r="CV10" s="2"/>
+      <c r="CW10" s="2"/>
+      <c r="CX10" s="2"/>
+      <c r="CY10" s="2"/>
+      <c r="CZ10" s="2"/>
+      <c r="DA10" s="2"/>
+    </row>
+    <row r="11" spans="1:106" x14ac:dyDescent="0.4">
+      <c r="A11" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="6"/>
@@ -1750,9 +2914,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
@@ -1779,16 +2941,76 @@
       <c r="AP11" s="6"/>
       <c r="AQ11" s="6"/>
       <c r="AR11" s="2"/>
-      <c r="AS11" s="2"/>
-    </row>
-    <row r="12" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="AS11" s="12"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="6"/>
+      <c r="AW11" s="6"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2"/>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="6"/>
+      <c r="BD11" s="6"/>
+      <c r="BE11" s="2"/>
+      <c r="BF11" s="2"/>
+      <c r="BG11" s="2"/>
+      <c r="BH11" s="2"/>
+      <c r="BI11" s="2"/>
+      <c r="BJ11" s="6"/>
+      <c r="BK11" s="6"/>
+      <c r="BL11" s="2"/>
+      <c r="BM11" s="2"/>
+      <c r="BN11" s="2"/>
+      <c r="BO11" s="2"/>
+      <c r="BP11" s="2"/>
+      <c r="BQ11" s="6"/>
+      <c r="BR11" s="6"/>
+      <c r="BS11" s="2"/>
+      <c r="BT11" s="2"/>
+      <c r="BU11" s="2"/>
+      <c r="BV11" s="6"/>
+      <c r="BW11" s="2"/>
+      <c r="BX11" s="6"/>
+      <c r="BY11" s="6"/>
+      <c r="BZ11" s="2"/>
+      <c r="CA11" s="2"/>
+      <c r="CB11" s="2"/>
+      <c r="CC11" s="2"/>
+      <c r="CD11" s="2"/>
+      <c r="CE11" s="6"/>
+      <c r="CF11" s="6"/>
+      <c r="CG11" s="2"/>
+      <c r="CH11" s="2"/>
+      <c r="CI11" s="2"/>
+      <c r="CJ11" s="2"/>
+      <c r="CK11" s="2"/>
+      <c r="CL11" s="2"/>
+      <c r="CM11" s="2"/>
+      <c r="CN11" s="2"/>
+      <c r="CO11" s="2"/>
+      <c r="CP11" s="2"/>
+      <c r="CQ11" s="2"/>
+      <c r="CR11" s="2"/>
+      <c r="CS11" s="2"/>
+      <c r="CT11" s="2"/>
+      <c r="CU11" s="2"/>
+      <c r="CV11" s="2"/>
+      <c r="CW11" s="2"/>
+      <c r="CX11" s="2"/>
+      <c r="CY11" s="2"/>
+      <c r="CZ11" s="2"/>
+      <c r="DA11" s="2"/>
+    </row>
+    <row r="12" spans="1:106" x14ac:dyDescent="0.4">
+      <c r="A12" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="6"/>
@@ -1807,9 +3029,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
-      <c r="V12" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
@@ -1832,16 +3052,76 @@
       <c r="AP12" s="6"/>
       <c r="AQ12" s="6"/>
       <c r="AR12" s="2"/>
-      <c r="AS12" s="2"/>
-    </row>
-    <row r="13" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>62</v>
+      <c r="AS12" s="12"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="6"/>
+      <c r="AW12" s="6"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="6"/>
+      <c r="BD12" s="6"/>
+      <c r="BE12" s="2"/>
+      <c r="BF12" s="2"/>
+      <c r="BG12" s="2"/>
+      <c r="BH12" s="2"/>
+      <c r="BI12" s="2"/>
+      <c r="BJ12" s="6"/>
+      <c r="BK12" s="6"/>
+      <c r="BL12" s="2"/>
+      <c r="BM12" s="2"/>
+      <c r="BN12" s="2"/>
+      <c r="BO12" s="2"/>
+      <c r="BP12" s="2"/>
+      <c r="BQ12" s="6"/>
+      <c r="BR12" s="6"/>
+      <c r="BS12" s="2"/>
+      <c r="BT12" s="2"/>
+      <c r="BU12" s="2"/>
+      <c r="BV12" s="6"/>
+      <c r="BW12" s="2"/>
+      <c r="BX12" s="6"/>
+      <c r="BY12" s="6"/>
+      <c r="BZ12" s="2"/>
+      <c r="CA12" s="2"/>
+      <c r="CB12" s="2"/>
+      <c r="CC12" s="2"/>
+      <c r="CD12" s="2"/>
+      <c r="CE12" s="6"/>
+      <c r="CF12" s="6"/>
+      <c r="CG12" s="2"/>
+      <c r="CH12" s="2"/>
+      <c r="CI12" s="2"/>
+      <c r="CJ12" s="2"/>
+      <c r="CK12" s="2"/>
+      <c r="CL12" s="2"/>
+      <c r="CM12" s="2"/>
+      <c r="CN12" s="2"/>
+      <c r="CO12" s="2"/>
+      <c r="CP12" s="2"/>
+      <c r="CQ12" s="2"/>
+      <c r="CR12" s="2"/>
+      <c r="CS12" s="2"/>
+      <c r="CT12" s="2"/>
+      <c r="CU12" s="2"/>
+      <c r="CV12" s="2"/>
+      <c r="CW12" s="2"/>
+      <c r="CX12" s="2"/>
+      <c r="CY12" s="2"/>
+      <c r="CZ12" s="2"/>
+      <c r="DA12" s="2"/>
+    </row>
+    <row r="13" spans="1:106" x14ac:dyDescent="0.4">
+      <c r="A13" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="C13" s="8"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="6"/>
@@ -1883,15 +3163,75 @@
       <c r="AP13" s="6"/>
       <c r="AQ13" s="6"/>
       <c r="AR13" s="2"/>
-      <c r="AS13" s="2"/>
-    </row>
-    <row r="14" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AS13" s="12"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="6"/>
+      <c r="AW13" s="6"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="6"/>
+      <c r="BD13" s="6"/>
+      <c r="BE13" s="2"/>
+      <c r="BF13" s="2"/>
+      <c r="BG13" s="2"/>
+      <c r="BH13" s="2"/>
+      <c r="BI13" s="2"/>
+      <c r="BJ13" s="6"/>
+      <c r="BK13" s="6"/>
+      <c r="BL13" s="2"/>
+      <c r="BM13" s="2"/>
+      <c r="BN13" s="2"/>
+      <c r="BO13" s="2"/>
+      <c r="BP13" s="2"/>
+      <c r="BQ13" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR13" s="6"/>
+      <c r="BS13" s="2"/>
+      <c r="BT13" s="2"/>
+      <c r="BU13" s="2"/>
+      <c r="BV13" s="6"/>
+      <c r="BW13" s="2"/>
+      <c r="BX13" s="6"/>
+      <c r="BY13" s="6"/>
+      <c r="BZ13" s="2"/>
+      <c r="CA13" s="2"/>
+      <c r="CB13" s="2"/>
+      <c r="CC13" s="2"/>
+      <c r="CD13" s="2"/>
+      <c r="CE13" s="6"/>
+      <c r="CF13" s="6"/>
+      <c r="CG13" s="2"/>
+      <c r="CH13" s="2"/>
+      <c r="CI13" s="2"/>
+      <c r="CJ13" s="2"/>
+      <c r="CK13" s="2"/>
+      <c r="CL13" s="2"/>
+      <c r="CM13" s="2"/>
+      <c r="CN13" s="2"/>
+      <c r="CO13" s="2"/>
+      <c r="CP13" s="2"/>
+      <c r="CQ13" s="2"/>
+      <c r="CR13" s="2"/>
+      <c r="CS13" s="2"/>
+      <c r="CT13" s="2"/>
+      <c r="CU13" s="2"/>
+      <c r="CV13" s="2"/>
+      <c r="CW13" s="2"/>
+      <c r="CX13" s="2"/>
+      <c r="CY13" s="2"/>
+      <c r="CZ13" s="2"/>
+      <c r="DA13" s="2"/>
+    </row>
+    <row r="14" spans="1:106" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1922,9 +3262,7 @@
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
-      <c r="AG14" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="AG14" s="2"/>
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
       <c r="AJ14" s="6"/>
@@ -1936,13 +3274,73 @@
       <c r="AP14" s="6"/>
       <c r="AQ14" s="6"/>
       <c r="AR14" s="2"/>
-      <c r="AS14" s="2"/>
-    </row>
-    <row r="15" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AS14" s="12"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="6"/>
+      <c r="AW14" s="6"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="6"/>
+      <c r="BD14" s="6"/>
+      <c r="BE14" s="2"/>
+      <c r="BF14" s="2"/>
+      <c r="BG14" s="2"/>
+      <c r="BH14" s="2"/>
+      <c r="BI14" s="2"/>
+      <c r="BJ14" s="6"/>
+      <c r="BK14" s="6"/>
+      <c r="BL14" s="2"/>
+      <c r="BM14" s="2"/>
+      <c r="BN14" s="2"/>
+      <c r="BO14" s="2"/>
+      <c r="BP14" s="2"/>
+      <c r="BQ14" s="6"/>
+      <c r="BR14" s="6"/>
+      <c r="BS14" s="2"/>
+      <c r="BT14" s="2"/>
+      <c r="BU14" s="2"/>
+      <c r="BV14" s="6"/>
+      <c r="BW14" s="2"/>
+      <c r="BX14" s="6"/>
+      <c r="BY14" s="6"/>
+      <c r="BZ14" s="2"/>
+      <c r="CA14" s="2"/>
+      <c r="CB14" s="2"/>
+      <c r="CC14" s="2"/>
+      <c r="CD14" s="2"/>
+      <c r="CE14" s="6"/>
+      <c r="CF14" s="6"/>
+      <c r="CG14" s="2"/>
+      <c r="CH14" s="2"/>
+      <c r="CI14" s="2"/>
+      <c r="CJ14" s="2"/>
+      <c r="CK14" s="2"/>
+      <c r="CL14" s="2"/>
+      <c r="CM14" s="2"/>
+      <c r="CN14" s="2"/>
+      <c r="CO14" s="2"/>
+      <c r="CP14" s="2"/>
+      <c r="CQ14" s="2"/>
+      <c r="CR14" s="2"/>
+      <c r="CS14" s="2"/>
+      <c r="CT14" s="2"/>
+      <c r="CU14" s="2"/>
+      <c r="CV14" s="2"/>
+      <c r="CW14" s="2"/>
+      <c r="CX14" s="2"/>
+      <c r="CY14" s="2"/>
+      <c r="CZ14" s="2"/>
+      <c r="DA14" s="2"/>
+    </row>
+    <row r="15" spans="1:106" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="2"/>
@@ -1960,7 +3358,9 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
+      <c r="R15" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="S15" s="2"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
@@ -1987,13 +3387,73 @@
       <c r="AP15" s="6"/>
       <c r="AQ15" s="6"/>
       <c r="AR15" s="2"/>
-      <c r="AS15" s="2"/>
-    </row>
-    <row r="16" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="6"/>
+      <c r="AW15" s="6"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="2"/>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="6"/>
+      <c r="BD15" s="6"/>
+      <c r="BE15" s="2"/>
+      <c r="BF15" s="2"/>
+      <c r="BG15" s="2"/>
+      <c r="BH15" s="2"/>
+      <c r="BI15" s="2"/>
+      <c r="BJ15" s="6"/>
+      <c r="BK15" s="6"/>
+      <c r="BL15" s="2"/>
+      <c r="BM15" s="2"/>
+      <c r="BN15" s="2"/>
+      <c r="BO15" s="2"/>
+      <c r="BP15" s="2"/>
+      <c r="BQ15" s="6"/>
+      <c r="BR15" s="6"/>
+      <c r="BS15" s="2"/>
+      <c r="BT15" s="2"/>
+      <c r="BU15" s="2"/>
+      <c r="BV15" s="6"/>
+      <c r="BW15" s="2"/>
+      <c r="BX15" s="6"/>
+      <c r="BY15" s="6"/>
+      <c r="BZ15" s="2"/>
+      <c r="CA15" s="2"/>
+      <c r="CB15" s="2"/>
+      <c r="CC15" s="2"/>
+      <c r="CD15" s="2"/>
+      <c r="CE15" s="6"/>
+      <c r="CF15" s="6"/>
+      <c r="CG15" s="2"/>
+      <c r="CH15" s="2"/>
+      <c r="CI15" s="2"/>
+      <c r="CJ15" s="2"/>
+      <c r="CK15" s="2"/>
+      <c r="CL15" s="2"/>
+      <c r="CM15" s="2"/>
+      <c r="CN15" s="2"/>
+      <c r="CO15" s="2"/>
+      <c r="CP15" s="2"/>
+      <c r="CQ15" s="2"/>
+      <c r="CR15" s="2"/>
+      <c r="CS15" s="2"/>
+      <c r="CT15" s="2"/>
+      <c r="CU15" s="2"/>
+      <c r="CV15" s="2"/>
+      <c r="CW15" s="2"/>
+      <c r="CX15" s="2"/>
+      <c r="CY15" s="2"/>
+      <c r="CZ15" s="2"/>
+      <c r="DA15" s="2"/>
+    </row>
+    <row r="16" spans="1:106" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="2"/>
@@ -2015,7 +3475,9 @@
       <c r="S16" s="2"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
-      <c r="V16" s="2"/>
+      <c r="V16" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
@@ -2038,13 +3500,73 @@
       <c r="AP16" s="6"/>
       <c r="AQ16" s="6"/>
       <c r="AR16" s="2"/>
-      <c r="AS16" s="2"/>
-    </row>
-    <row r="17" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="6"/>
+      <c r="AW16" s="6"/>
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="2"/>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="6"/>
+      <c r="BD16" s="6"/>
+      <c r="BE16" s="2"/>
+      <c r="BF16" s="2"/>
+      <c r="BG16" s="2"/>
+      <c r="BH16" s="2"/>
+      <c r="BI16" s="2"/>
+      <c r="BJ16" s="6"/>
+      <c r="BK16" s="6"/>
+      <c r="BL16" s="2"/>
+      <c r="BM16" s="2"/>
+      <c r="BN16" s="2"/>
+      <c r="BO16" s="2"/>
+      <c r="BP16" s="2"/>
+      <c r="BQ16" s="6"/>
+      <c r="BR16" s="6"/>
+      <c r="BS16" s="2"/>
+      <c r="BT16" s="2"/>
+      <c r="BU16" s="2"/>
+      <c r="BV16" s="6"/>
+      <c r="BW16" s="2"/>
+      <c r="BX16" s="6"/>
+      <c r="BY16" s="6"/>
+      <c r="BZ16" s="2"/>
+      <c r="CA16" s="2"/>
+      <c r="CB16" s="2"/>
+      <c r="CC16" s="2"/>
+      <c r="CD16" s="2"/>
+      <c r="CE16" s="6"/>
+      <c r="CF16" s="6"/>
+      <c r="CG16" s="2"/>
+      <c r="CH16" s="2"/>
+      <c r="CI16" s="2"/>
+      <c r="CJ16" s="2"/>
+      <c r="CK16" s="2"/>
+      <c r="CL16" s="2"/>
+      <c r="CM16" s="2"/>
+      <c r="CN16" s="2"/>
+      <c r="CO16" s="2"/>
+      <c r="CP16" s="2"/>
+      <c r="CQ16" s="2"/>
+      <c r="CR16" s="2"/>
+      <c r="CS16" s="2"/>
+      <c r="CT16" s="2"/>
+      <c r="CU16" s="2"/>
+      <c r="CV16" s="2"/>
+      <c r="CW16" s="2"/>
+      <c r="CX16" s="2"/>
+      <c r="CY16" s="2"/>
+      <c r="CZ16" s="2"/>
+      <c r="DA16" s="2"/>
+    </row>
+    <row r="17" spans="1:105" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="2"/>
@@ -2089,14 +3611,74 @@
       <c r="AP17" s="6"/>
       <c r="AQ17" s="6"/>
       <c r="AR17" s="2"/>
-      <c r="AS17" s="2"/>
-    </row>
-    <row r="18" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AS17" s="12"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="6"/>
+      <c r="AW17" s="6"/>
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="2"/>
+      <c r="BA17" s="2"/>
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="6"/>
+      <c r="BD17" s="6"/>
+      <c r="BE17" s="2"/>
+      <c r="BF17" s="2"/>
+      <c r="BG17" s="2"/>
+      <c r="BH17" s="2"/>
+      <c r="BI17" s="2"/>
+      <c r="BJ17" s="6"/>
+      <c r="BK17" s="6"/>
+      <c r="BL17" s="2"/>
+      <c r="BM17" s="2"/>
+      <c r="BN17" s="2"/>
+      <c r="BO17" s="2"/>
+      <c r="BP17" s="2"/>
+      <c r="BQ17" s="6"/>
+      <c r="BR17" s="6"/>
+      <c r="BS17" s="2"/>
+      <c r="BT17" s="2"/>
+      <c r="BU17" s="2"/>
+      <c r="BV17" s="6"/>
+      <c r="BW17" s="2"/>
+      <c r="BX17" s="6"/>
+      <c r="BY17" s="6"/>
+      <c r="BZ17" s="2"/>
+      <c r="CA17" s="2"/>
+      <c r="CB17" s="2"/>
+      <c r="CC17" s="2"/>
+      <c r="CD17" s="2"/>
+      <c r="CE17" s="6"/>
+      <c r="CF17" s="6"/>
+      <c r="CG17" s="2"/>
+      <c r="CH17" s="2"/>
+      <c r="CI17" s="2"/>
+      <c r="CJ17" s="2"/>
+      <c r="CK17" s="2"/>
+      <c r="CL17" s="2"/>
+      <c r="CM17" s="2"/>
+      <c r="CN17" s="2"/>
+      <c r="CO17" s="2"/>
+      <c r="CP17" s="2"/>
+      <c r="CQ17" s="2"/>
+      <c r="CR17" s="2"/>
+      <c r="CS17" s="2"/>
+      <c r="CT17" s="2"/>
+      <c r="CU17" s="2"/>
+      <c r="CV17" s="2"/>
+      <c r="CW17" s="2"/>
+      <c r="CX17" s="2"/>
+      <c r="CY17" s="2"/>
+      <c r="CZ17" s="2"/>
+      <c r="DA17" s="2"/>
+    </row>
+    <row r="18" spans="1:105" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2128,7 +3710,9 @@
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
+      <c r="AG18" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
       <c r="AJ18" s="6"/>
@@ -2140,11 +3724,75 @@
       <c r="AP18" s="6"/>
       <c r="AQ18" s="6"/>
       <c r="AR18" s="2"/>
-      <c r="AS18" s="2"/>
-    </row>
-    <row r="19" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="AS18" s="12"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="6"/>
+      <c r="AW18" s="6"/>
+      <c r="AX18" s="2"/>
+      <c r="AY18" s="2"/>
+      <c r="AZ18" s="2"/>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="6"/>
+      <c r="BD18" s="6"/>
+      <c r="BE18" s="2"/>
+      <c r="BF18" s="2"/>
+      <c r="BG18" s="2"/>
+      <c r="BH18" s="2"/>
+      <c r="BI18" s="2"/>
+      <c r="BJ18" s="6"/>
+      <c r="BK18" s="6"/>
+      <c r="BL18" s="2"/>
+      <c r="BM18" s="2"/>
+      <c r="BN18" s="2"/>
+      <c r="BO18" s="2"/>
+      <c r="BP18" s="2"/>
+      <c r="BQ18" s="6"/>
+      <c r="BR18" s="6"/>
+      <c r="BS18" s="2"/>
+      <c r="BT18" s="2"/>
+      <c r="BU18" s="2"/>
+      <c r="BV18" s="6"/>
+      <c r="BW18" s="2"/>
+      <c r="BX18" s="6"/>
+      <c r="BY18" s="6"/>
+      <c r="BZ18" s="2"/>
+      <c r="CA18" s="2"/>
+      <c r="CB18" s="2"/>
+      <c r="CC18" s="2"/>
+      <c r="CD18" s="2"/>
+      <c r="CE18" s="6"/>
+      <c r="CF18" s="6"/>
+      <c r="CG18" s="2"/>
+      <c r="CH18" s="2"/>
+      <c r="CI18" s="2"/>
+      <c r="CJ18" s="2"/>
+      <c r="CK18" s="2"/>
+      <c r="CL18" s="2"/>
+      <c r="CM18" s="2"/>
+      <c r="CN18" s="2"/>
+      <c r="CO18" s="2"/>
+      <c r="CP18" s="2"/>
+      <c r="CQ18" s="2"/>
+      <c r="CR18" s="2"/>
+      <c r="CS18" s="2"/>
+      <c r="CT18" s="2"/>
+      <c r="CU18" s="2"/>
+      <c r="CV18" s="2"/>
+      <c r="CW18" s="2"/>
+      <c r="CX18" s="2"/>
+      <c r="CY18" s="2"/>
+      <c r="CZ18" s="2"/>
+      <c r="DA18" s="2"/>
+    </row>
+    <row r="19" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -2187,11 +3835,75 @@
       <c r="AP19" s="6"/>
       <c r="AQ19" s="6"/>
       <c r="AR19" s="2"/>
-      <c r="AS19" s="2"/>
-    </row>
-    <row r="20" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="AS19" s="12"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="6"/>
+      <c r="AW19" s="6"/>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="2"/>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="6"/>
+      <c r="BD19" s="6"/>
+      <c r="BE19" s="2"/>
+      <c r="BF19" s="2"/>
+      <c r="BG19" s="2"/>
+      <c r="BH19" s="2"/>
+      <c r="BI19" s="2"/>
+      <c r="BJ19" s="6"/>
+      <c r="BK19" s="6"/>
+      <c r="BL19" s="2"/>
+      <c r="BM19" s="2"/>
+      <c r="BN19" s="2"/>
+      <c r="BO19" s="2"/>
+      <c r="BP19" s="2"/>
+      <c r="BQ19" s="6"/>
+      <c r="BR19" s="6"/>
+      <c r="BS19" s="2"/>
+      <c r="BT19" s="2"/>
+      <c r="BU19" s="2"/>
+      <c r="BV19" s="6"/>
+      <c r="BW19" s="2"/>
+      <c r="BX19" s="6"/>
+      <c r="BY19" s="6"/>
+      <c r="BZ19" s="2"/>
+      <c r="CA19" s="2"/>
+      <c r="CB19" s="2"/>
+      <c r="CC19" s="2"/>
+      <c r="CD19" s="2"/>
+      <c r="CE19" s="6"/>
+      <c r="CF19" s="6"/>
+      <c r="CG19" s="2"/>
+      <c r="CH19" s="2"/>
+      <c r="CI19" s="2"/>
+      <c r="CJ19" s="2"/>
+      <c r="CK19" s="2"/>
+      <c r="CL19" s="2"/>
+      <c r="CM19" s="2"/>
+      <c r="CN19" s="2"/>
+      <c r="CO19" s="2"/>
+      <c r="CP19" s="2"/>
+      <c r="CQ19" s="2"/>
+      <c r="CR19" s="2"/>
+      <c r="CS19" s="2"/>
+      <c r="CT19" s="2"/>
+      <c r="CU19" s="2"/>
+      <c r="CV19" s="2"/>
+      <c r="CW19" s="2"/>
+      <c r="CX19" s="2"/>
+      <c r="CY19" s="2"/>
+      <c r="CZ19" s="2"/>
+      <c r="DA19" s="2"/>
+    </row>
+    <row r="20" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -2234,11 +3946,75 @@
       <c r="AP20" s="6"/>
       <c r="AQ20" s="6"/>
       <c r="AR20" s="2"/>
-      <c r="AS20" s="2"/>
-    </row>
-    <row r="21" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="AS20" s="12"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="6"/>
+      <c r="AW20" s="6"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="2"/>
+      <c r="AZ20" s="2"/>
+      <c r="BA20" s="2"/>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="6"/>
+      <c r="BD20" s="6"/>
+      <c r="BE20" s="2"/>
+      <c r="BF20" s="2"/>
+      <c r="BG20" s="2"/>
+      <c r="BH20" s="2"/>
+      <c r="BI20" s="2"/>
+      <c r="BJ20" s="6"/>
+      <c r="BK20" s="6"/>
+      <c r="BL20" s="2"/>
+      <c r="BM20" s="2"/>
+      <c r="BN20" s="2"/>
+      <c r="BO20" s="2"/>
+      <c r="BP20" s="2"/>
+      <c r="BQ20" s="6"/>
+      <c r="BR20" s="6"/>
+      <c r="BS20" s="2"/>
+      <c r="BT20" s="2"/>
+      <c r="BU20" s="2"/>
+      <c r="BV20" s="6"/>
+      <c r="BW20" s="2"/>
+      <c r="BX20" s="6"/>
+      <c r="BY20" s="6"/>
+      <c r="BZ20" s="2"/>
+      <c r="CA20" s="2"/>
+      <c r="CB20" s="2"/>
+      <c r="CC20" s="2"/>
+      <c r="CD20" s="2"/>
+      <c r="CE20" s="6"/>
+      <c r="CF20" s="6"/>
+      <c r="CG20" s="2"/>
+      <c r="CH20" s="2"/>
+      <c r="CI20" s="2"/>
+      <c r="CJ20" s="2"/>
+      <c r="CK20" s="2"/>
+      <c r="CL20" s="2"/>
+      <c r="CM20" s="2"/>
+      <c r="CN20" s="2"/>
+      <c r="CO20" s="2"/>
+      <c r="CP20" s="2"/>
+      <c r="CQ20" s="2"/>
+      <c r="CR20" s="2"/>
+      <c r="CS20" s="2"/>
+      <c r="CT20" s="2"/>
+      <c r="CU20" s="2"/>
+      <c r="CV20" s="2"/>
+      <c r="CW20" s="2"/>
+      <c r="CX20" s="2"/>
+      <c r="CY20" s="2"/>
+      <c r="CZ20" s="2"/>
+      <c r="DA20" s="2"/>
+    </row>
+    <row r="21" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -2281,12 +4057,78 @@
       <c r="AP21" s="6"/>
       <c r="AQ21" s="6"/>
       <c r="AR21" s="2"/>
-      <c r="AS21" s="2"/>
-    </row>
-    <row r="22" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="AS21" s="12"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="6"/>
+      <c r="AW21" s="6"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="2"/>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="6"/>
+      <c r="BD21" s="6"/>
+      <c r="BE21" s="2"/>
+      <c r="BF21" s="2"/>
+      <c r="BG21" s="2"/>
+      <c r="BH21" s="2"/>
+      <c r="BI21" s="2"/>
+      <c r="BJ21" s="6"/>
+      <c r="BK21" s="6"/>
+      <c r="BL21" s="2"/>
+      <c r="BM21" s="2"/>
+      <c r="BN21" s="2"/>
+      <c r="BO21" s="2"/>
+      <c r="BP21" s="2"/>
+      <c r="BQ21" s="6"/>
+      <c r="BR21" s="6"/>
+      <c r="BS21" s="2"/>
+      <c r="BT21" s="2"/>
+      <c r="BU21" s="2"/>
+      <c r="BV21" s="6"/>
+      <c r="BW21" s="2"/>
+      <c r="BX21" s="6"/>
+      <c r="BY21" s="6"/>
+      <c r="BZ21" s="2"/>
+      <c r="CA21" s="2"/>
+      <c r="CB21" s="2"/>
+      <c r="CC21" s="2"/>
+      <c r="CD21" s="2"/>
+      <c r="CE21" s="6"/>
+      <c r="CF21" s="6"/>
+      <c r="CG21" s="2"/>
+      <c r="CH21" s="2"/>
+      <c r="CI21" s="2"/>
+      <c r="CJ21" s="2"/>
+      <c r="CK21" s="2"/>
+      <c r="CL21" s="2"/>
+      <c r="CM21" s="2"/>
+      <c r="CN21" s="2"/>
+      <c r="CO21" s="2"/>
+      <c r="CP21" s="2"/>
+      <c r="CQ21" s="2"/>
+      <c r="CR21" s="2"/>
+      <c r="CS21" s="2"/>
+      <c r="CT21" s="2"/>
+      <c r="CU21" s="2"/>
+      <c r="CV21" s="2"/>
+      <c r="CW21" s="2"/>
+      <c r="CX21" s="2"/>
+      <c r="CY21" s="2"/>
+      <c r="CZ21" s="2"/>
+      <c r="DA21" s="2"/>
+    </row>
+    <row r="22" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="6"/>
@@ -2328,9 +4170,69 @@
       <c r="AP22" s="6"/>
       <c r="AQ22" s="6"/>
       <c r="AR22" s="2"/>
-      <c r="AS22" s="2"/>
-    </row>
-    <row r="23" spans="1:45" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AS22" s="12"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="6"/>
+      <c r="AW22" s="6"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
+      <c r="AZ22" s="2"/>
+      <c r="BA22" s="2"/>
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="6"/>
+      <c r="BD22" s="6"/>
+      <c r="BE22" s="2"/>
+      <c r="BF22" s="2"/>
+      <c r="BG22" s="2"/>
+      <c r="BH22" s="2"/>
+      <c r="BI22" s="2"/>
+      <c r="BJ22" s="6"/>
+      <c r="BK22" s="6"/>
+      <c r="BL22" s="2"/>
+      <c r="BM22" s="2"/>
+      <c r="BN22" s="2"/>
+      <c r="BO22" s="2"/>
+      <c r="BP22" s="2"/>
+      <c r="BQ22" s="6"/>
+      <c r="BR22" s="6"/>
+      <c r="BS22" s="2"/>
+      <c r="BT22" s="2"/>
+      <c r="BU22" s="2"/>
+      <c r="BV22" s="6"/>
+      <c r="BW22" s="2"/>
+      <c r="BX22" s="6"/>
+      <c r="BY22" s="6"/>
+      <c r="BZ22" s="2"/>
+      <c r="CA22" s="2"/>
+      <c r="CB22" s="2"/>
+      <c r="CC22" s="2"/>
+      <c r="CD22" s="2"/>
+      <c r="CE22" s="6"/>
+      <c r="CF22" s="6"/>
+      <c r="CG22" s="2"/>
+      <c r="CH22" s="2"/>
+      <c r="CI22" s="2"/>
+      <c r="CJ22" s="2"/>
+      <c r="CK22" s="2"/>
+      <c r="CL22" s="2"/>
+      <c r="CM22" s="2"/>
+      <c r="CN22" s="2"/>
+      <c r="CO22" s="2"/>
+      <c r="CP22" s="2"/>
+      <c r="CQ22" s="2"/>
+      <c r="CR22" s="2"/>
+      <c r="CS22" s="2"/>
+      <c r="CT22" s="2"/>
+      <c r="CU22" s="2"/>
+      <c r="CV22" s="2"/>
+      <c r="CW22" s="2"/>
+      <c r="CX22" s="2"/>
+      <c r="CY22" s="2"/>
+      <c r="CZ22" s="2"/>
+      <c r="DA22" s="2"/>
+    </row>
+    <row r="23" spans="1:105" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2375,7 +4277,5045 @@
       <c r="AP23" s="6"/>
       <c r="AQ23" s="6"/>
       <c r="AR23" s="2"/>
-      <c r="AS23" s="2"/>
+      <c r="AS23" s="12"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="6"/>
+      <c r="AW23" s="6"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="2"/>
+      <c r="BA23" s="2"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="6"/>
+      <c r="BD23" s="6"/>
+      <c r="BE23" s="2"/>
+      <c r="BF23" s="2"/>
+      <c r="BG23" s="2"/>
+      <c r="BH23" s="2"/>
+      <c r="BI23" s="2"/>
+      <c r="BJ23" s="6"/>
+      <c r="BK23" s="6"/>
+      <c r="BL23" s="2"/>
+      <c r="BM23" s="2"/>
+      <c r="BN23" s="2"/>
+      <c r="BO23" s="2"/>
+      <c r="BP23" s="2"/>
+      <c r="BQ23" s="6"/>
+      <c r="BR23" s="6"/>
+      <c r="BS23" s="2"/>
+      <c r="BT23" s="2"/>
+      <c r="BU23" s="2"/>
+      <c r="BV23" s="6"/>
+      <c r="BW23" s="2"/>
+      <c r="BX23" s="6"/>
+      <c r="BY23" s="6"/>
+      <c r="BZ23" s="2"/>
+      <c r="CA23" s="2"/>
+      <c r="CB23" s="2"/>
+      <c r="CC23" s="2"/>
+      <c r="CD23" s="2"/>
+      <c r="CE23" s="6"/>
+      <c r="CF23" s="6"/>
+      <c r="CG23" s="2"/>
+      <c r="CH23" s="2"/>
+      <c r="CI23" s="2"/>
+      <c r="CJ23" s="2"/>
+      <c r="CK23" s="2"/>
+      <c r="CL23" s="2"/>
+      <c r="CM23" s="2"/>
+      <c r="CN23" s="2"/>
+      <c r="CO23" s="2"/>
+      <c r="CP23" s="2"/>
+      <c r="CQ23" s="2"/>
+      <c r="CR23" s="2"/>
+      <c r="CS23" s="2"/>
+      <c r="CT23" s="2"/>
+      <c r="CU23" s="2"/>
+      <c r="CV23" s="2"/>
+      <c r="CW23" s="2"/>
+      <c r="CX23" s="2"/>
+      <c r="CY23" s="2"/>
+      <c r="CZ23" s="2"/>
+      <c r="DA23" s="2"/>
+    </row>
+    <row r="24" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="6"/>
+      <c r="AQ24" s="6"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="12"/>
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="6"/>
+      <c r="AW24" s="6"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2"/>
+      <c r="AZ24" s="2"/>
+      <c r="BA24" s="2"/>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="6"/>
+      <c r="BD24" s="6"/>
+      <c r="BE24" s="2"/>
+      <c r="BF24" s="2"/>
+      <c r="BG24" s="2"/>
+      <c r="BH24" s="2"/>
+      <c r="BI24" s="2"/>
+      <c r="BJ24" s="6"/>
+      <c r="BK24" s="6"/>
+      <c r="BL24" s="2"/>
+      <c r="BM24" s="2"/>
+      <c r="BN24" s="2"/>
+      <c r="BO24" s="2"/>
+      <c r="BP24" s="2"/>
+      <c r="BQ24" s="6"/>
+      <c r="BR24" s="6"/>
+      <c r="BS24" s="2"/>
+      <c r="BT24" s="2"/>
+      <c r="BU24" s="2"/>
+      <c r="BV24" s="6"/>
+      <c r="BW24" s="2"/>
+      <c r="BX24" s="6"/>
+      <c r="BY24" s="6"/>
+      <c r="BZ24" s="2"/>
+      <c r="CA24" s="2"/>
+      <c r="CB24" s="2"/>
+      <c r="CC24" s="2"/>
+      <c r="CD24" s="2"/>
+      <c r="CE24" s="6"/>
+      <c r="CF24" s="6"/>
+      <c r="CG24" s="2"/>
+      <c r="CH24" s="2"/>
+      <c r="CI24" s="2"/>
+      <c r="CJ24" s="2"/>
+      <c r="CK24" s="2"/>
+      <c r="CL24" s="2"/>
+      <c r="CM24" s="2"/>
+      <c r="CN24" s="2"/>
+      <c r="CO24" s="2"/>
+      <c r="CP24" s="2"/>
+      <c r="CQ24" s="2"/>
+      <c r="CR24" s="2"/>
+      <c r="CS24" s="2"/>
+      <c r="CT24" s="2"/>
+      <c r="CU24" s="2"/>
+      <c r="CV24" s="2"/>
+      <c r="CW24" s="2"/>
+      <c r="CX24" s="2"/>
+      <c r="CY24" s="2"/>
+      <c r="CZ24" s="2"/>
+      <c r="DA24" s="2"/>
+    </row>
+    <row r="25" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="6"/>
+      <c r="AQ25" s="6"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="12"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="6"/>
+      <c r="AW25" s="6"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="2"/>
+      <c r="BA25" s="2"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="6"/>
+      <c r="BD25" s="6"/>
+      <c r="BE25" s="2"/>
+      <c r="BF25" s="2"/>
+      <c r="BG25" s="2"/>
+      <c r="BH25" s="2"/>
+      <c r="BI25" s="2"/>
+      <c r="BJ25" s="6"/>
+      <c r="BK25" s="6"/>
+      <c r="BL25" s="2"/>
+      <c r="BM25" s="2"/>
+      <c r="BN25" s="2"/>
+      <c r="BO25" s="2"/>
+      <c r="BP25" s="2"/>
+      <c r="BQ25" s="6"/>
+      <c r="BR25" s="6"/>
+      <c r="BS25" s="2"/>
+      <c r="BT25" s="2"/>
+      <c r="BU25" s="2"/>
+      <c r="BV25" s="6"/>
+      <c r="BW25" s="2"/>
+      <c r="BX25" s="6"/>
+      <c r="BY25" s="6"/>
+      <c r="BZ25" s="2"/>
+      <c r="CA25" s="2"/>
+      <c r="CB25" s="2"/>
+      <c r="CC25" s="2"/>
+      <c r="CD25" s="2"/>
+      <c r="CE25" s="6"/>
+      <c r="CF25" s="6"/>
+      <c r="CG25" s="2"/>
+      <c r="CH25" s="2"/>
+      <c r="CI25" s="2"/>
+      <c r="CJ25" s="2"/>
+      <c r="CK25" s="2"/>
+      <c r="CL25" s="2"/>
+      <c r="CM25" s="2"/>
+      <c r="CN25" s="2"/>
+      <c r="CO25" s="2"/>
+      <c r="CP25" s="2"/>
+      <c r="CQ25" s="2"/>
+      <c r="CR25" s="2"/>
+      <c r="CS25" s="2"/>
+      <c r="CT25" s="2"/>
+      <c r="CU25" s="2"/>
+      <c r="CV25" s="2"/>
+      <c r="CW25" s="2"/>
+      <c r="CX25" s="2"/>
+      <c r="CY25" s="2"/>
+      <c r="CZ25" s="2"/>
+      <c r="DA25" s="2"/>
+    </row>
+    <row r="26" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="6"/>
+      <c r="AQ26" s="6"/>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="12"/>
+      <c r="AT26" s="2"/>
+      <c r="AU26" s="2"/>
+      <c r="AV26" s="6"/>
+      <c r="AW26" s="6"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="2"/>
+      <c r="AZ26" s="2"/>
+      <c r="BA26" s="2"/>
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="6"/>
+      <c r="BD26" s="6"/>
+      <c r="BE26" s="2"/>
+      <c r="BF26" s="2"/>
+      <c r="BG26" s="2"/>
+      <c r="BH26" s="2"/>
+      <c r="BI26" s="2"/>
+      <c r="BJ26" s="6"/>
+      <c r="BK26" s="6"/>
+      <c r="BL26" s="2"/>
+      <c r="BM26" s="2"/>
+      <c r="BN26" s="2"/>
+      <c r="BO26" s="2"/>
+      <c r="BP26" s="2"/>
+      <c r="BQ26" s="6"/>
+      <c r="BR26" s="6"/>
+      <c r="BS26" s="2"/>
+      <c r="BT26" s="2"/>
+      <c r="BU26" s="2"/>
+      <c r="BV26" s="6"/>
+      <c r="BW26" s="2"/>
+      <c r="BX26" s="6"/>
+      <c r="BY26" s="6"/>
+      <c r="BZ26" s="2"/>
+      <c r="CA26" s="2"/>
+      <c r="CB26" s="2"/>
+      <c r="CC26" s="2"/>
+      <c r="CD26" s="2"/>
+      <c r="CE26" s="6"/>
+      <c r="CF26" s="6"/>
+      <c r="CG26" s="2"/>
+      <c r="CH26" s="2"/>
+      <c r="CI26" s="2"/>
+      <c r="CJ26" s="2"/>
+      <c r="CK26" s="2"/>
+      <c r="CL26" s="2"/>
+      <c r="CM26" s="2"/>
+      <c r="CN26" s="2"/>
+      <c r="CO26" s="2"/>
+      <c r="CP26" s="2"/>
+      <c r="CQ26" s="2"/>
+      <c r="CR26" s="2"/>
+      <c r="CS26" s="2"/>
+      <c r="CT26" s="2"/>
+      <c r="CU26" s="2"/>
+      <c r="CV26" s="2"/>
+      <c r="CW26" s="2"/>
+      <c r="CX26" s="2"/>
+      <c r="CY26" s="2"/>
+      <c r="CZ26" s="2"/>
+      <c r="DA26" s="2"/>
+    </row>
+    <row r="27" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="6"/>
+      <c r="AQ27" s="6"/>
+      <c r="AR27" s="2"/>
+      <c r="AS27" s="12"/>
+      <c r="AT27" s="2"/>
+      <c r="AU27" s="2"/>
+      <c r="AV27" s="6"/>
+      <c r="AW27" s="6"/>
+      <c r="AX27" s="2"/>
+      <c r="AY27" s="2"/>
+      <c r="AZ27" s="2"/>
+      <c r="BA27" s="2"/>
+      <c r="BB27" s="2"/>
+      <c r="BC27" s="6"/>
+      <c r="BD27" s="6"/>
+      <c r="BE27" s="2"/>
+      <c r="BF27" s="2"/>
+      <c r="BG27" s="2"/>
+      <c r="BH27" s="2"/>
+      <c r="BI27" s="2"/>
+      <c r="BJ27" s="6"/>
+      <c r="BK27" s="6"/>
+      <c r="BL27" s="2"/>
+      <c r="BM27" s="2"/>
+      <c r="BN27" s="2"/>
+      <c r="BO27" s="2"/>
+      <c r="BP27" s="2"/>
+      <c r="BQ27" s="6"/>
+      <c r="BR27" s="6"/>
+      <c r="BS27" s="2"/>
+      <c r="BT27" s="2"/>
+      <c r="BU27" s="2"/>
+      <c r="BV27" s="6"/>
+      <c r="BW27" s="2"/>
+      <c r="BX27" s="6"/>
+      <c r="BY27" s="6"/>
+      <c r="BZ27" s="2"/>
+      <c r="CA27" s="2"/>
+      <c r="CB27" s="2"/>
+      <c r="CC27" s="2"/>
+      <c r="CD27" s="2"/>
+      <c r="CE27" s="6"/>
+      <c r="CF27" s="6"/>
+      <c r="CG27" s="2"/>
+      <c r="CH27" s="2"/>
+      <c r="CI27" s="2"/>
+      <c r="CJ27" s="2"/>
+      <c r="CK27" s="2"/>
+      <c r="CL27" s="2"/>
+      <c r="CM27" s="2"/>
+      <c r="CN27" s="2"/>
+      <c r="CO27" s="2"/>
+      <c r="CP27" s="2"/>
+      <c r="CQ27" s="2"/>
+      <c r="CR27" s="2"/>
+      <c r="CS27" s="2"/>
+      <c r="CT27" s="2"/>
+      <c r="CU27" s="2"/>
+      <c r="CV27" s="2"/>
+      <c r="CW27" s="2"/>
+      <c r="CX27" s="2"/>
+      <c r="CY27" s="2"/>
+      <c r="CZ27" s="2"/>
+      <c r="DA27" s="2"/>
+    </row>
+    <row r="28" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="AT28" s="2"/>
+      <c r="AU28" s="2"/>
+      <c r="AV28" s="6"/>
+      <c r="AW28" s="6"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="2"/>
+      <c r="AZ28" s="2"/>
+      <c r="BA28" s="2"/>
+      <c r="BB28" s="2"/>
+      <c r="BC28" s="6"/>
+      <c r="BD28" s="6"/>
+      <c r="BE28" s="2"/>
+      <c r="BF28" s="2"/>
+      <c r="BG28" s="2"/>
+      <c r="BH28" s="2"/>
+      <c r="BI28" s="2"/>
+      <c r="BJ28" s="6"/>
+      <c r="BK28" s="6"/>
+      <c r="BL28" s="2"/>
+      <c r="BM28" s="2"/>
+      <c r="BN28" s="2"/>
+      <c r="BO28" s="2"/>
+      <c r="BP28" s="2"/>
+      <c r="BQ28" s="6"/>
+      <c r="BR28" s="6"/>
+      <c r="BS28" s="2"/>
+      <c r="BT28" s="2"/>
+      <c r="BU28" s="2"/>
+      <c r="BV28" s="6"/>
+      <c r="BW28" s="2"/>
+      <c r="BX28" s="6"/>
+      <c r="BY28" s="6"/>
+      <c r="BZ28" s="2"/>
+      <c r="CA28" s="2"/>
+      <c r="CB28" s="2"/>
+      <c r="CC28" s="2"/>
+      <c r="CD28" s="2"/>
+      <c r="CE28" s="6"/>
+      <c r="CF28" s="6"/>
+      <c r="CG28" s="2"/>
+      <c r="CH28" s="2"/>
+      <c r="CI28" s="2"/>
+      <c r="CJ28" s="2"/>
+      <c r="CK28" s="2"/>
+      <c r="CL28" s="2"/>
+      <c r="CM28" s="2"/>
+      <c r="CN28" s="2"/>
+      <c r="CO28" s="2"/>
+      <c r="CP28" s="2"/>
+      <c r="CQ28" s="2"/>
+      <c r="CR28" s="2"/>
+      <c r="CS28" s="2"/>
+      <c r="CT28" s="2"/>
+      <c r="CU28" s="2"/>
+      <c r="CV28" s="2"/>
+      <c r="CW28" s="2"/>
+      <c r="CX28" s="2"/>
+      <c r="CY28" s="2"/>
+      <c r="CZ28" s="2"/>
+      <c r="DA28" s="2"/>
+    </row>
+    <row r="29" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="AT29" s="2"/>
+      <c r="AU29" s="2"/>
+      <c r="AV29" s="6"/>
+      <c r="AW29" s="6"/>
+      <c r="AX29" s="2"/>
+      <c r="AY29" s="2"/>
+      <c r="AZ29" s="2"/>
+      <c r="BA29" s="2"/>
+      <c r="BB29" s="2"/>
+      <c r="BC29" s="6"/>
+      <c r="BD29" s="6"/>
+      <c r="BE29" s="2"/>
+      <c r="BF29" s="2"/>
+      <c r="BG29" s="2"/>
+      <c r="BH29" s="2"/>
+      <c r="BI29" s="2"/>
+      <c r="BJ29" s="6"/>
+      <c r="BK29" s="6"/>
+      <c r="BL29" s="2"/>
+      <c r="BM29" s="2"/>
+      <c r="BN29" s="2"/>
+      <c r="BO29" s="2"/>
+      <c r="BP29" s="2"/>
+      <c r="BQ29" s="6"/>
+      <c r="BR29" s="6"/>
+      <c r="BS29" s="2"/>
+      <c r="BT29" s="2"/>
+      <c r="BU29" s="2"/>
+      <c r="BV29" s="6"/>
+      <c r="BW29" s="2"/>
+      <c r="BX29" s="6"/>
+      <c r="BY29" s="6"/>
+      <c r="BZ29" s="2"/>
+      <c r="CA29" s="2"/>
+      <c r="CB29" s="2"/>
+      <c r="CC29" s="2"/>
+      <c r="CD29" s="2"/>
+      <c r="CE29" s="6"/>
+      <c r="CF29" s="6"/>
+      <c r="CG29" s="2"/>
+      <c r="CH29" s="2"/>
+      <c r="CI29" s="2"/>
+      <c r="CJ29" s="2"/>
+      <c r="CK29" s="2"/>
+      <c r="CL29" s="2"/>
+      <c r="CM29" s="2"/>
+      <c r="CN29" s="2"/>
+      <c r="CO29" s="2"/>
+      <c r="CP29" s="2"/>
+      <c r="CQ29" s="2"/>
+      <c r="CR29" s="2"/>
+      <c r="CS29" s="2"/>
+      <c r="CT29" s="2"/>
+      <c r="CU29" s="2"/>
+      <c r="CV29" s="2"/>
+      <c r="CW29" s="2"/>
+      <c r="CX29" s="2"/>
+      <c r="CY29" s="2"/>
+      <c r="CZ29" s="2"/>
+      <c r="DA29" s="2"/>
+    </row>
+    <row r="30" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="AT30" s="2"/>
+      <c r="AU30" s="2"/>
+      <c r="AV30" s="6"/>
+      <c r="AW30" s="6"/>
+      <c r="AX30" s="2"/>
+      <c r="AY30" s="2"/>
+      <c r="AZ30" s="2"/>
+      <c r="BA30" s="2"/>
+      <c r="BB30" s="2"/>
+      <c r="BC30" s="6"/>
+      <c r="BD30" s="6"/>
+      <c r="BE30" s="2"/>
+      <c r="BF30" s="2"/>
+      <c r="BG30" s="2"/>
+      <c r="BH30" s="2"/>
+      <c r="BI30" s="2"/>
+      <c r="BJ30" s="6"/>
+      <c r="BK30" s="6"/>
+      <c r="BL30" s="2"/>
+      <c r="BM30" s="2"/>
+      <c r="BN30" s="2"/>
+      <c r="BO30" s="2"/>
+      <c r="BP30" s="2"/>
+      <c r="BQ30" s="6"/>
+      <c r="BR30" s="6"/>
+      <c r="BS30" s="2"/>
+      <c r="BT30" s="2"/>
+      <c r="BU30" s="2"/>
+      <c r="BV30" s="6"/>
+      <c r="BW30" s="2"/>
+      <c r="BX30" s="6"/>
+      <c r="BY30" s="6"/>
+      <c r="BZ30" s="2"/>
+      <c r="CA30" s="2"/>
+      <c r="CB30" s="2"/>
+      <c r="CC30" s="2"/>
+      <c r="CD30" s="2"/>
+      <c r="CE30" s="6"/>
+      <c r="CF30" s="6"/>
+      <c r="CG30" s="2"/>
+      <c r="CH30" s="2"/>
+      <c r="CI30" s="2"/>
+      <c r="CJ30" s="2"/>
+      <c r="CK30" s="2"/>
+      <c r="CL30" s="2"/>
+      <c r="CM30" s="2"/>
+      <c r="CN30" s="2"/>
+      <c r="CO30" s="2"/>
+      <c r="CP30" s="2"/>
+      <c r="CQ30" s="2"/>
+      <c r="CR30" s="2"/>
+      <c r="CS30" s="2"/>
+      <c r="CT30" s="2"/>
+      <c r="CU30" s="2"/>
+      <c r="CV30" s="2"/>
+      <c r="CW30" s="2"/>
+      <c r="CX30" s="2"/>
+      <c r="CY30" s="2"/>
+      <c r="CZ30" s="2"/>
+      <c r="DA30" s="2"/>
+    </row>
+    <row r="31" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="AT31" s="2"/>
+      <c r="AU31" s="2"/>
+      <c r="AV31" s="6"/>
+      <c r="AW31" s="6"/>
+      <c r="AX31" s="2"/>
+      <c r="AY31" s="2"/>
+      <c r="AZ31" s="2"/>
+      <c r="BA31" s="2"/>
+      <c r="BB31" s="2"/>
+      <c r="BC31" s="6"/>
+      <c r="BD31" s="6"/>
+      <c r="BE31" s="2"/>
+      <c r="BF31" s="2"/>
+      <c r="BG31" s="2"/>
+      <c r="BH31" s="2"/>
+      <c r="BI31" s="2"/>
+      <c r="BJ31" s="6"/>
+      <c r="BK31" s="6"/>
+      <c r="BL31" s="2"/>
+      <c r="BM31" s="2"/>
+      <c r="BN31" s="2"/>
+      <c r="BO31" s="2"/>
+      <c r="BP31" s="2"/>
+      <c r="BQ31" s="6"/>
+      <c r="BR31" s="6"/>
+      <c r="BS31" s="2"/>
+      <c r="BT31" s="2"/>
+      <c r="BU31" s="2"/>
+      <c r="BV31" s="6"/>
+      <c r="BW31" s="2"/>
+      <c r="BX31" s="6"/>
+      <c r="BY31" s="6"/>
+      <c r="BZ31" s="2"/>
+      <c r="CA31" s="2"/>
+      <c r="CB31" s="2"/>
+      <c r="CC31" s="2"/>
+      <c r="CD31" s="2"/>
+      <c r="CE31" s="6"/>
+      <c r="CF31" s="6"/>
+      <c r="CG31" s="2"/>
+      <c r="CH31" s="2"/>
+      <c r="CI31" s="2"/>
+      <c r="CJ31" s="2"/>
+      <c r="CK31" s="2"/>
+      <c r="CL31" s="2"/>
+      <c r="CM31" s="2"/>
+      <c r="CN31" s="2"/>
+      <c r="CO31" s="2"/>
+      <c r="CP31" s="2"/>
+      <c r="CQ31" s="2"/>
+      <c r="CR31" s="2"/>
+      <c r="CS31" s="2"/>
+      <c r="CT31" s="2"/>
+      <c r="CU31" s="2"/>
+      <c r="CV31" s="2"/>
+      <c r="CW31" s="2"/>
+      <c r="CX31" s="2"/>
+      <c r="CY31" s="2"/>
+      <c r="CZ31" s="2"/>
+      <c r="DA31" s="2"/>
+    </row>
+    <row r="32" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="AT32" s="2"/>
+      <c r="AU32" s="2"/>
+      <c r="AV32" s="6"/>
+      <c r="AW32" s="6"/>
+      <c r="AX32" s="2"/>
+      <c r="AY32" s="2"/>
+      <c r="AZ32" s="2"/>
+      <c r="BA32" s="2"/>
+      <c r="BB32" s="2"/>
+      <c r="BC32" s="6"/>
+      <c r="BD32" s="6"/>
+      <c r="BE32" s="2"/>
+      <c r="BF32" s="2"/>
+      <c r="BG32" s="2"/>
+      <c r="BH32" s="2"/>
+      <c r="BI32" s="2"/>
+      <c r="BJ32" s="6"/>
+      <c r="BK32" s="6"/>
+      <c r="BL32" s="2"/>
+      <c r="BM32" s="2"/>
+      <c r="BN32" s="2"/>
+      <c r="BO32" s="2"/>
+      <c r="BP32" s="2"/>
+      <c r="BQ32" s="6"/>
+      <c r="BR32" s="6"/>
+      <c r="BS32" s="2"/>
+      <c r="BT32" s="2"/>
+      <c r="BU32" s="2"/>
+      <c r="BV32" s="6"/>
+      <c r="BW32" s="2"/>
+      <c r="BX32" s="6"/>
+      <c r="BY32" s="6"/>
+      <c r="BZ32" s="2"/>
+      <c r="CA32" s="2"/>
+      <c r="CB32" s="2"/>
+      <c r="CC32" s="2"/>
+      <c r="CD32" s="2"/>
+      <c r="CE32" s="6"/>
+      <c r="CF32" s="6"/>
+      <c r="CG32" s="2"/>
+      <c r="CH32" s="2"/>
+      <c r="CI32" s="2"/>
+      <c r="CJ32" s="2"/>
+      <c r="CK32" s="2"/>
+      <c r="CL32" s="2"/>
+      <c r="CM32" s="2"/>
+      <c r="CN32" s="2"/>
+      <c r="CO32" s="2"/>
+      <c r="CP32" s="2"/>
+      <c r="CQ32" s="2"/>
+      <c r="CR32" s="2"/>
+      <c r="CS32" s="2"/>
+      <c r="CT32" s="2"/>
+      <c r="CU32" s="2"/>
+      <c r="CV32" s="2"/>
+      <c r="CW32" s="2"/>
+      <c r="CX32" s="2"/>
+      <c r="CY32" s="2"/>
+      <c r="CZ32" s="2"/>
+      <c r="DA32" s="2"/>
+    </row>
+    <row r="33" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="AT33" s="2"/>
+      <c r="AU33" s="2"/>
+      <c r="AV33" s="6"/>
+      <c r="AW33" s="6"/>
+      <c r="AX33" s="2"/>
+      <c r="AY33" s="2"/>
+      <c r="AZ33" s="2"/>
+      <c r="BA33" s="2"/>
+      <c r="BB33" s="2"/>
+      <c r="BC33" s="6"/>
+      <c r="BD33" s="6"/>
+      <c r="BE33" s="2"/>
+      <c r="BF33" s="2"/>
+      <c r="BG33" s="2"/>
+      <c r="BH33" s="2"/>
+      <c r="BI33" s="2"/>
+      <c r="BJ33" s="6"/>
+      <c r="BK33" s="6"/>
+      <c r="BL33" s="2"/>
+      <c r="BM33" s="2"/>
+      <c r="BN33" s="2"/>
+      <c r="BO33" s="2"/>
+      <c r="BP33" s="2"/>
+      <c r="BQ33" s="6"/>
+      <c r="BR33" s="6"/>
+      <c r="BS33" s="2"/>
+      <c r="BT33" s="2"/>
+      <c r="BU33" s="2"/>
+      <c r="BV33" s="6"/>
+      <c r="BW33" s="2"/>
+      <c r="BX33" s="6"/>
+      <c r="BY33" s="6"/>
+      <c r="BZ33" s="2"/>
+      <c r="CA33" s="2"/>
+      <c r="CB33" s="2"/>
+      <c r="CC33" s="2"/>
+      <c r="CD33" s="2"/>
+      <c r="CE33" s="6"/>
+      <c r="CF33" s="6"/>
+      <c r="CG33" s="2"/>
+      <c r="CH33" s="2"/>
+      <c r="CI33" s="2"/>
+      <c r="CJ33" s="2"/>
+      <c r="CK33" s="2"/>
+      <c r="CL33" s="2"/>
+      <c r="CM33" s="2"/>
+      <c r="CN33" s="2"/>
+      <c r="CO33" s="2"/>
+      <c r="CP33" s="2"/>
+      <c r="CQ33" s="2"/>
+      <c r="CR33" s="2"/>
+      <c r="CS33" s="2"/>
+      <c r="CT33" s="2"/>
+      <c r="CU33" s="2"/>
+      <c r="CV33" s="2"/>
+      <c r="CW33" s="2"/>
+      <c r="CX33" s="2"/>
+      <c r="CY33" s="2"/>
+      <c r="CZ33" s="2"/>
+      <c r="DA33" s="2"/>
+    </row>
+    <row r="34" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="AT34" s="2"/>
+      <c r="AU34" s="2"/>
+      <c r="AV34" s="6"/>
+      <c r="AW34" s="6"/>
+      <c r="AX34" s="2"/>
+      <c r="AY34" s="2"/>
+      <c r="AZ34" s="2"/>
+      <c r="BA34" s="2"/>
+      <c r="BB34" s="2"/>
+      <c r="BC34" s="6"/>
+      <c r="BD34" s="6"/>
+      <c r="BE34" s="2"/>
+      <c r="BF34" s="2"/>
+      <c r="BG34" s="2"/>
+      <c r="BH34" s="2"/>
+      <c r="BI34" s="2"/>
+      <c r="BJ34" s="6"/>
+      <c r="BK34" s="6"/>
+      <c r="BL34" s="2"/>
+      <c r="BM34" s="2"/>
+      <c r="BN34" s="2"/>
+      <c r="BO34" s="2"/>
+      <c r="BP34" s="2"/>
+      <c r="BQ34" s="6"/>
+      <c r="BR34" s="6"/>
+      <c r="BS34" s="2"/>
+      <c r="BT34" s="2"/>
+      <c r="BU34" s="2"/>
+      <c r="BV34" s="6"/>
+      <c r="BW34" s="2"/>
+      <c r="BX34" s="6"/>
+      <c r="BY34" s="6"/>
+      <c r="BZ34" s="2"/>
+      <c r="CA34" s="2"/>
+      <c r="CB34" s="2"/>
+      <c r="CC34" s="2"/>
+      <c r="CD34" s="2"/>
+      <c r="CE34" s="6"/>
+      <c r="CF34" s="6"/>
+      <c r="CG34" s="2"/>
+      <c r="CH34" s="2"/>
+      <c r="CI34" s="2"/>
+      <c r="CJ34" s="2"/>
+      <c r="CK34" s="2"/>
+      <c r="CL34" s="2"/>
+      <c r="CM34" s="2"/>
+      <c r="CN34" s="2"/>
+      <c r="CO34" s="2"/>
+      <c r="CP34" s="2"/>
+      <c r="CQ34" s="2"/>
+      <c r="CR34" s="2"/>
+      <c r="CS34" s="2"/>
+      <c r="CT34" s="2"/>
+      <c r="CU34" s="2"/>
+      <c r="CV34" s="2"/>
+      <c r="CW34" s="2"/>
+      <c r="CX34" s="2"/>
+      <c r="CY34" s="2"/>
+      <c r="CZ34" s="2"/>
+      <c r="DA34" s="2"/>
+    </row>
+    <row r="35" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="AT35" s="2"/>
+      <c r="AU35" s="2"/>
+      <c r="AV35" s="6"/>
+      <c r="AW35" s="6"/>
+      <c r="AX35" s="2"/>
+      <c r="AY35" s="2"/>
+      <c r="AZ35" s="2"/>
+      <c r="BA35" s="2"/>
+      <c r="BB35" s="2"/>
+      <c r="BC35" s="6"/>
+      <c r="BD35" s="6"/>
+      <c r="BE35" s="2"/>
+      <c r="BF35" s="2"/>
+      <c r="BG35" s="2"/>
+      <c r="BH35" s="2"/>
+      <c r="BI35" s="2"/>
+      <c r="BJ35" s="6"/>
+      <c r="BK35" s="6"/>
+      <c r="BL35" s="2"/>
+      <c r="BM35" s="2"/>
+      <c r="BN35" s="2"/>
+      <c r="BO35" s="2"/>
+      <c r="BP35" s="2"/>
+      <c r="BQ35" s="6"/>
+      <c r="BR35" s="6"/>
+      <c r="BS35" s="2"/>
+      <c r="BT35" s="2"/>
+      <c r="BU35" s="2"/>
+      <c r="BV35" s="6"/>
+      <c r="BW35" s="2"/>
+      <c r="BX35" s="6"/>
+      <c r="BY35" s="6"/>
+      <c r="BZ35" s="2"/>
+      <c r="CA35" s="2"/>
+      <c r="CB35" s="2"/>
+      <c r="CC35" s="2"/>
+      <c r="CD35" s="2"/>
+      <c r="CE35" s="6"/>
+      <c r="CF35" s="6"/>
+      <c r="CG35" s="2"/>
+      <c r="CH35" s="2"/>
+      <c r="CI35" s="2"/>
+      <c r="CJ35" s="2"/>
+      <c r="CK35" s="2"/>
+      <c r="CL35" s="2"/>
+      <c r="CM35" s="2"/>
+      <c r="CN35" s="2"/>
+      <c r="CO35" s="2"/>
+      <c r="CP35" s="2"/>
+      <c r="CQ35" s="2"/>
+      <c r="CR35" s="2"/>
+      <c r="CS35" s="2"/>
+      <c r="CT35" s="2"/>
+      <c r="CU35" s="2"/>
+      <c r="CV35" s="2"/>
+      <c r="CW35" s="2"/>
+      <c r="CX35" s="2"/>
+      <c r="CY35" s="2"/>
+      <c r="CZ35" s="2"/>
+      <c r="DA35" s="2"/>
+    </row>
+    <row r="36" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="AT36" s="2"/>
+      <c r="AU36" s="2"/>
+      <c r="AV36" s="6"/>
+      <c r="AW36" s="6"/>
+      <c r="AX36" s="2"/>
+      <c r="AY36" s="2"/>
+      <c r="AZ36" s="2"/>
+      <c r="BA36" s="2"/>
+      <c r="BB36" s="2"/>
+      <c r="BC36" s="6"/>
+      <c r="BD36" s="6"/>
+      <c r="BE36" s="2"/>
+      <c r="BF36" s="2"/>
+      <c r="BG36" s="2"/>
+      <c r="BH36" s="2"/>
+      <c r="BI36" s="2"/>
+      <c r="BJ36" s="6"/>
+      <c r="BK36" s="6"/>
+      <c r="BL36" s="2"/>
+      <c r="BM36" s="2"/>
+      <c r="BN36" s="2"/>
+      <c r="BO36" s="2"/>
+      <c r="BP36" s="2"/>
+      <c r="BQ36" s="6"/>
+      <c r="BR36" s="6"/>
+      <c r="BS36" s="2"/>
+      <c r="BT36" s="2"/>
+      <c r="BU36" s="2"/>
+      <c r="BV36" s="6"/>
+      <c r="BW36" s="2"/>
+      <c r="BX36" s="6"/>
+      <c r="BY36" s="6"/>
+      <c r="BZ36" s="2"/>
+      <c r="CA36" s="2"/>
+      <c r="CB36" s="2"/>
+      <c r="CC36" s="2"/>
+      <c r="CD36" s="2"/>
+      <c r="CE36" s="6"/>
+      <c r="CF36" s="6"/>
+      <c r="CG36" s="2"/>
+      <c r="CH36" s="2"/>
+      <c r="CI36" s="2"/>
+      <c r="CJ36" s="2"/>
+      <c r="CK36" s="2"/>
+      <c r="CL36" s="2"/>
+      <c r="CM36" s="2"/>
+      <c r="CN36" s="2"/>
+      <c r="CO36" s="2"/>
+      <c r="CP36" s="2"/>
+      <c r="CQ36" s="2"/>
+      <c r="CR36" s="2"/>
+      <c r="CS36" s="2"/>
+      <c r="CT36" s="2"/>
+      <c r="CU36" s="2"/>
+      <c r="CV36" s="2"/>
+      <c r="CW36" s="2"/>
+      <c r="CX36" s="2"/>
+      <c r="CY36" s="2"/>
+      <c r="CZ36" s="2"/>
+      <c r="DA36" s="2"/>
+    </row>
+    <row r="37" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="AT37" s="2"/>
+      <c r="AU37" s="2"/>
+      <c r="AV37" s="6"/>
+      <c r="AW37" s="6"/>
+      <c r="AX37" s="2"/>
+      <c r="AY37" s="2"/>
+      <c r="AZ37" s="2"/>
+      <c r="BA37" s="2"/>
+      <c r="BB37" s="2"/>
+      <c r="BC37" s="6"/>
+      <c r="BD37" s="6"/>
+      <c r="BE37" s="2"/>
+      <c r="BF37" s="2"/>
+      <c r="BG37" s="2"/>
+      <c r="BH37" s="2"/>
+      <c r="BI37" s="2"/>
+      <c r="BJ37" s="6"/>
+      <c r="BK37" s="6"/>
+      <c r="BL37" s="2"/>
+      <c r="BM37" s="2"/>
+      <c r="BN37" s="2"/>
+      <c r="BO37" s="2"/>
+      <c r="BP37" s="2"/>
+      <c r="BQ37" s="6"/>
+      <c r="BR37" s="6"/>
+      <c r="BS37" s="2"/>
+      <c r="BT37" s="2"/>
+      <c r="BU37" s="2"/>
+      <c r="BV37" s="6"/>
+      <c r="BW37" s="2"/>
+      <c r="BX37" s="6"/>
+      <c r="BY37" s="6"/>
+      <c r="BZ37" s="2"/>
+      <c r="CA37" s="2"/>
+      <c r="CB37" s="2"/>
+      <c r="CC37" s="2"/>
+      <c r="CD37" s="2"/>
+      <c r="CE37" s="6"/>
+      <c r="CF37" s="6"/>
+      <c r="CG37" s="2"/>
+      <c r="CH37" s="2"/>
+      <c r="CI37" s="2"/>
+      <c r="CJ37" s="2"/>
+      <c r="CK37" s="2"/>
+      <c r="CL37" s="2"/>
+      <c r="CM37" s="2"/>
+      <c r="CN37" s="2"/>
+      <c r="CO37" s="2"/>
+      <c r="CP37" s="2"/>
+      <c r="CQ37" s="2"/>
+      <c r="CR37" s="2"/>
+      <c r="CS37" s="2"/>
+      <c r="CT37" s="2"/>
+      <c r="CU37" s="2"/>
+      <c r="CV37" s="2"/>
+      <c r="CW37" s="2"/>
+      <c r="CX37" s="2"/>
+      <c r="CY37" s="2"/>
+      <c r="CZ37" s="2"/>
+      <c r="DA37" s="2"/>
+    </row>
+    <row r="38" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="AT38" s="2"/>
+      <c r="AU38" s="2"/>
+      <c r="AV38" s="6"/>
+      <c r="AW38" s="6"/>
+      <c r="AX38" s="2"/>
+      <c r="AY38" s="2"/>
+      <c r="AZ38" s="2"/>
+      <c r="BA38" s="2"/>
+      <c r="BB38" s="2"/>
+      <c r="BC38" s="6"/>
+      <c r="BD38" s="6"/>
+      <c r="BE38" s="2"/>
+      <c r="BF38" s="2"/>
+      <c r="BG38" s="2"/>
+      <c r="BH38" s="2"/>
+      <c r="BI38" s="2"/>
+      <c r="BJ38" s="6"/>
+      <c r="BK38" s="6"/>
+      <c r="BL38" s="2"/>
+      <c r="BM38" s="2"/>
+      <c r="BN38" s="2"/>
+      <c r="BO38" s="2"/>
+      <c r="BP38" s="2"/>
+      <c r="BQ38" s="6"/>
+      <c r="BR38" s="6"/>
+      <c r="BS38" s="2"/>
+      <c r="BT38" s="2"/>
+      <c r="BU38" s="2"/>
+      <c r="BV38" s="6"/>
+      <c r="BW38" s="2"/>
+      <c r="BX38" s="6"/>
+      <c r="BY38" s="6"/>
+      <c r="BZ38" s="2"/>
+      <c r="CA38" s="2"/>
+      <c r="CB38" s="2"/>
+      <c r="CC38" s="2"/>
+      <c r="CD38" s="2"/>
+      <c r="CE38" s="6"/>
+      <c r="CF38" s="6"/>
+      <c r="CG38" s="2"/>
+      <c r="CH38" s="2"/>
+      <c r="CI38" s="2"/>
+      <c r="CJ38" s="2"/>
+      <c r="CK38" s="2"/>
+      <c r="CL38" s="2"/>
+      <c r="CM38" s="2"/>
+      <c r="CN38" s="2"/>
+      <c r="CO38" s="2"/>
+      <c r="CP38" s="2"/>
+      <c r="CQ38" s="2"/>
+      <c r="CR38" s="2"/>
+      <c r="CS38" s="2"/>
+      <c r="CT38" s="2"/>
+      <c r="CU38" s="2"/>
+      <c r="CV38" s="2"/>
+      <c r="CW38" s="2"/>
+      <c r="CX38" s="2"/>
+      <c r="CY38" s="2"/>
+      <c r="CZ38" s="2"/>
+      <c r="DA38" s="2"/>
+    </row>
+    <row r="39" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="AT39" s="2"/>
+      <c r="AU39" s="2"/>
+      <c r="AV39" s="6"/>
+      <c r="AW39" s="6"/>
+      <c r="AX39" s="2"/>
+      <c r="AY39" s="2"/>
+      <c r="AZ39" s="2"/>
+      <c r="BA39" s="2"/>
+      <c r="BB39" s="2"/>
+      <c r="BC39" s="6"/>
+      <c r="BD39" s="6"/>
+      <c r="BE39" s="2"/>
+      <c r="BF39" s="2"/>
+      <c r="BG39" s="2"/>
+      <c r="BH39" s="2"/>
+      <c r="BI39" s="2"/>
+      <c r="BJ39" s="6"/>
+      <c r="BK39" s="6"/>
+      <c r="BL39" s="2"/>
+      <c r="BM39" s="2"/>
+      <c r="BN39" s="2"/>
+      <c r="BO39" s="2"/>
+      <c r="BP39" s="2"/>
+      <c r="BQ39" s="6"/>
+      <c r="BR39" s="6"/>
+      <c r="BS39" s="2"/>
+      <c r="BT39" s="2"/>
+      <c r="BU39" s="2"/>
+      <c r="BV39" s="6"/>
+      <c r="BW39" s="2"/>
+      <c r="BX39" s="6"/>
+      <c r="BY39" s="6"/>
+      <c r="BZ39" s="2"/>
+      <c r="CA39" s="2"/>
+      <c r="CB39" s="2"/>
+      <c r="CC39" s="2"/>
+      <c r="CD39" s="2"/>
+      <c r="CE39" s="6"/>
+      <c r="CF39" s="6"/>
+      <c r="CG39" s="2"/>
+      <c r="CH39" s="2"/>
+      <c r="CI39" s="2"/>
+      <c r="CJ39" s="2"/>
+      <c r="CK39" s="2"/>
+      <c r="CL39" s="2"/>
+      <c r="CM39" s="2"/>
+      <c r="CN39" s="2"/>
+      <c r="CO39" s="2"/>
+      <c r="CP39" s="2"/>
+      <c r="CQ39" s="2"/>
+      <c r="CR39" s="2"/>
+      <c r="CS39" s="2"/>
+      <c r="CT39" s="2"/>
+      <c r="CU39" s="2"/>
+      <c r="CV39" s="2"/>
+      <c r="CW39" s="2"/>
+      <c r="CX39" s="2"/>
+      <c r="CY39" s="2"/>
+      <c r="CZ39" s="2"/>
+      <c r="DA39" s="2"/>
+    </row>
+    <row r="40" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="AT40" s="2"/>
+      <c r="AU40" s="2"/>
+      <c r="AV40" s="6"/>
+      <c r="AW40" s="6"/>
+      <c r="AX40" s="2"/>
+      <c r="AY40" s="2"/>
+      <c r="AZ40" s="2"/>
+      <c r="BA40" s="2"/>
+      <c r="BB40" s="2"/>
+      <c r="BC40" s="6"/>
+      <c r="BD40" s="6"/>
+      <c r="BE40" s="2"/>
+      <c r="BF40" s="2"/>
+      <c r="BG40" s="2"/>
+      <c r="BH40" s="2"/>
+      <c r="BI40" s="2"/>
+      <c r="BJ40" s="6"/>
+      <c r="BK40" s="6"/>
+      <c r="BL40" s="2"/>
+      <c r="BM40" s="2"/>
+      <c r="BN40" s="2"/>
+      <c r="BO40" s="2"/>
+      <c r="BP40" s="2"/>
+      <c r="BQ40" s="6"/>
+      <c r="BR40" s="6"/>
+      <c r="BS40" s="2"/>
+      <c r="BT40" s="2"/>
+      <c r="BU40" s="2"/>
+      <c r="BV40" s="6"/>
+      <c r="BW40" s="2"/>
+      <c r="BX40" s="6"/>
+      <c r="BY40" s="6"/>
+      <c r="BZ40" s="2"/>
+      <c r="CA40" s="2"/>
+      <c r="CB40" s="2"/>
+      <c r="CC40" s="2"/>
+      <c r="CD40" s="2"/>
+      <c r="CE40" s="6"/>
+      <c r="CF40" s="6"/>
+      <c r="CG40" s="2"/>
+      <c r="CH40" s="2"/>
+      <c r="CI40" s="2"/>
+      <c r="CJ40" s="2"/>
+      <c r="CK40" s="2"/>
+      <c r="CL40" s="2"/>
+      <c r="CM40" s="2"/>
+      <c r="CN40" s="2"/>
+      <c r="CO40" s="2"/>
+      <c r="CP40" s="2"/>
+      <c r="CQ40" s="2"/>
+      <c r="CR40" s="2"/>
+      <c r="CS40" s="2"/>
+      <c r="CT40" s="2"/>
+      <c r="CU40" s="2"/>
+      <c r="CV40" s="2"/>
+      <c r="CW40" s="2"/>
+      <c r="CX40" s="2"/>
+      <c r="CY40" s="2"/>
+      <c r="CZ40" s="2"/>
+      <c r="DA40" s="2"/>
+    </row>
+    <row r="41" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="AT41" s="2"/>
+      <c r="AU41" s="2"/>
+      <c r="AV41" s="6"/>
+      <c r="AW41" s="6"/>
+      <c r="AX41" s="2"/>
+      <c r="AY41" s="2"/>
+      <c r="AZ41" s="2"/>
+      <c r="BA41" s="2"/>
+      <c r="BB41" s="2"/>
+      <c r="BC41" s="6"/>
+      <c r="BD41" s="6"/>
+      <c r="BE41" s="2"/>
+      <c r="BF41" s="2"/>
+      <c r="BG41" s="2"/>
+      <c r="BH41" s="2"/>
+      <c r="BI41" s="2"/>
+      <c r="BJ41" s="6"/>
+      <c r="BK41" s="6"/>
+      <c r="BL41" s="2"/>
+      <c r="BM41" s="2"/>
+      <c r="BN41" s="2"/>
+      <c r="BO41" s="2"/>
+      <c r="BP41" s="2"/>
+      <c r="BQ41" s="6"/>
+      <c r="BR41" s="6"/>
+      <c r="BS41" s="2"/>
+      <c r="BT41" s="2"/>
+      <c r="BU41" s="2"/>
+      <c r="BV41" s="6"/>
+      <c r="BW41" s="2"/>
+      <c r="BX41" s="6"/>
+      <c r="BY41" s="6"/>
+      <c r="BZ41" s="2"/>
+      <c r="CA41" s="2"/>
+      <c r="CB41" s="2"/>
+      <c r="CC41" s="2"/>
+      <c r="CD41" s="2"/>
+      <c r="CE41" s="6"/>
+      <c r="CF41" s="6"/>
+      <c r="CG41" s="2"/>
+      <c r="CH41" s="2"/>
+      <c r="CI41" s="2"/>
+      <c r="CJ41" s="2"/>
+      <c r="CK41" s="2"/>
+      <c r="CL41" s="2"/>
+      <c r="CM41" s="2"/>
+      <c r="CN41" s="2"/>
+      <c r="CO41" s="2"/>
+      <c r="CP41" s="2"/>
+      <c r="CQ41" s="2"/>
+      <c r="CR41" s="2"/>
+      <c r="CS41" s="2"/>
+      <c r="CT41" s="2"/>
+      <c r="CU41" s="2"/>
+      <c r="CV41" s="2"/>
+      <c r="CW41" s="2"/>
+      <c r="CX41" s="2"/>
+      <c r="CY41" s="2"/>
+      <c r="CZ41" s="2"/>
+      <c r="DA41" s="2"/>
+    </row>
+    <row r="42" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="AT42" s="2"/>
+      <c r="AU42" s="2"/>
+      <c r="AV42" s="6"/>
+      <c r="AW42" s="6"/>
+      <c r="AX42" s="2"/>
+      <c r="AY42" s="2"/>
+      <c r="AZ42" s="2"/>
+      <c r="BA42" s="2"/>
+      <c r="BB42" s="2"/>
+      <c r="BC42" s="6"/>
+      <c r="BD42" s="6"/>
+      <c r="BE42" s="2"/>
+      <c r="BF42" s="2"/>
+      <c r="BG42" s="2"/>
+      <c r="BH42" s="2"/>
+      <c r="BI42" s="2"/>
+      <c r="BJ42" s="6"/>
+      <c r="BK42" s="6"/>
+      <c r="BL42" s="2"/>
+      <c r="BM42" s="2"/>
+      <c r="BN42" s="2"/>
+      <c r="BO42" s="2"/>
+      <c r="BP42" s="2"/>
+      <c r="BQ42" s="6"/>
+      <c r="BR42" s="6"/>
+      <c r="BS42" s="2"/>
+      <c r="BT42" s="2"/>
+      <c r="BU42" s="2"/>
+      <c r="BV42" s="6"/>
+      <c r="BW42" s="2"/>
+      <c r="BX42" s="6"/>
+      <c r="BY42" s="6"/>
+      <c r="BZ42" s="2"/>
+      <c r="CA42" s="2"/>
+      <c r="CB42" s="2"/>
+      <c r="CC42" s="2"/>
+      <c r="CD42" s="2"/>
+      <c r="CE42" s="6"/>
+      <c r="CF42" s="6"/>
+      <c r="CG42" s="2"/>
+      <c r="CH42" s="2"/>
+      <c r="CI42" s="2"/>
+      <c r="CJ42" s="2"/>
+      <c r="CK42" s="2"/>
+      <c r="CL42" s="2"/>
+      <c r="CM42" s="2"/>
+      <c r="CN42" s="2"/>
+      <c r="CO42" s="2"/>
+      <c r="CP42" s="2"/>
+      <c r="CQ42" s="2"/>
+      <c r="CR42" s="2"/>
+      <c r="CS42" s="2"/>
+      <c r="CT42" s="2"/>
+      <c r="CU42" s="2"/>
+      <c r="CV42" s="2"/>
+      <c r="CW42" s="2"/>
+      <c r="CX42" s="2"/>
+      <c r="CY42" s="2"/>
+      <c r="CZ42" s="2"/>
+      <c r="DA42" s="2"/>
+    </row>
+    <row r="43" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="AT43" s="2"/>
+      <c r="AU43" s="2"/>
+      <c r="AV43" s="6"/>
+      <c r="AW43" s="6"/>
+      <c r="AX43" s="2"/>
+      <c r="AY43" s="2"/>
+      <c r="AZ43" s="2"/>
+      <c r="BA43" s="2"/>
+      <c r="BB43" s="2"/>
+      <c r="BC43" s="6"/>
+      <c r="BD43" s="6"/>
+      <c r="BE43" s="2"/>
+      <c r="BF43" s="2"/>
+      <c r="BG43" s="2"/>
+      <c r="BH43" s="2"/>
+      <c r="BI43" s="2"/>
+      <c r="BJ43" s="6"/>
+      <c r="BK43" s="6"/>
+      <c r="BL43" s="2"/>
+      <c r="BM43" s="2"/>
+      <c r="BN43" s="2"/>
+      <c r="BO43" s="2"/>
+      <c r="BP43" s="2"/>
+      <c r="BQ43" s="6"/>
+      <c r="BR43" s="6"/>
+      <c r="BS43" s="2"/>
+      <c r="BT43" s="2"/>
+      <c r="BU43" s="2"/>
+      <c r="BV43" s="6"/>
+      <c r="BW43" s="2"/>
+      <c r="BX43" s="6"/>
+      <c r="BY43" s="6"/>
+      <c r="BZ43" s="2"/>
+      <c r="CA43" s="2"/>
+      <c r="CB43" s="2"/>
+      <c r="CC43" s="2"/>
+      <c r="CD43" s="2"/>
+      <c r="CE43" s="6"/>
+      <c r="CF43" s="6"/>
+      <c r="CG43" s="2"/>
+      <c r="CH43" s="2"/>
+      <c r="CI43" s="2"/>
+      <c r="CJ43" s="2"/>
+      <c r="CK43" s="2"/>
+      <c r="CL43" s="2"/>
+      <c r="CM43" s="2"/>
+      <c r="CN43" s="2"/>
+      <c r="CO43" s="2"/>
+      <c r="CP43" s="2"/>
+      <c r="CQ43" s="2"/>
+      <c r="CR43" s="2"/>
+      <c r="CS43" s="2"/>
+      <c r="CT43" s="2"/>
+      <c r="CU43" s="2"/>
+      <c r="CV43" s="2"/>
+      <c r="CW43" s="2"/>
+      <c r="CX43" s="2"/>
+      <c r="CY43" s="2"/>
+      <c r="CZ43" s="2"/>
+      <c r="DA43" s="2"/>
+    </row>
+    <row r="44" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="AT44" s="2"/>
+      <c r="AU44" s="2"/>
+      <c r="AV44" s="6"/>
+      <c r="AW44" s="6"/>
+      <c r="AX44" s="2"/>
+      <c r="AY44" s="2"/>
+      <c r="AZ44" s="2"/>
+      <c r="BA44" s="2"/>
+      <c r="BB44" s="2"/>
+      <c r="BC44" s="6"/>
+      <c r="BD44" s="6"/>
+      <c r="BE44" s="2"/>
+      <c r="BF44" s="2"/>
+      <c r="BG44" s="2"/>
+      <c r="BH44" s="2"/>
+      <c r="BI44" s="2"/>
+      <c r="BJ44" s="6"/>
+      <c r="BK44" s="6"/>
+      <c r="BL44" s="2"/>
+      <c r="BM44" s="2"/>
+      <c r="BN44" s="2"/>
+      <c r="BO44" s="2"/>
+      <c r="BP44" s="2"/>
+      <c r="BQ44" s="6"/>
+      <c r="BR44" s="6"/>
+      <c r="BS44" s="2"/>
+      <c r="BT44" s="2"/>
+      <c r="BU44" s="2"/>
+      <c r="BV44" s="6"/>
+      <c r="BW44" s="2"/>
+      <c r="BX44" s="6"/>
+      <c r="BY44" s="6"/>
+      <c r="BZ44" s="2"/>
+      <c r="CA44" s="2"/>
+      <c r="CB44" s="2"/>
+      <c r="CC44" s="2"/>
+      <c r="CD44" s="2"/>
+      <c r="CE44" s="6"/>
+      <c r="CF44" s="6"/>
+      <c r="CG44" s="2"/>
+      <c r="CH44" s="2"/>
+      <c r="CI44" s="2"/>
+      <c r="CJ44" s="2"/>
+      <c r="CK44" s="2"/>
+      <c r="CL44" s="2"/>
+      <c r="CM44" s="2"/>
+      <c r="CN44" s="2"/>
+      <c r="CO44" s="2"/>
+      <c r="CP44" s="2"/>
+      <c r="CQ44" s="2"/>
+      <c r="CR44" s="2"/>
+      <c r="CS44" s="2"/>
+      <c r="CT44" s="2"/>
+      <c r="CU44" s="2"/>
+      <c r="CV44" s="2"/>
+      <c r="CW44" s="2"/>
+      <c r="CX44" s="2"/>
+      <c r="CY44" s="2"/>
+      <c r="CZ44" s="2"/>
+      <c r="DA44" s="2"/>
+    </row>
+    <row r="45" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="AT45" s="2"/>
+      <c r="AU45" s="2"/>
+      <c r="AV45" s="6"/>
+      <c r="AW45" s="6"/>
+      <c r="AX45" s="2"/>
+      <c r="AY45" s="2"/>
+      <c r="AZ45" s="2"/>
+      <c r="BA45" s="2"/>
+      <c r="BB45" s="2"/>
+      <c r="BC45" s="6"/>
+      <c r="BD45" s="6"/>
+      <c r="BE45" s="2"/>
+      <c r="BF45" s="2"/>
+      <c r="BG45" s="2"/>
+      <c r="BH45" s="2"/>
+      <c r="BI45" s="2"/>
+      <c r="BJ45" s="6"/>
+      <c r="BK45" s="6"/>
+      <c r="BL45" s="2"/>
+      <c r="BM45" s="2"/>
+      <c r="BN45" s="2"/>
+      <c r="BO45" s="2"/>
+      <c r="BP45" s="2"/>
+      <c r="BQ45" s="6"/>
+      <c r="BR45" s="6"/>
+      <c r="BS45" s="2"/>
+      <c r="BT45" s="2"/>
+      <c r="BU45" s="2"/>
+      <c r="BV45" s="6"/>
+      <c r="BW45" s="2"/>
+      <c r="BX45" s="6"/>
+      <c r="BY45" s="6"/>
+      <c r="BZ45" s="2"/>
+      <c r="CA45" s="2"/>
+      <c r="CB45" s="2"/>
+      <c r="CC45" s="2"/>
+      <c r="CD45" s="2"/>
+      <c r="CE45" s="6"/>
+      <c r="CF45" s="6"/>
+      <c r="CG45" s="2"/>
+      <c r="CH45" s="2"/>
+      <c r="CI45" s="2"/>
+      <c r="CJ45" s="2"/>
+      <c r="CK45" s="2"/>
+      <c r="CL45" s="2"/>
+      <c r="CM45" s="2"/>
+      <c r="CN45" s="2"/>
+      <c r="CO45" s="2"/>
+      <c r="CP45" s="2"/>
+      <c r="CQ45" s="2"/>
+      <c r="CR45" s="2"/>
+      <c r="CS45" s="2"/>
+      <c r="CT45" s="2"/>
+      <c r="CU45" s="2"/>
+      <c r="CV45" s="2"/>
+      <c r="CW45" s="2"/>
+      <c r="CX45" s="2"/>
+      <c r="CY45" s="2"/>
+      <c r="CZ45" s="2"/>
+      <c r="DA45" s="2"/>
+    </row>
+    <row r="46" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="AT46" s="2"/>
+      <c r="AU46" s="2"/>
+      <c r="AV46" s="6"/>
+      <c r="AW46" s="6"/>
+      <c r="AX46" s="2"/>
+      <c r="AY46" s="2"/>
+      <c r="AZ46" s="2"/>
+      <c r="BA46" s="2"/>
+      <c r="BB46" s="2"/>
+      <c r="BC46" s="6"/>
+      <c r="BD46" s="6"/>
+      <c r="BE46" s="2"/>
+      <c r="BF46" s="2"/>
+      <c r="BG46" s="2"/>
+      <c r="BH46" s="2"/>
+      <c r="BI46" s="2"/>
+      <c r="BJ46" s="6"/>
+      <c r="BK46" s="6"/>
+      <c r="BL46" s="2"/>
+      <c r="BM46" s="2"/>
+      <c r="BN46" s="2"/>
+      <c r="BO46" s="2"/>
+      <c r="BP46" s="2"/>
+      <c r="BQ46" s="6"/>
+      <c r="BR46" s="6"/>
+      <c r="BS46" s="2"/>
+      <c r="BT46" s="2"/>
+      <c r="BU46" s="2"/>
+      <c r="BV46" s="6"/>
+      <c r="BW46" s="2"/>
+      <c r="BX46" s="6"/>
+      <c r="BY46" s="6"/>
+      <c r="BZ46" s="2"/>
+      <c r="CA46" s="2"/>
+      <c r="CB46" s="2"/>
+      <c r="CC46" s="2"/>
+      <c r="CD46" s="2"/>
+      <c r="CE46" s="6"/>
+      <c r="CF46" s="6"/>
+      <c r="CG46" s="2"/>
+      <c r="CH46" s="2"/>
+      <c r="CI46" s="2"/>
+      <c r="CJ46" s="2"/>
+      <c r="CK46" s="2"/>
+      <c r="CL46" s="2"/>
+      <c r="CM46" s="2"/>
+      <c r="CN46" s="2"/>
+      <c r="CO46" s="2"/>
+      <c r="CP46" s="2"/>
+      <c r="CQ46" s="2"/>
+      <c r="CR46" s="2"/>
+      <c r="CS46" s="2"/>
+      <c r="CT46" s="2"/>
+      <c r="CU46" s="2"/>
+      <c r="CV46" s="2"/>
+      <c r="CW46" s="2"/>
+      <c r="CX46" s="2"/>
+      <c r="CY46" s="2"/>
+      <c r="CZ46" s="2"/>
+      <c r="DA46" s="2"/>
+    </row>
+    <row r="47" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="AT47" s="2"/>
+      <c r="AU47" s="2"/>
+      <c r="AV47" s="6"/>
+      <c r="AW47" s="6"/>
+      <c r="AX47" s="2"/>
+      <c r="AY47" s="2"/>
+      <c r="AZ47" s="2"/>
+      <c r="BA47" s="2"/>
+      <c r="BB47" s="2"/>
+      <c r="BC47" s="6"/>
+      <c r="BD47" s="6"/>
+      <c r="BE47" s="2"/>
+      <c r="BF47" s="2"/>
+      <c r="BG47" s="2"/>
+      <c r="BH47" s="2"/>
+      <c r="BI47" s="2"/>
+      <c r="BJ47" s="6"/>
+      <c r="BK47" s="6"/>
+      <c r="BL47" s="2"/>
+      <c r="BM47" s="2"/>
+      <c r="BN47" s="2"/>
+      <c r="BO47" s="2"/>
+      <c r="BP47" s="2"/>
+      <c r="BQ47" s="6"/>
+      <c r="BR47" s="6"/>
+      <c r="BS47" s="2"/>
+      <c r="BT47" s="2"/>
+      <c r="BU47" s="2"/>
+      <c r="BV47" s="6"/>
+      <c r="BW47" s="2"/>
+      <c r="BX47" s="6"/>
+      <c r="BY47" s="6"/>
+      <c r="BZ47" s="2"/>
+      <c r="CA47" s="2"/>
+      <c r="CB47" s="2"/>
+      <c r="CC47" s="2"/>
+      <c r="CD47" s="2"/>
+      <c r="CE47" s="6"/>
+      <c r="CF47" s="6"/>
+      <c r="CG47" s="2"/>
+      <c r="CH47" s="2"/>
+      <c r="CI47" s="2"/>
+      <c r="CJ47" s="2"/>
+      <c r="CK47" s="2"/>
+      <c r="CL47" s="2"/>
+      <c r="CM47" s="2"/>
+      <c r="CN47" s="2"/>
+      <c r="CO47" s="2"/>
+      <c r="CP47" s="2"/>
+      <c r="CQ47" s="2"/>
+      <c r="CR47" s="2"/>
+      <c r="CS47" s="2"/>
+      <c r="CT47" s="2"/>
+      <c r="CU47" s="2"/>
+      <c r="CV47" s="2"/>
+      <c r="CW47" s="2"/>
+      <c r="CX47" s="2"/>
+      <c r="CY47" s="2"/>
+      <c r="CZ47" s="2"/>
+      <c r="DA47" s="2"/>
+    </row>
+    <row r="48" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="AT48" s="2"/>
+      <c r="AU48" s="2"/>
+      <c r="AV48" s="6"/>
+      <c r="AW48" s="6"/>
+      <c r="AX48" s="2"/>
+      <c r="AY48" s="2"/>
+      <c r="AZ48" s="2"/>
+      <c r="BA48" s="2"/>
+      <c r="BB48" s="2"/>
+      <c r="BC48" s="6"/>
+      <c r="BD48" s="6"/>
+      <c r="BE48" s="2"/>
+      <c r="BF48" s="2"/>
+      <c r="BG48" s="2"/>
+      <c r="BH48" s="2"/>
+      <c r="BI48" s="2"/>
+      <c r="BJ48" s="6"/>
+      <c r="BK48" s="6"/>
+      <c r="BL48" s="2"/>
+      <c r="BM48" s="2"/>
+      <c r="BN48" s="2"/>
+      <c r="BO48" s="2"/>
+      <c r="BP48" s="2"/>
+      <c r="BQ48" s="6"/>
+      <c r="BR48" s="6"/>
+      <c r="BS48" s="2"/>
+      <c r="BT48" s="2"/>
+      <c r="BU48" s="2"/>
+      <c r="BV48" s="6"/>
+      <c r="BW48" s="2"/>
+      <c r="BX48" s="6"/>
+      <c r="BY48" s="6"/>
+      <c r="BZ48" s="2"/>
+      <c r="CA48" s="2"/>
+      <c r="CB48" s="2"/>
+      <c r="CC48" s="2"/>
+      <c r="CD48" s="2"/>
+      <c r="CE48" s="6"/>
+      <c r="CF48" s="6"/>
+      <c r="CG48" s="2"/>
+      <c r="CH48" s="2"/>
+      <c r="CI48" s="2"/>
+      <c r="CJ48" s="2"/>
+      <c r="CK48" s="2"/>
+      <c r="CL48" s="2"/>
+      <c r="CM48" s="2"/>
+      <c r="CN48" s="2"/>
+      <c r="CO48" s="2"/>
+      <c r="CP48" s="2"/>
+      <c r="CQ48" s="2"/>
+      <c r="CR48" s="2"/>
+      <c r="CS48" s="2"/>
+      <c r="CT48" s="2"/>
+      <c r="CU48" s="2"/>
+      <c r="CV48" s="2"/>
+      <c r="CW48" s="2"/>
+      <c r="CX48" s="2"/>
+      <c r="CY48" s="2"/>
+      <c r="CZ48" s="2"/>
+      <c r="DA48" s="2"/>
+    </row>
+    <row r="49" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="AT49" s="2"/>
+      <c r="AU49" s="2"/>
+      <c r="AV49" s="6"/>
+      <c r="AW49" s="6"/>
+      <c r="AX49" s="2"/>
+      <c r="AY49" s="2"/>
+      <c r="AZ49" s="2"/>
+      <c r="BA49" s="2"/>
+      <c r="BB49" s="2"/>
+      <c r="BC49" s="6"/>
+      <c r="BD49" s="6"/>
+      <c r="BE49" s="2"/>
+      <c r="BF49" s="2"/>
+      <c r="BG49" s="2"/>
+      <c r="BH49" s="2"/>
+      <c r="BI49" s="2"/>
+      <c r="BJ49" s="6"/>
+      <c r="BK49" s="6"/>
+      <c r="BL49" s="2"/>
+      <c r="BM49" s="2"/>
+      <c r="BN49" s="2"/>
+      <c r="BO49" s="2"/>
+      <c r="BP49" s="2"/>
+      <c r="BQ49" s="6"/>
+      <c r="BR49" s="6"/>
+      <c r="BS49" s="2"/>
+      <c r="BT49" s="2"/>
+      <c r="BU49" s="2"/>
+      <c r="BV49" s="6"/>
+      <c r="BW49" s="2"/>
+      <c r="BX49" s="6"/>
+      <c r="BY49" s="6"/>
+      <c r="BZ49" s="2"/>
+      <c r="CA49" s="2"/>
+      <c r="CB49" s="2"/>
+      <c r="CC49" s="2"/>
+      <c r="CD49" s="2"/>
+      <c r="CE49" s="6"/>
+      <c r="CF49" s="6"/>
+      <c r="CG49" s="2"/>
+      <c r="CH49" s="2"/>
+      <c r="CI49" s="2"/>
+      <c r="CJ49" s="2"/>
+      <c r="CK49" s="2"/>
+      <c r="CL49" s="2"/>
+      <c r="CM49" s="2"/>
+      <c r="CN49" s="2"/>
+      <c r="CO49" s="2"/>
+      <c r="CP49" s="2"/>
+      <c r="CQ49" s="2"/>
+      <c r="CR49" s="2"/>
+      <c r="CS49" s="2"/>
+      <c r="CT49" s="2"/>
+      <c r="CU49" s="2"/>
+      <c r="CV49" s="2"/>
+      <c r="CW49" s="2"/>
+      <c r="CX49" s="2"/>
+      <c r="CY49" s="2"/>
+      <c r="CZ49" s="2"/>
+      <c r="DA49" s="2"/>
+    </row>
+    <row r="50" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="AT50" s="2"/>
+      <c r="AU50" s="2"/>
+      <c r="AV50" s="6"/>
+      <c r="AW50" s="6"/>
+      <c r="AX50" s="2"/>
+      <c r="AY50" s="2"/>
+      <c r="AZ50" s="2"/>
+      <c r="BA50" s="2"/>
+      <c r="BB50" s="2"/>
+      <c r="BC50" s="6"/>
+      <c r="BD50" s="6"/>
+      <c r="BE50" s="2"/>
+      <c r="BF50" s="2"/>
+      <c r="BG50" s="2"/>
+      <c r="BH50" s="2"/>
+      <c r="BI50" s="2"/>
+      <c r="BJ50" s="6"/>
+      <c r="BK50" s="6"/>
+      <c r="BL50" s="2"/>
+      <c r="BM50" s="2"/>
+      <c r="BN50" s="2"/>
+      <c r="BO50" s="2"/>
+      <c r="BP50" s="2"/>
+      <c r="BQ50" s="6"/>
+      <c r="BR50" s="6"/>
+      <c r="BS50" s="2"/>
+      <c r="BT50" s="2"/>
+      <c r="BU50" s="2"/>
+      <c r="BV50" s="6"/>
+      <c r="BW50" s="2"/>
+      <c r="BX50" s="6"/>
+      <c r="BY50" s="6"/>
+      <c r="BZ50" s="2"/>
+      <c r="CA50" s="2"/>
+      <c r="CB50" s="2"/>
+      <c r="CC50" s="2"/>
+      <c r="CD50" s="2"/>
+      <c r="CE50" s="6"/>
+      <c r="CF50" s="6"/>
+      <c r="CG50" s="2"/>
+      <c r="CH50" s="2"/>
+      <c r="CI50" s="2"/>
+      <c r="CJ50" s="2"/>
+      <c r="CK50" s="2"/>
+      <c r="CL50" s="2"/>
+      <c r="CM50" s="2"/>
+      <c r="CN50" s="2"/>
+      <c r="CO50" s="2"/>
+      <c r="CP50" s="2"/>
+      <c r="CQ50" s="2"/>
+      <c r="CR50" s="2"/>
+      <c r="CS50" s="2"/>
+      <c r="CT50" s="2"/>
+      <c r="CU50" s="2"/>
+      <c r="CV50" s="2"/>
+      <c r="CW50" s="2"/>
+      <c r="CX50" s="2"/>
+      <c r="CY50" s="2"/>
+      <c r="CZ50" s="2"/>
+      <c r="DA50" s="2"/>
+    </row>
+    <row r="51" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="AT51" s="2"/>
+      <c r="AU51" s="2"/>
+      <c r="AV51" s="6"/>
+      <c r="AW51" s="6"/>
+      <c r="AX51" s="2"/>
+      <c r="AY51" s="2"/>
+      <c r="AZ51" s="2"/>
+      <c r="BA51" s="2"/>
+      <c r="BB51" s="2"/>
+      <c r="BC51" s="6"/>
+      <c r="BD51" s="6"/>
+      <c r="BE51" s="2"/>
+      <c r="BF51" s="2"/>
+      <c r="BG51" s="2"/>
+      <c r="BH51" s="2"/>
+      <c r="BI51" s="2"/>
+      <c r="BJ51" s="6"/>
+      <c r="BK51" s="6"/>
+      <c r="BL51" s="2"/>
+      <c r="BM51" s="2"/>
+      <c r="BN51" s="2"/>
+      <c r="BO51" s="2"/>
+      <c r="BP51" s="2"/>
+      <c r="BQ51" s="6"/>
+      <c r="BR51" s="6"/>
+      <c r="BS51" s="2"/>
+      <c r="BT51" s="2"/>
+      <c r="BU51" s="2"/>
+      <c r="BV51" s="6"/>
+      <c r="BW51" s="2"/>
+      <c r="BX51" s="6"/>
+      <c r="BY51" s="6"/>
+      <c r="BZ51" s="2"/>
+      <c r="CA51" s="2"/>
+      <c r="CB51" s="2"/>
+      <c r="CC51" s="2"/>
+      <c r="CD51" s="2"/>
+      <c r="CE51" s="6"/>
+      <c r="CF51" s="6"/>
+      <c r="CG51" s="2"/>
+      <c r="CH51" s="2"/>
+      <c r="CI51" s="2"/>
+      <c r="CJ51" s="2"/>
+      <c r="CK51" s="2"/>
+      <c r="CL51" s="2"/>
+      <c r="CM51" s="2"/>
+      <c r="CN51" s="2"/>
+      <c r="CO51" s="2"/>
+      <c r="CP51" s="2"/>
+      <c r="CQ51" s="2"/>
+      <c r="CR51" s="2"/>
+      <c r="CS51" s="2"/>
+      <c r="CT51" s="2"/>
+      <c r="CU51" s="2"/>
+      <c r="CV51" s="2"/>
+      <c r="CW51" s="2"/>
+      <c r="CX51" s="2"/>
+      <c r="CY51" s="2"/>
+      <c r="CZ51" s="2"/>
+      <c r="DA51" s="2"/>
+    </row>
+    <row r="52" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="AT52" s="2"/>
+      <c r="AU52" s="2"/>
+      <c r="AV52" s="6"/>
+      <c r="AW52" s="6"/>
+      <c r="AX52" s="2"/>
+      <c r="AY52" s="2"/>
+      <c r="AZ52" s="2"/>
+      <c r="BA52" s="2"/>
+      <c r="BB52" s="2"/>
+      <c r="BC52" s="6"/>
+      <c r="BD52" s="6"/>
+      <c r="BE52" s="2"/>
+      <c r="BF52" s="2"/>
+      <c r="BG52" s="2"/>
+      <c r="BH52" s="2"/>
+      <c r="BI52" s="2"/>
+      <c r="BJ52" s="6"/>
+      <c r="BK52" s="6"/>
+      <c r="BL52" s="2"/>
+      <c r="BM52" s="2"/>
+      <c r="BN52" s="2"/>
+      <c r="BO52" s="2"/>
+      <c r="BP52" s="2"/>
+      <c r="BQ52" s="6"/>
+      <c r="BR52" s="6"/>
+      <c r="BS52" s="2"/>
+      <c r="BT52" s="2"/>
+      <c r="BU52" s="2"/>
+      <c r="BV52" s="6"/>
+      <c r="BW52" s="2"/>
+      <c r="BX52" s="6"/>
+      <c r="BY52" s="6"/>
+      <c r="BZ52" s="2"/>
+      <c r="CA52" s="2"/>
+      <c r="CB52" s="2"/>
+      <c r="CC52" s="2"/>
+      <c r="CD52" s="2"/>
+      <c r="CE52" s="6"/>
+      <c r="CF52" s="6"/>
+      <c r="CG52" s="2"/>
+      <c r="CH52" s="2"/>
+      <c r="CI52" s="2"/>
+      <c r="CJ52" s="2"/>
+      <c r="CK52" s="2"/>
+      <c r="CL52" s="2"/>
+      <c r="CM52" s="2"/>
+      <c r="CN52" s="2"/>
+      <c r="CO52" s="2"/>
+      <c r="CP52" s="2"/>
+      <c r="CQ52" s="2"/>
+      <c r="CR52" s="2"/>
+      <c r="CS52" s="2"/>
+      <c r="CT52" s="2"/>
+      <c r="CU52" s="2"/>
+      <c r="CV52" s="2"/>
+      <c r="CW52" s="2"/>
+      <c r="CX52" s="2"/>
+      <c r="CY52" s="2"/>
+      <c r="CZ52" s="2"/>
+      <c r="DA52" s="2"/>
+    </row>
+    <row r="53" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="AT53" s="2"/>
+      <c r="AU53" s="2"/>
+      <c r="AV53" s="6"/>
+      <c r="AW53" s="6"/>
+      <c r="AX53" s="2"/>
+      <c r="AY53" s="2"/>
+      <c r="AZ53" s="2"/>
+      <c r="BA53" s="2"/>
+      <c r="BB53" s="2"/>
+      <c r="BC53" s="6"/>
+      <c r="BD53" s="6"/>
+      <c r="BE53" s="2"/>
+      <c r="BF53" s="2"/>
+      <c r="BG53" s="2"/>
+      <c r="BH53" s="2"/>
+      <c r="BI53" s="2"/>
+      <c r="BJ53" s="6"/>
+      <c r="BK53" s="6"/>
+      <c r="BL53" s="2"/>
+      <c r="BM53" s="2"/>
+      <c r="BN53" s="2"/>
+      <c r="BO53" s="2"/>
+      <c r="BP53" s="2"/>
+      <c r="BQ53" s="6"/>
+      <c r="BR53" s="6"/>
+      <c r="BS53" s="2"/>
+      <c r="BT53" s="2"/>
+      <c r="BU53" s="2"/>
+      <c r="BV53" s="6"/>
+      <c r="BW53" s="2"/>
+      <c r="BX53" s="6"/>
+      <c r="BY53" s="6"/>
+      <c r="BZ53" s="2"/>
+      <c r="CA53" s="2"/>
+      <c r="CB53" s="2"/>
+      <c r="CC53" s="2"/>
+      <c r="CD53" s="2"/>
+      <c r="CE53" s="6"/>
+      <c r="CF53" s="6"/>
+      <c r="CG53" s="2"/>
+      <c r="CH53" s="2"/>
+      <c r="CI53" s="2"/>
+      <c r="CJ53" s="2"/>
+      <c r="CK53" s="2"/>
+      <c r="CL53" s="2"/>
+      <c r="CM53" s="2"/>
+      <c r="CN53" s="2"/>
+      <c r="CO53" s="2"/>
+      <c r="CP53" s="2"/>
+      <c r="CQ53" s="2"/>
+      <c r="CR53" s="2"/>
+      <c r="CS53" s="2"/>
+      <c r="CT53" s="2"/>
+      <c r="CU53" s="2"/>
+      <c r="CV53" s="2"/>
+      <c r="CW53" s="2"/>
+      <c r="CX53" s="2"/>
+      <c r="CY53" s="2"/>
+      <c r="CZ53" s="2"/>
+      <c r="DA53" s="2"/>
+    </row>
+    <row r="54" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="AT54" s="2"/>
+      <c r="AU54" s="2"/>
+      <c r="AV54" s="6"/>
+      <c r="AW54" s="6"/>
+      <c r="AX54" s="2"/>
+      <c r="AY54" s="2"/>
+      <c r="AZ54" s="2"/>
+      <c r="BA54" s="2"/>
+      <c r="BB54" s="2"/>
+      <c r="BC54" s="6"/>
+      <c r="BD54" s="6"/>
+      <c r="BE54" s="2"/>
+      <c r="BF54" s="2"/>
+      <c r="BG54" s="2"/>
+      <c r="BH54" s="2"/>
+      <c r="BI54" s="2"/>
+      <c r="BJ54" s="6"/>
+      <c r="BK54" s="6"/>
+      <c r="BL54" s="2"/>
+      <c r="BM54" s="2"/>
+      <c r="BN54" s="2"/>
+      <c r="BO54" s="2"/>
+      <c r="BP54" s="2"/>
+      <c r="BQ54" s="6"/>
+      <c r="BR54" s="6"/>
+      <c r="BS54" s="2"/>
+      <c r="BT54" s="2"/>
+      <c r="BU54" s="2"/>
+      <c r="BV54" s="6"/>
+      <c r="BW54" s="2"/>
+      <c r="BX54" s="6"/>
+      <c r="BY54" s="6"/>
+      <c r="BZ54" s="2"/>
+      <c r="CA54" s="2"/>
+      <c r="CB54" s="2"/>
+      <c r="CC54" s="2"/>
+      <c r="CD54" s="2"/>
+      <c r="CE54" s="6"/>
+      <c r="CF54" s="6"/>
+      <c r="CG54" s="2"/>
+      <c r="CH54" s="2"/>
+      <c r="CI54" s="2"/>
+      <c r="CJ54" s="2"/>
+      <c r="CK54" s="2"/>
+      <c r="CL54" s="2"/>
+      <c r="CM54" s="2"/>
+      <c r="CN54" s="2"/>
+      <c r="CO54" s="2"/>
+      <c r="CP54" s="2"/>
+      <c r="CQ54" s="2"/>
+      <c r="CR54" s="2"/>
+      <c r="CS54" s="2"/>
+      <c r="CT54" s="2"/>
+      <c r="CU54" s="2"/>
+      <c r="CV54" s="2"/>
+      <c r="CW54" s="2"/>
+      <c r="CX54" s="2"/>
+      <c r="CY54" s="2"/>
+      <c r="CZ54" s="2"/>
+      <c r="DA54" s="2"/>
+    </row>
+    <row r="55" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="AT55" s="2"/>
+      <c r="AU55" s="2"/>
+      <c r="AV55" s="6"/>
+      <c r="AW55" s="6"/>
+      <c r="AX55" s="2"/>
+      <c r="AY55" s="2"/>
+      <c r="AZ55" s="2"/>
+      <c r="BA55" s="2"/>
+      <c r="BB55" s="2"/>
+      <c r="BC55" s="6"/>
+      <c r="BD55" s="6"/>
+      <c r="BE55" s="2"/>
+      <c r="BF55" s="2"/>
+      <c r="BG55" s="2"/>
+      <c r="BH55" s="2"/>
+      <c r="BI55" s="2"/>
+      <c r="BJ55" s="6"/>
+      <c r="BK55" s="6"/>
+      <c r="BL55" s="2"/>
+      <c r="BM55" s="2"/>
+      <c r="BN55" s="2"/>
+      <c r="BO55" s="2"/>
+      <c r="BP55" s="2"/>
+      <c r="BQ55" s="6"/>
+      <c r="BR55" s="6"/>
+      <c r="BS55" s="2"/>
+      <c r="BT55" s="2"/>
+      <c r="BU55" s="2"/>
+      <c r="BV55" s="6"/>
+      <c r="BW55" s="2"/>
+      <c r="BX55" s="6"/>
+      <c r="BY55" s="6"/>
+      <c r="BZ55" s="2"/>
+      <c r="CA55" s="2"/>
+      <c r="CB55" s="2"/>
+      <c r="CC55" s="2"/>
+      <c r="CD55" s="2"/>
+      <c r="CE55" s="6"/>
+      <c r="CF55" s="6"/>
+      <c r="CG55" s="2"/>
+      <c r="CH55" s="2"/>
+      <c r="CI55" s="2"/>
+      <c r="CJ55" s="2"/>
+      <c r="CK55" s="2"/>
+      <c r="CL55" s="2"/>
+      <c r="CM55" s="2"/>
+      <c r="CN55" s="2"/>
+      <c r="CO55" s="2"/>
+      <c r="CP55" s="2"/>
+      <c r="CQ55" s="2"/>
+      <c r="CR55" s="2"/>
+      <c r="CS55" s="2"/>
+      <c r="CT55" s="2"/>
+      <c r="CU55" s="2"/>
+      <c r="CV55" s="2"/>
+      <c r="CW55" s="2"/>
+      <c r="CX55" s="2"/>
+      <c r="CY55" s="2"/>
+      <c r="CZ55" s="2"/>
+      <c r="DA55" s="2"/>
+    </row>
+    <row r="56" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="AT56" s="2"/>
+      <c r="AU56" s="2"/>
+      <c r="AV56" s="6"/>
+      <c r="AW56" s="6"/>
+      <c r="AX56" s="2"/>
+      <c r="AY56" s="2"/>
+      <c r="AZ56" s="2"/>
+      <c r="BA56" s="2"/>
+      <c r="BB56" s="2"/>
+      <c r="BC56" s="6"/>
+      <c r="BD56" s="6"/>
+      <c r="BE56" s="2"/>
+      <c r="BF56" s="2"/>
+      <c r="BG56" s="2"/>
+      <c r="BH56" s="2"/>
+      <c r="BI56" s="2"/>
+      <c r="BJ56" s="6"/>
+      <c r="BK56" s="6"/>
+      <c r="BL56" s="2"/>
+      <c r="BM56" s="2"/>
+      <c r="BN56" s="2"/>
+      <c r="BO56" s="2"/>
+      <c r="BP56" s="2"/>
+      <c r="BQ56" s="6"/>
+      <c r="BR56" s="6"/>
+      <c r="BS56" s="2"/>
+      <c r="BT56" s="2"/>
+      <c r="BU56" s="2"/>
+      <c r="BV56" s="6"/>
+      <c r="BW56" s="2"/>
+      <c r="BX56" s="6"/>
+      <c r="BY56" s="6"/>
+      <c r="BZ56" s="2"/>
+      <c r="CA56" s="2"/>
+      <c r="CB56" s="2"/>
+      <c r="CC56" s="2"/>
+      <c r="CD56" s="2"/>
+      <c r="CE56" s="6"/>
+      <c r="CF56" s="6"/>
+      <c r="CG56" s="2"/>
+      <c r="CH56" s="2"/>
+      <c r="CI56" s="2"/>
+      <c r="CJ56" s="2"/>
+      <c r="CK56" s="2"/>
+      <c r="CL56" s="2"/>
+      <c r="CM56" s="2"/>
+      <c r="CN56" s="2"/>
+      <c r="CO56" s="2"/>
+      <c r="CP56" s="2"/>
+      <c r="CQ56" s="2"/>
+      <c r="CR56" s="2"/>
+      <c r="CS56" s="2"/>
+      <c r="CT56" s="2"/>
+      <c r="CU56" s="2"/>
+      <c r="CV56" s="2"/>
+      <c r="CW56" s="2"/>
+      <c r="CX56" s="2"/>
+      <c r="CY56" s="2"/>
+      <c r="CZ56" s="2"/>
+      <c r="DA56" s="2"/>
+    </row>
+    <row r="57" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="AT57" s="2"/>
+      <c r="AU57" s="2"/>
+      <c r="AV57" s="6"/>
+      <c r="AW57" s="6"/>
+      <c r="AX57" s="2"/>
+      <c r="AY57" s="2"/>
+      <c r="AZ57" s="2"/>
+      <c r="BA57" s="2"/>
+      <c r="BB57" s="2"/>
+      <c r="BC57" s="6"/>
+      <c r="BD57" s="6"/>
+      <c r="BE57" s="2"/>
+      <c r="BF57" s="2"/>
+      <c r="BG57" s="2"/>
+      <c r="BH57" s="2"/>
+      <c r="BI57" s="2"/>
+      <c r="BJ57" s="6"/>
+      <c r="BK57" s="6"/>
+      <c r="BL57" s="2"/>
+      <c r="BM57" s="2"/>
+      <c r="BN57" s="2"/>
+      <c r="BO57" s="2"/>
+      <c r="BP57" s="2"/>
+      <c r="BQ57" s="6"/>
+      <c r="BR57" s="6"/>
+      <c r="BS57" s="2"/>
+      <c r="BT57" s="2"/>
+      <c r="BU57" s="2"/>
+      <c r="BV57" s="6"/>
+      <c r="BW57" s="2"/>
+      <c r="BX57" s="6"/>
+      <c r="BY57" s="6"/>
+      <c r="BZ57" s="2"/>
+      <c r="CA57" s="2"/>
+      <c r="CB57" s="2"/>
+      <c r="CC57" s="2"/>
+      <c r="CD57" s="2"/>
+      <c r="CE57" s="6"/>
+      <c r="CF57" s="6"/>
+      <c r="CG57" s="2"/>
+      <c r="CH57" s="2"/>
+      <c r="CI57" s="2"/>
+      <c r="CJ57" s="2"/>
+      <c r="CK57" s="2"/>
+      <c r="CL57" s="2"/>
+      <c r="CM57" s="2"/>
+      <c r="CN57" s="2"/>
+      <c r="CO57" s="2"/>
+      <c r="CP57" s="2"/>
+      <c r="CQ57" s="2"/>
+      <c r="CR57" s="2"/>
+      <c r="CS57" s="2"/>
+      <c r="CT57" s="2"/>
+      <c r="CU57" s="2"/>
+      <c r="CV57" s="2"/>
+      <c r="CW57" s="2"/>
+      <c r="CX57" s="2"/>
+      <c r="CY57" s="2"/>
+      <c r="CZ57" s="2"/>
+      <c r="DA57" s="2"/>
+    </row>
+    <row r="58" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="AT58" s="2"/>
+      <c r="AU58" s="2"/>
+      <c r="AV58" s="6"/>
+      <c r="AW58" s="6"/>
+      <c r="AX58" s="2"/>
+      <c r="AY58" s="2"/>
+      <c r="AZ58" s="2"/>
+      <c r="BA58" s="2"/>
+      <c r="BB58" s="2"/>
+      <c r="BC58" s="6"/>
+      <c r="BD58" s="6"/>
+      <c r="BE58" s="2"/>
+      <c r="BF58" s="2"/>
+      <c r="BG58" s="2"/>
+      <c r="BH58" s="2"/>
+      <c r="BI58" s="2"/>
+      <c r="BJ58" s="6"/>
+      <c r="BK58" s="6"/>
+      <c r="BL58" s="2"/>
+      <c r="BM58" s="2"/>
+      <c r="BN58" s="2"/>
+      <c r="BO58" s="2"/>
+      <c r="BP58" s="2"/>
+      <c r="BQ58" s="6"/>
+      <c r="BR58" s="6"/>
+      <c r="BS58" s="2"/>
+      <c r="BT58" s="2"/>
+      <c r="BU58" s="2"/>
+      <c r="BV58" s="6"/>
+      <c r="BW58" s="2"/>
+      <c r="BX58" s="6"/>
+      <c r="BY58" s="6"/>
+      <c r="BZ58" s="2"/>
+      <c r="CA58" s="2"/>
+      <c r="CB58" s="2"/>
+      <c r="CC58" s="2"/>
+      <c r="CD58" s="2"/>
+      <c r="CE58" s="6"/>
+      <c r="CF58" s="6"/>
+      <c r="CG58" s="2"/>
+      <c r="CH58" s="2"/>
+      <c r="CI58" s="2"/>
+      <c r="CJ58" s="2"/>
+      <c r="CK58" s="2"/>
+      <c r="CL58" s="2"/>
+      <c r="CM58" s="2"/>
+      <c r="CN58" s="2"/>
+      <c r="CO58" s="2"/>
+      <c r="CP58" s="2"/>
+      <c r="CQ58" s="2"/>
+      <c r="CR58" s="2"/>
+      <c r="CS58" s="2"/>
+      <c r="CT58" s="2"/>
+      <c r="CU58" s="2"/>
+      <c r="CV58" s="2"/>
+      <c r="CW58" s="2"/>
+      <c r="CX58" s="2"/>
+      <c r="CY58" s="2"/>
+      <c r="CZ58" s="2"/>
+      <c r="DA58" s="2"/>
+    </row>
+    <row r="59" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="AT59" s="2"/>
+      <c r="AU59" s="2"/>
+      <c r="AV59" s="6"/>
+      <c r="AW59" s="6"/>
+      <c r="AX59" s="2"/>
+      <c r="AY59" s="2"/>
+      <c r="AZ59" s="2"/>
+      <c r="BA59" s="2"/>
+      <c r="BB59" s="2"/>
+      <c r="BC59" s="6"/>
+      <c r="BD59" s="6"/>
+      <c r="BE59" s="2"/>
+      <c r="BF59" s="2"/>
+      <c r="BG59" s="2"/>
+      <c r="BH59" s="2"/>
+      <c r="BI59" s="2"/>
+      <c r="BJ59" s="6"/>
+      <c r="BK59" s="6"/>
+      <c r="BL59" s="2"/>
+      <c r="BM59" s="2"/>
+      <c r="BN59" s="2"/>
+      <c r="BO59" s="2"/>
+      <c r="BP59" s="2"/>
+      <c r="BQ59" s="6"/>
+      <c r="BR59" s="6"/>
+      <c r="BS59" s="2"/>
+      <c r="BT59" s="2"/>
+      <c r="BU59" s="2"/>
+      <c r="BV59" s="6"/>
+      <c r="BW59" s="2"/>
+      <c r="BX59" s="6"/>
+      <c r="BY59" s="6"/>
+      <c r="BZ59" s="2"/>
+      <c r="CA59" s="2"/>
+      <c r="CB59" s="2"/>
+      <c r="CC59" s="2"/>
+      <c r="CD59" s="2"/>
+      <c r="CE59" s="6"/>
+      <c r="CF59" s="6"/>
+      <c r="CG59" s="2"/>
+      <c r="CH59" s="2"/>
+      <c r="CI59" s="2"/>
+      <c r="CJ59" s="2"/>
+      <c r="CK59" s="2"/>
+      <c r="CL59" s="2"/>
+      <c r="CM59" s="2"/>
+      <c r="CN59" s="2"/>
+      <c r="CO59" s="2"/>
+      <c r="CP59" s="2"/>
+      <c r="CQ59" s="2"/>
+      <c r="CR59" s="2"/>
+      <c r="CS59" s="2"/>
+      <c r="CT59" s="2"/>
+      <c r="CU59" s="2"/>
+      <c r="CV59" s="2"/>
+      <c r="CW59" s="2"/>
+      <c r="CX59" s="2"/>
+      <c r="CY59" s="2"/>
+      <c r="CZ59" s="2"/>
+      <c r="DA59" s="2"/>
+    </row>
+    <row r="60" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="AT60" s="2"/>
+      <c r="AU60" s="2"/>
+      <c r="AV60" s="6"/>
+      <c r="AW60" s="6"/>
+      <c r="AX60" s="2"/>
+      <c r="AY60" s="2"/>
+      <c r="AZ60" s="2"/>
+      <c r="BA60" s="2"/>
+      <c r="BB60" s="2"/>
+      <c r="BC60" s="6"/>
+      <c r="BD60" s="6"/>
+      <c r="BE60" s="2"/>
+      <c r="BF60" s="2"/>
+      <c r="BG60" s="2"/>
+      <c r="BH60" s="2"/>
+      <c r="BI60" s="2"/>
+      <c r="BJ60" s="6"/>
+      <c r="BK60" s="6"/>
+      <c r="BL60" s="2"/>
+      <c r="BM60" s="2"/>
+      <c r="BN60" s="2"/>
+      <c r="BO60" s="2"/>
+      <c r="BP60" s="2"/>
+      <c r="BQ60" s="6"/>
+      <c r="BR60" s="6"/>
+      <c r="BS60" s="2"/>
+      <c r="BT60" s="2"/>
+      <c r="BU60" s="2"/>
+      <c r="BV60" s="6"/>
+      <c r="BW60" s="2"/>
+      <c r="BX60" s="6"/>
+      <c r="BY60" s="6"/>
+      <c r="BZ60" s="2"/>
+      <c r="CA60" s="2"/>
+      <c r="CB60" s="2"/>
+      <c r="CC60" s="2"/>
+      <c r="CD60" s="2"/>
+      <c r="CE60" s="6"/>
+      <c r="CF60" s="6"/>
+      <c r="CG60" s="2"/>
+      <c r="CH60" s="2"/>
+      <c r="CI60" s="2"/>
+      <c r="CJ60" s="2"/>
+      <c r="CK60" s="2"/>
+      <c r="CL60" s="2"/>
+      <c r="CM60" s="2"/>
+      <c r="CN60" s="2"/>
+      <c r="CO60" s="2"/>
+      <c r="CP60" s="2"/>
+      <c r="CQ60" s="2"/>
+      <c r="CR60" s="2"/>
+      <c r="CS60" s="2"/>
+      <c r="CT60" s="2"/>
+      <c r="CU60" s="2"/>
+      <c r="CV60" s="2"/>
+      <c r="CW60" s="2"/>
+      <c r="CX60" s="2"/>
+      <c r="CY60" s="2"/>
+      <c r="CZ60" s="2"/>
+      <c r="DA60" s="2"/>
+    </row>
+    <row r="61" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="AT61" s="2"/>
+      <c r="AU61" s="2"/>
+      <c r="AV61" s="6"/>
+      <c r="AW61" s="6"/>
+      <c r="AX61" s="2"/>
+      <c r="AY61" s="2"/>
+      <c r="AZ61" s="2"/>
+      <c r="BA61" s="2"/>
+      <c r="BB61" s="2"/>
+      <c r="BC61" s="6"/>
+      <c r="BD61" s="6"/>
+      <c r="BE61" s="2"/>
+      <c r="BF61" s="2"/>
+      <c r="BG61" s="2"/>
+      <c r="BH61" s="2"/>
+      <c r="BI61" s="2"/>
+      <c r="BJ61" s="6"/>
+      <c r="BK61" s="6"/>
+      <c r="BL61" s="2"/>
+      <c r="BM61" s="2"/>
+      <c r="BN61" s="2"/>
+      <c r="BO61" s="2"/>
+      <c r="BP61" s="2"/>
+      <c r="BQ61" s="6"/>
+      <c r="BR61" s="6"/>
+      <c r="BS61" s="2"/>
+      <c r="BT61" s="2"/>
+      <c r="BU61" s="2"/>
+      <c r="BV61" s="6"/>
+      <c r="BW61" s="2"/>
+      <c r="BX61" s="6"/>
+      <c r="BY61" s="6"/>
+      <c r="BZ61" s="2"/>
+      <c r="CA61" s="2"/>
+      <c r="CB61" s="2"/>
+      <c r="CC61" s="2"/>
+      <c r="CD61" s="2"/>
+      <c r="CE61" s="6"/>
+      <c r="CF61" s="6"/>
+      <c r="CG61" s="2"/>
+      <c r="CH61" s="2"/>
+      <c r="CI61" s="2"/>
+      <c r="CJ61" s="2"/>
+      <c r="CK61" s="2"/>
+      <c r="CL61" s="2"/>
+      <c r="CM61" s="2"/>
+      <c r="CN61" s="2"/>
+      <c r="CO61" s="2"/>
+      <c r="CP61" s="2"/>
+      <c r="CQ61" s="2"/>
+      <c r="CR61" s="2"/>
+      <c r="CS61" s="2"/>
+      <c r="CT61" s="2"/>
+      <c r="CU61" s="2"/>
+      <c r="CV61" s="2"/>
+      <c r="CW61" s="2"/>
+      <c r="CX61" s="2"/>
+      <c r="CY61" s="2"/>
+      <c r="CZ61" s="2"/>
+      <c r="DA61" s="2"/>
+    </row>
+    <row r="62" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="AT62" s="2"/>
+      <c r="AU62" s="2"/>
+      <c r="AV62" s="6"/>
+      <c r="AW62" s="6"/>
+      <c r="AX62" s="2"/>
+      <c r="AY62" s="2"/>
+      <c r="AZ62" s="2"/>
+      <c r="BA62" s="2"/>
+      <c r="BB62" s="2"/>
+      <c r="BC62" s="6"/>
+      <c r="BD62" s="6"/>
+      <c r="BE62" s="2"/>
+      <c r="BF62" s="2"/>
+      <c r="BG62" s="2"/>
+      <c r="BH62" s="2"/>
+      <c r="BI62" s="2"/>
+      <c r="BJ62" s="6"/>
+      <c r="BK62" s="6"/>
+      <c r="BL62" s="2"/>
+      <c r="BM62" s="2"/>
+      <c r="BN62" s="2"/>
+      <c r="BO62" s="2"/>
+      <c r="BP62" s="2"/>
+      <c r="BQ62" s="6"/>
+      <c r="BR62" s="6"/>
+      <c r="BS62" s="2"/>
+      <c r="BT62" s="2"/>
+      <c r="BU62" s="2"/>
+      <c r="BV62" s="6"/>
+      <c r="BW62" s="2"/>
+      <c r="BX62" s="6"/>
+      <c r="BY62" s="6"/>
+      <c r="BZ62" s="2"/>
+      <c r="CA62" s="2"/>
+      <c r="CB62" s="2"/>
+      <c r="CC62" s="2"/>
+      <c r="CD62" s="2"/>
+      <c r="CE62" s="6"/>
+      <c r="CF62" s="6"/>
+      <c r="CG62" s="2"/>
+      <c r="CH62" s="2"/>
+      <c r="CI62" s="2"/>
+      <c r="CJ62" s="2"/>
+      <c r="CK62" s="2"/>
+      <c r="CL62" s="2"/>
+      <c r="CM62" s="2"/>
+      <c r="CN62" s="2"/>
+      <c r="CO62" s="2"/>
+      <c r="CP62" s="2"/>
+      <c r="CQ62" s="2"/>
+      <c r="CR62" s="2"/>
+      <c r="CS62" s="2"/>
+      <c r="CT62" s="2"/>
+      <c r="CU62" s="2"/>
+      <c r="CV62" s="2"/>
+      <c r="CW62" s="2"/>
+      <c r="CX62" s="2"/>
+      <c r="CY62" s="2"/>
+      <c r="CZ62" s="2"/>
+      <c r="DA62" s="2"/>
+    </row>
+    <row r="63" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="AT63" s="2"/>
+      <c r="AU63" s="2"/>
+      <c r="AV63" s="6"/>
+      <c r="AW63" s="6"/>
+      <c r="AX63" s="2"/>
+      <c r="AY63" s="2"/>
+      <c r="AZ63" s="2"/>
+      <c r="BA63" s="2"/>
+      <c r="BB63" s="2"/>
+      <c r="BC63" s="6"/>
+      <c r="BD63" s="6"/>
+      <c r="BE63" s="2"/>
+      <c r="BF63" s="2"/>
+      <c r="BG63" s="2"/>
+      <c r="BH63" s="2"/>
+      <c r="BI63" s="2"/>
+      <c r="BJ63" s="6"/>
+      <c r="BK63" s="6"/>
+      <c r="BL63" s="2"/>
+      <c r="BM63" s="2"/>
+      <c r="BN63" s="2"/>
+      <c r="BO63" s="2"/>
+      <c r="BP63" s="2"/>
+      <c r="BQ63" s="6"/>
+      <c r="BR63" s="6"/>
+      <c r="BS63" s="2"/>
+      <c r="BT63" s="2"/>
+      <c r="BU63" s="2"/>
+      <c r="BV63" s="6"/>
+      <c r="BW63" s="2"/>
+      <c r="BX63" s="6"/>
+      <c r="BY63" s="6"/>
+      <c r="BZ63" s="2"/>
+      <c r="CA63" s="2"/>
+      <c r="CB63" s="2"/>
+      <c r="CC63" s="2"/>
+      <c r="CD63" s="2"/>
+      <c r="CE63" s="6"/>
+      <c r="CF63" s="6"/>
+      <c r="CG63" s="2"/>
+      <c r="CH63" s="2"/>
+      <c r="CI63" s="2"/>
+      <c r="CJ63" s="2"/>
+      <c r="CK63" s="2"/>
+      <c r="CL63" s="2"/>
+      <c r="CM63" s="2"/>
+      <c r="CN63" s="2"/>
+      <c r="CO63" s="2"/>
+      <c r="CP63" s="2"/>
+      <c r="CQ63" s="2"/>
+      <c r="CR63" s="2"/>
+      <c r="CS63" s="2"/>
+      <c r="CT63" s="2"/>
+      <c r="CU63" s="2"/>
+      <c r="CV63" s="2"/>
+      <c r="CW63" s="2"/>
+      <c r="CX63" s="2"/>
+      <c r="CY63" s="2"/>
+      <c r="CZ63" s="2"/>
+      <c r="DA63" s="2"/>
+    </row>
+    <row r="64" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="AT64" s="2"/>
+      <c r="AU64" s="2"/>
+      <c r="AV64" s="6"/>
+      <c r="AW64" s="6"/>
+      <c r="AX64" s="2"/>
+      <c r="AY64" s="2"/>
+      <c r="AZ64" s="2"/>
+      <c r="BA64" s="2"/>
+      <c r="BB64" s="2"/>
+      <c r="BC64" s="6"/>
+      <c r="BD64" s="6"/>
+      <c r="BE64" s="2"/>
+      <c r="BF64" s="2"/>
+      <c r="BG64" s="2"/>
+      <c r="BH64" s="2"/>
+      <c r="BI64" s="2"/>
+      <c r="BJ64" s="6"/>
+      <c r="BK64" s="6"/>
+      <c r="BL64" s="2"/>
+      <c r="BM64" s="2"/>
+      <c r="BN64" s="2"/>
+      <c r="BO64" s="2"/>
+      <c r="BP64" s="2"/>
+      <c r="BQ64" s="6"/>
+      <c r="BR64" s="6"/>
+      <c r="BS64" s="2"/>
+      <c r="BT64" s="2"/>
+      <c r="BU64" s="2"/>
+      <c r="BV64" s="6"/>
+      <c r="BW64" s="2"/>
+      <c r="BX64" s="6"/>
+      <c r="BY64" s="6"/>
+      <c r="BZ64" s="2"/>
+      <c r="CA64" s="2"/>
+      <c r="CB64" s="2"/>
+      <c r="CC64" s="2"/>
+      <c r="CD64" s="2"/>
+      <c r="CE64" s="6"/>
+      <c r="CF64" s="6"/>
+      <c r="CG64" s="2"/>
+      <c r="CH64" s="2"/>
+      <c r="CI64" s="2"/>
+      <c r="CJ64" s="2"/>
+      <c r="CK64" s="2"/>
+      <c r="CL64" s="2"/>
+      <c r="CM64" s="2"/>
+      <c r="CN64" s="2"/>
+      <c r="CO64" s="2"/>
+      <c r="CP64" s="2"/>
+      <c r="CQ64" s="2"/>
+      <c r="CR64" s="2"/>
+      <c r="CS64" s="2"/>
+      <c r="CT64" s="2"/>
+      <c r="CU64" s="2"/>
+      <c r="CV64" s="2"/>
+      <c r="CW64" s="2"/>
+      <c r="CX64" s="2"/>
+      <c r="CY64" s="2"/>
+      <c r="CZ64" s="2"/>
+      <c r="DA64" s="2"/>
+    </row>
+    <row r="65" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="AT65" s="2"/>
+      <c r="AU65" s="2"/>
+      <c r="AV65" s="6"/>
+      <c r="AW65" s="6"/>
+      <c r="AX65" s="2"/>
+      <c r="AY65" s="2"/>
+      <c r="AZ65" s="2"/>
+      <c r="BA65" s="2"/>
+      <c r="BB65" s="2"/>
+      <c r="BC65" s="6"/>
+      <c r="BD65" s="6"/>
+      <c r="BE65" s="2"/>
+      <c r="BF65" s="2"/>
+      <c r="BG65" s="2"/>
+      <c r="BH65" s="2"/>
+      <c r="BI65" s="2"/>
+      <c r="BJ65" s="6"/>
+      <c r="BK65" s="6"/>
+      <c r="BL65" s="2"/>
+      <c r="BM65" s="2"/>
+      <c r="BN65" s="2"/>
+      <c r="BO65" s="2"/>
+      <c r="BP65" s="2"/>
+      <c r="BQ65" s="6"/>
+      <c r="BR65" s="6"/>
+      <c r="BS65" s="2"/>
+      <c r="BT65" s="2"/>
+      <c r="BU65" s="2"/>
+      <c r="BV65" s="6"/>
+      <c r="BW65" s="2"/>
+      <c r="BX65" s="6"/>
+      <c r="BY65" s="6"/>
+      <c r="BZ65" s="2"/>
+      <c r="CA65" s="2"/>
+      <c r="CB65" s="2"/>
+      <c r="CC65" s="2"/>
+      <c r="CD65" s="2"/>
+      <c r="CE65" s="6"/>
+      <c r="CF65" s="6"/>
+      <c r="CG65" s="2"/>
+      <c r="CH65" s="2"/>
+      <c r="CI65" s="2"/>
+      <c r="CJ65" s="2"/>
+      <c r="CK65" s="2"/>
+      <c r="CL65" s="2"/>
+      <c r="CM65" s="2"/>
+      <c r="CN65" s="2"/>
+      <c r="CO65" s="2"/>
+      <c r="CP65" s="2"/>
+      <c r="CQ65" s="2"/>
+      <c r="CR65" s="2"/>
+      <c r="CS65" s="2"/>
+      <c r="CT65" s="2"/>
+      <c r="CU65" s="2"/>
+      <c r="CV65" s="2"/>
+      <c r="CW65" s="2"/>
+      <c r="CX65" s="2"/>
+      <c r="CY65" s="2"/>
+      <c r="CZ65" s="2"/>
+      <c r="DA65" s="2"/>
+    </row>
+    <row r="66" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="AT66" s="2"/>
+      <c r="AU66" s="2"/>
+      <c r="AV66" s="6"/>
+      <c r="AW66" s="6"/>
+      <c r="AX66" s="2"/>
+      <c r="AY66" s="2"/>
+      <c r="AZ66" s="2"/>
+      <c r="BA66" s="2"/>
+      <c r="BB66" s="2"/>
+      <c r="BC66" s="6"/>
+      <c r="BD66" s="6"/>
+      <c r="BE66" s="2"/>
+      <c r="BF66" s="2"/>
+      <c r="BG66" s="2"/>
+      <c r="BH66" s="2"/>
+      <c r="BI66" s="2"/>
+      <c r="BJ66" s="6"/>
+      <c r="BK66" s="6"/>
+      <c r="BL66" s="2"/>
+      <c r="BM66" s="2"/>
+      <c r="BN66" s="2"/>
+      <c r="BO66" s="2"/>
+      <c r="BP66" s="2"/>
+      <c r="BQ66" s="6"/>
+      <c r="BR66" s="6"/>
+      <c r="BS66" s="2"/>
+      <c r="BT66" s="2"/>
+      <c r="BU66" s="2"/>
+      <c r="BV66" s="6"/>
+      <c r="BW66" s="2"/>
+      <c r="BX66" s="6"/>
+      <c r="BY66" s="6"/>
+      <c r="BZ66" s="2"/>
+      <c r="CA66" s="2"/>
+      <c r="CB66" s="2"/>
+      <c r="CC66" s="2"/>
+      <c r="CD66" s="2"/>
+      <c r="CE66" s="6"/>
+      <c r="CF66" s="6"/>
+      <c r="CG66" s="2"/>
+      <c r="CH66" s="2"/>
+      <c r="CI66" s="2"/>
+      <c r="CJ66" s="2"/>
+      <c r="CK66" s="2"/>
+      <c r="CL66" s="2"/>
+      <c r="CM66" s="2"/>
+      <c r="CN66" s="2"/>
+      <c r="CO66" s="2"/>
+      <c r="CP66" s="2"/>
+      <c r="CQ66" s="2"/>
+      <c r="CR66" s="2"/>
+      <c r="CS66" s="2"/>
+      <c r="CT66" s="2"/>
+      <c r="CU66" s="2"/>
+      <c r="CV66" s="2"/>
+      <c r="CW66" s="2"/>
+      <c r="CX66" s="2"/>
+      <c r="CY66" s="2"/>
+      <c r="CZ66" s="2"/>
+      <c r="DA66" s="2"/>
+    </row>
+    <row r="67" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="AT67" s="2"/>
+      <c r="AU67" s="2"/>
+      <c r="AV67" s="6"/>
+      <c r="AW67" s="6"/>
+      <c r="AX67" s="2"/>
+      <c r="AY67" s="2"/>
+      <c r="AZ67" s="2"/>
+      <c r="BA67" s="2"/>
+      <c r="BB67" s="2"/>
+      <c r="BC67" s="6"/>
+      <c r="BD67" s="6"/>
+      <c r="BE67" s="2"/>
+      <c r="BF67" s="2"/>
+      <c r="BG67" s="2"/>
+      <c r="BH67" s="2"/>
+      <c r="BI67" s="2"/>
+      <c r="BJ67" s="6"/>
+      <c r="BK67" s="6"/>
+      <c r="BL67" s="2"/>
+      <c r="BM67" s="2"/>
+      <c r="BN67" s="2"/>
+      <c r="BO67" s="2"/>
+      <c r="BP67" s="2"/>
+      <c r="BQ67" s="6"/>
+      <c r="BR67" s="6"/>
+      <c r="BS67" s="2"/>
+      <c r="BT67" s="2"/>
+      <c r="BU67" s="2"/>
+      <c r="BV67" s="6"/>
+      <c r="BW67" s="2"/>
+      <c r="BX67" s="6"/>
+      <c r="BY67" s="6"/>
+      <c r="BZ67" s="2"/>
+      <c r="CA67" s="2"/>
+      <c r="CB67" s="2"/>
+      <c r="CC67" s="2"/>
+      <c r="CD67" s="2"/>
+      <c r="CE67" s="6"/>
+      <c r="CF67" s="6"/>
+      <c r="CG67" s="2"/>
+      <c r="CH67" s="2"/>
+      <c r="CI67" s="2"/>
+      <c r="CJ67" s="2"/>
+      <c r="CK67" s="2"/>
+      <c r="CL67" s="2"/>
+      <c r="CM67" s="2"/>
+      <c r="CN67" s="2"/>
+      <c r="CO67" s="2"/>
+      <c r="CP67" s="2"/>
+      <c r="CQ67" s="2"/>
+      <c r="CR67" s="2"/>
+      <c r="CS67" s="2"/>
+      <c r="CT67" s="2"/>
+      <c r="CU67" s="2"/>
+      <c r="CV67" s="2"/>
+      <c r="CW67" s="2"/>
+      <c r="CX67" s="2"/>
+      <c r="CY67" s="2"/>
+      <c r="CZ67" s="2"/>
+      <c r="DA67" s="2"/>
+    </row>
+    <row r="68" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="AT68" s="2"/>
+      <c r="AU68" s="2"/>
+      <c r="AV68" s="6"/>
+      <c r="AW68" s="6"/>
+      <c r="AX68" s="2"/>
+      <c r="AY68" s="2"/>
+      <c r="AZ68" s="2"/>
+      <c r="BA68" s="2"/>
+      <c r="BB68" s="2"/>
+      <c r="BC68" s="6"/>
+      <c r="BD68" s="6"/>
+      <c r="BE68" s="2"/>
+      <c r="BF68" s="2"/>
+      <c r="BG68" s="2"/>
+      <c r="BH68" s="2"/>
+      <c r="BI68" s="2"/>
+      <c r="BJ68" s="6"/>
+      <c r="BK68" s="6"/>
+      <c r="BL68" s="2"/>
+      <c r="BM68" s="2"/>
+      <c r="BN68" s="2"/>
+      <c r="BO68" s="2"/>
+      <c r="BP68" s="2"/>
+      <c r="BQ68" s="6"/>
+      <c r="BR68" s="6"/>
+      <c r="BS68" s="2"/>
+      <c r="BT68" s="2"/>
+      <c r="BU68" s="2"/>
+      <c r="BV68" s="6"/>
+      <c r="BW68" s="2"/>
+      <c r="BX68" s="6"/>
+      <c r="BY68" s="6"/>
+      <c r="BZ68" s="2"/>
+      <c r="CA68" s="2"/>
+      <c r="CB68" s="2"/>
+      <c r="CC68" s="2"/>
+      <c r="CD68" s="2"/>
+      <c r="CE68" s="6"/>
+      <c r="CF68" s="6"/>
+      <c r="CG68" s="2"/>
+      <c r="CH68" s="2"/>
+      <c r="CI68" s="2"/>
+      <c r="CJ68" s="2"/>
+      <c r="CK68" s="2"/>
+      <c r="CL68" s="2"/>
+      <c r="CM68" s="2"/>
+      <c r="CN68" s="2"/>
+      <c r="CO68" s="2"/>
+      <c r="CP68" s="2"/>
+      <c r="CQ68" s="2"/>
+      <c r="CR68" s="2"/>
+      <c r="CS68" s="2"/>
+      <c r="CT68" s="2"/>
+      <c r="CU68" s="2"/>
+      <c r="CV68" s="2"/>
+      <c r="CW68" s="2"/>
+      <c r="CX68" s="2"/>
+      <c r="CY68" s="2"/>
+      <c r="CZ68" s="2"/>
+      <c r="DA68" s="2"/>
+    </row>
+    <row r="69" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="AT69" s="2"/>
+      <c r="AU69" s="2"/>
+      <c r="AV69" s="6"/>
+      <c r="AW69" s="6"/>
+      <c r="AX69" s="2"/>
+      <c r="AY69" s="2"/>
+      <c r="AZ69" s="2"/>
+      <c r="BA69" s="2"/>
+      <c r="BB69" s="2"/>
+      <c r="BC69" s="6"/>
+      <c r="BD69" s="6"/>
+      <c r="BE69" s="2"/>
+      <c r="BF69" s="2"/>
+      <c r="BG69" s="2"/>
+      <c r="BH69" s="2"/>
+      <c r="BI69" s="2"/>
+      <c r="BJ69" s="6"/>
+      <c r="BK69" s="6"/>
+      <c r="BL69" s="2"/>
+      <c r="BM69" s="2"/>
+      <c r="BN69" s="2"/>
+      <c r="BO69" s="2"/>
+      <c r="BP69" s="2"/>
+      <c r="BQ69" s="6"/>
+      <c r="BR69" s="6"/>
+      <c r="BS69" s="2"/>
+      <c r="BT69" s="2"/>
+      <c r="BU69" s="2"/>
+      <c r="BV69" s="6"/>
+      <c r="BW69" s="2"/>
+      <c r="BX69" s="6"/>
+      <c r="BY69" s="6"/>
+      <c r="BZ69" s="2"/>
+      <c r="CA69" s="2"/>
+      <c r="CB69" s="2"/>
+      <c r="CC69" s="2"/>
+      <c r="CD69" s="2"/>
+      <c r="CE69" s="6"/>
+      <c r="CF69" s="6"/>
+      <c r="CG69" s="2"/>
+      <c r="CH69" s="2"/>
+      <c r="CI69" s="2"/>
+      <c r="CJ69" s="2"/>
+      <c r="CK69" s="2"/>
+      <c r="CL69" s="2"/>
+      <c r="CM69" s="2"/>
+      <c r="CN69" s="2"/>
+      <c r="CO69" s="2"/>
+      <c r="CP69" s="2"/>
+      <c r="CQ69" s="2"/>
+      <c r="CR69" s="2"/>
+      <c r="CS69" s="2"/>
+      <c r="CT69" s="2"/>
+      <c r="CU69" s="2"/>
+      <c r="CV69" s="2"/>
+      <c r="CW69" s="2"/>
+      <c r="CX69" s="2"/>
+      <c r="CY69" s="2"/>
+      <c r="CZ69" s="2"/>
+      <c r="DA69" s="2"/>
+    </row>
+    <row r="70" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="AT70" s="2"/>
+      <c r="AU70" s="2"/>
+      <c r="AV70" s="6"/>
+      <c r="AW70" s="6"/>
+      <c r="AX70" s="2"/>
+      <c r="AY70" s="2"/>
+      <c r="AZ70" s="2"/>
+      <c r="BA70" s="2"/>
+      <c r="BB70" s="2"/>
+      <c r="BC70" s="6"/>
+      <c r="BD70" s="6"/>
+      <c r="BE70" s="2"/>
+      <c r="BF70" s="2"/>
+      <c r="BG70" s="2"/>
+      <c r="BH70" s="2"/>
+      <c r="BI70" s="2"/>
+      <c r="BJ70" s="6"/>
+      <c r="BK70" s="6"/>
+      <c r="BL70" s="2"/>
+      <c r="BM70" s="2"/>
+      <c r="BN70" s="2"/>
+      <c r="BO70" s="2"/>
+      <c r="BP70" s="2"/>
+      <c r="BQ70" s="6"/>
+      <c r="BR70" s="6"/>
+      <c r="BS70" s="2"/>
+      <c r="BT70" s="2"/>
+      <c r="BU70" s="2"/>
+      <c r="BV70" s="6"/>
+      <c r="BW70" s="2"/>
+      <c r="BX70" s="6"/>
+      <c r="BY70" s="6"/>
+      <c r="BZ70" s="2"/>
+      <c r="CA70" s="2"/>
+      <c r="CB70" s="2"/>
+      <c r="CC70" s="2"/>
+      <c r="CD70" s="2"/>
+      <c r="CE70" s="6"/>
+      <c r="CF70" s="6"/>
+      <c r="CG70" s="2"/>
+      <c r="CH70" s="2"/>
+      <c r="CI70" s="2"/>
+      <c r="CJ70" s="2"/>
+      <c r="CK70" s="2"/>
+      <c r="CL70" s="2"/>
+      <c r="CM70" s="2"/>
+      <c r="CN70" s="2"/>
+      <c r="CO70" s="2"/>
+      <c r="CP70" s="2"/>
+      <c r="CQ70" s="2"/>
+      <c r="CR70" s="2"/>
+      <c r="CS70" s="2"/>
+      <c r="CT70" s="2"/>
+      <c r="CU70" s="2"/>
+      <c r="CV70" s="2"/>
+      <c r="CW70" s="2"/>
+      <c r="CX70" s="2"/>
+      <c r="CY70" s="2"/>
+      <c r="CZ70" s="2"/>
+      <c r="DA70" s="2"/>
+    </row>
+    <row r="71" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="AT71" s="2"/>
+      <c r="AU71" s="2"/>
+      <c r="AV71" s="6"/>
+      <c r="AW71" s="6"/>
+      <c r="AX71" s="2"/>
+      <c r="AY71" s="2"/>
+      <c r="AZ71" s="2"/>
+      <c r="BA71" s="2"/>
+      <c r="BB71" s="2"/>
+      <c r="BC71" s="6"/>
+      <c r="BD71" s="6"/>
+      <c r="BE71" s="2"/>
+      <c r="BF71" s="2"/>
+      <c r="BG71" s="2"/>
+      <c r="BH71" s="2"/>
+      <c r="BI71" s="2"/>
+      <c r="BJ71" s="6"/>
+      <c r="BK71" s="6"/>
+      <c r="BL71" s="2"/>
+      <c r="BM71" s="2"/>
+      <c r="BN71" s="2"/>
+      <c r="BO71" s="2"/>
+      <c r="BP71" s="2"/>
+      <c r="BQ71" s="6"/>
+      <c r="BR71" s="6"/>
+      <c r="BS71" s="2"/>
+      <c r="BT71" s="2"/>
+      <c r="BU71" s="2"/>
+      <c r="BV71" s="6"/>
+      <c r="BW71" s="2"/>
+      <c r="BX71" s="6"/>
+      <c r="BY71" s="6"/>
+      <c r="BZ71" s="2"/>
+      <c r="CA71" s="2"/>
+      <c r="CB71" s="2"/>
+      <c r="CC71" s="2"/>
+      <c r="CD71" s="2"/>
+      <c r="CE71" s="6"/>
+      <c r="CF71" s="6"/>
+      <c r="CG71" s="2"/>
+      <c r="CH71" s="2"/>
+      <c r="CI71" s="2"/>
+      <c r="CJ71" s="2"/>
+      <c r="CK71" s="2"/>
+      <c r="CL71" s="2"/>
+      <c r="CM71" s="2"/>
+      <c r="CN71" s="2"/>
+      <c r="CO71" s="2"/>
+      <c r="CP71" s="2"/>
+      <c r="CQ71" s="2"/>
+      <c r="CR71" s="2"/>
+      <c r="CS71" s="2"/>
+      <c r="CT71" s="2"/>
+      <c r="CU71" s="2"/>
+      <c r="CV71" s="2"/>
+      <c r="CW71" s="2"/>
+      <c r="CX71" s="2"/>
+      <c r="CY71" s="2"/>
+      <c r="CZ71" s="2"/>
+      <c r="DA71" s="2"/>
+    </row>
+    <row r="72" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="AT72" s="2"/>
+      <c r="AU72" s="2"/>
+      <c r="AV72" s="6"/>
+      <c r="AW72" s="6"/>
+      <c r="AX72" s="2"/>
+      <c r="AY72" s="2"/>
+      <c r="AZ72" s="2"/>
+      <c r="BA72" s="2"/>
+      <c r="BB72" s="2"/>
+      <c r="BC72" s="6"/>
+      <c r="BD72" s="6"/>
+      <c r="BE72" s="2"/>
+      <c r="BF72" s="2"/>
+      <c r="BG72" s="2"/>
+      <c r="BH72" s="2"/>
+      <c r="BI72" s="2"/>
+      <c r="BJ72" s="6"/>
+      <c r="BK72" s="6"/>
+      <c r="BL72" s="2"/>
+      <c r="BM72" s="2"/>
+      <c r="BN72" s="2"/>
+      <c r="BO72" s="2"/>
+      <c r="BP72" s="2"/>
+      <c r="BQ72" s="6"/>
+      <c r="BR72" s="6"/>
+      <c r="BS72" s="2"/>
+      <c r="BT72" s="2"/>
+      <c r="BU72" s="2"/>
+      <c r="BV72" s="6"/>
+      <c r="BW72" s="2"/>
+      <c r="BX72" s="6"/>
+      <c r="BY72" s="6"/>
+      <c r="BZ72" s="2"/>
+      <c r="CA72" s="2"/>
+      <c r="CB72" s="2"/>
+      <c r="CC72" s="2"/>
+      <c r="CD72" s="2"/>
+      <c r="CE72" s="6"/>
+      <c r="CF72" s="6"/>
+      <c r="CG72" s="2"/>
+      <c r="CH72" s="2"/>
+      <c r="CI72" s="2"/>
+      <c r="CJ72" s="2"/>
+      <c r="CK72" s="2"/>
+      <c r="CL72" s="2"/>
+      <c r="CM72" s="2"/>
+      <c r="CN72" s="2"/>
+      <c r="CO72" s="2"/>
+      <c r="CP72" s="2"/>
+      <c r="CQ72" s="2"/>
+      <c r="CR72" s="2"/>
+      <c r="CS72" s="2"/>
+      <c r="CT72" s="2"/>
+      <c r="CU72" s="2"/>
+      <c r="CV72" s="2"/>
+      <c r="CW72" s="2"/>
+      <c r="CX72" s="2"/>
+      <c r="CY72" s="2"/>
+      <c r="CZ72" s="2"/>
+      <c r="DA72" s="2"/>
+    </row>
+    <row r="73" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="AT73" s="2"/>
+      <c r="AU73" s="2"/>
+      <c r="AV73" s="6"/>
+      <c r="AW73" s="6"/>
+      <c r="AX73" s="2"/>
+      <c r="AY73" s="2"/>
+      <c r="AZ73" s="2"/>
+      <c r="BA73" s="2"/>
+      <c r="BB73" s="2"/>
+      <c r="BC73" s="6"/>
+      <c r="BD73" s="6"/>
+      <c r="BE73" s="2"/>
+      <c r="BF73" s="2"/>
+      <c r="BG73" s="2"/>
+      <c r="BH73" s="2"/>
+      <c r="BI73" s="2"/>
+      <c r="BJ73" s="6"/>
+      <c r="BK73" s="6"/>
+      <c r="BL73" s="2"/>
+      <c r="BM73" s="2"/>
+      <c r="BN73" s="2"/>
+      <c r="BO73" s="2"/>
+      <c r="BP73" s="2"/>
+      <c r="BQ73" s="6"/>
+      <c r="BR73" s="6"/>
+      <c r="BS73" s="2"/>
+      <c r="BT73" s="2"/>
+      <c r="BU73" s="2"/>
+      <c r="BV73" s="6"/>
+      <c r="BW73" s="2"/>
+      <c r="BX73" s="6"/>
+      <c r="BY73" s="6"/>
+      <c r="BZ73" s="2"/>
+      <c r="CA73" s="2"/>
+      <c r="CB73" s="2"/>
+      <c r="CC73" s="2"/>
+      <c r="CD73" s="2"/>
+      <c r="CE73" s="6"/>
+      <c r="CF73" s="6"/>
+      <c r="CG73" s="2"/>
+      <c r="CH73" s="2"/>
+      <c r="CI73" s="2"/>
+      <c r="CJ73" s="2"/>
+      <c r="CK73" s="2"/>
+      <c r="CL73" s="2"/>
+      <c r="CM73" s="2"/>
+      <c r="CN73" s="2"/>
+      <c r="CO73" s="2"/>
+      <c r="CP73" s="2"/>
+      <c r="CQ73" s="2"/>
+      <c r="CR73" s="2"/>
+      <c r="CS73" s="2"/>
+      <c r="CT73" s="2"/>
+      <c r="CU73" s="2"/>
+      <c r="CV73" s="2"/>
+      <c r="CW73" s="2"/>
+      <c r="CX73" s="2"/>
+      <c r="CY73" s="2"/>
+      <c r="CZ73" s="2"/>
+      <c r="DA73" s="2"/>
+    </row>
+    <row r="74" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="AT74" s="2"/>
+      <c r="AU74" s="2"/>
+      <c r="AV74" s="6"/>
+      <c r="AW74" s="6"/>
+      <c r="AX74" s="2"/>
+      <c r="AY74" s="2"/>
+      <c r="AZ74" s="2"/>
+      <c r="BA74" s="2"/>
+      <c r="BB74" s="2"/>
+      <c r="BC74" s="6"/>
+      <c r="BD74" s="6"/>
+      <c r="BE74" s="2"/>
+      <c r="BF74" s="2"/>
+      <c r="BG74" s="2"/>
+      <c r="BH74" s="2"/>
+      <c r="BI74" s="2"/>
+      <c r="BJ74" s="6"/>
+      <c r="BK74" s="6"/>
+      <c r="BL74" s="2"/>
+      <c r="BM74" s="2"/>
+      <c r="BN74" s="2"/>
+      <c r="BO74" s="2"/>
+      <c r="BP74" s="2"/>
+      <c r="BQ74" s="6"/>
+      <c r="BR74" s="6"/>
+      <c r="BS74" s="2"/>
+      <c r="BT74" s="2"/>
+      <c r="BU74" s="2"/>
+      <c r="BV74" s="6"/>
+      <c r="BW74" s="2"/>
+      <c r="BX74" s="6"/>
+      <c r="BY74" s="6"/>
+      <c r="BZ74" s="2"/>
+      <c r="CA74" s="2"/>
+      <c r="CB74" s="2"/>
+      <c r="CC74" s="2"/>
+      <c r="CD74" s="2"/>
+      <c r="CE74" s="6"/>
+      <c r="CF74" s="6"/>
+      <c r="CG74" s="2"/>
+      <c r="CH74" s="2"/>
+      <c r="CI74" s="2"/>
+      <c r="CJ74" s="2"/>
+      <c r="CK74" s="2"/>
+      <c r="CL74" s="2"/>
+      <c r="CM74" s="2"/>
+      <c r="CN74" s="2"/>
+      <c r="CO74" s="2"/>
+      <c r="CP74" s="2"/>
+      <c r="CQ74" s="2"/>
+      <c r="CR74" s="2"/>
+      <c r="CS74" s="2"/>
+      <c r="CT74" s="2"/>
+      <c r="CU74" s="2"/>
+      <c r="CV74" s="2"/>
+      <c r="CW74" s="2"/>
+      <c r="CX74" s="2"/>
+      <c r="CY74" s="2"/>
+      <c r="CZ74" s="2"/>
+      <c r="DA74" s="2"/>
+    </row>
+    <row r="75" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="AT75" s="2"/>
+      <c r="AU75" s="2"/>
+      <c r="AV75" s="6"/>
+      <c r="AW75" s="6"/>
+      <c r="AX75" s="2"/>
+      <c r="AY75" s="2"/>
+      <c r="AZ75" s="2"/>
+      <c r="BA75" s="2"/>
+      <c r="BB75" s="2"/>
+      <c r="BC75" s="6"/>
+      <c r="BD75" s="6"/>
+      <c r="BE75" s="2"/>
+      <c r="BF75" s="2"/>
+      <c r="BG75" s="2"/>
+      <c r="BH75" s="2"/>
+      <c r="BI75" s="2"/>
+      <c r="BJ75" s="6"/>
+      <c r="BK75" s="6"/>
+      <c r="BL75" s="2"/>
+      <c r="BM75" s="2"/>
+      <c r="BN75" s="2"/>
+      <c r="BO75" s="2"/>
+      <c r="BP75" s="2"/>
+      <c r="BQ75" s="6"/>
+      <c r="BR75" s="6"/>
+      <c r="BS75" s="2"/>
+      <c r="BT75" s="2"/>
+      <c r="BU75" s="2"/>
+      <c r="BV75" s="6"/>
+      <c r="BW75" s="2"/>
+      <c r="BX75" s="6"/>
+      <c r="BY75" s="6"/>
+      <c r="BZ75" s="2"/>
+      <c r="CA75" s="2"/>
+      <c r="CB75" s="2"/>
+      <c r="CC75" s="2"/>
+      <c r="CD75" s="2"/>
+      <c r="CE75" s="6"/>
+      <c r="CF75" s="6"/>
+      <c r="CG75" s="2"/>
+      <c r="CH75" s="2"/>
+      <c r="CI75" s="2"/>
+      <c r="CJ75" s="2"/>
+      <c r="CK75" s="2"/>
+      <c r="CL75" s="2"/>
+      <c r="CM75" s="2"/>
+      <c r="CN75" s="2"/>
+      <c r="CO75" s="2"/>
+      <c r="CP75" s="2"/>
+      <c r="CQ75" s="2"/>
+      <c r="CR75" s="2"/>
+      <c r="CS75" s="2"/>
+      <c r="CT75" s="2"/>
+      <c r="CU75" s="2"/>
+      <c r="CV75" s="2"/>
+      <c r="CW75" s="2"/>
+      <c r="CX75" s="2"/>
+      <c r="CY75" s="2"/>
+      <c r="CZ75" s="2"/>
+      <c r="DA75" s="2"/>
+    </row>
+    <row r="76" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="AT76" s="2"/>
+      <c r="AU76" s="2"/>
+      <c r="AV76" s="6"/>
+      <c r="AW76" s="6"/>
+      <c r="AX76" s="2"/>
+      <c r="AY76" s="2"/>
+      <c r="AZ76" s="2"/>
+      <c r="BA76" s="2"/>
+      <c r="BB76" s="2"/>
+      <c r="BC76" s="6"/>
+      <c r="BD76" s="6"/>
+      <c r="BE76" s="2"/>
+      <c r="BF76" s="2"/>
+      <c r="BG76" s="2"/>
+      <c r="BH76" s="2"/>
+      <c r="BI76" s="2"/>
+      <c r="BJ76" s="6"/>
+      <c r="BK76" s="6"/>
+      <c r="BL76" s="2"/>
+      <c r="BM76" s="2"/>
+      <c r="BN76" s="2"/>
+      <c r="BO76" s="2"/>
+      <c r="BP76" s="2"/>
+      <c r="BQ76" s="6"/>
+      <c r="BR76" s="6"/>
+      <c r="BS76" s="2"/>
+      <c r="BT76" s="2"/>
+      <c r="BU76" s="2"/>
+      <c r="BV76" s="6"/>
+      <c r="BW76" s="2"/>
+      <c r="BX76" s="6"/>
+      <c r="BY76" s="6"/>
+      <c r="BZ76" s="2"/>
+      <c r="CA76" s="2"/>
+      <c r="CB76" s="2"/>
+      <c r="CC76" s="2"/>
+      <c r="CD76" s="2"/>
+      <c r="CE76" s="6"/>
+      <c r="CF76" s="6"/>
+      <c r="CG76" s="2"/>
+      <c r="CH76" s="2"/>
+      <c r="CI76" s="2"/>
+      <c r="CJ76" s="2"/>
+      <c r="CK76" s="2"/>
+      <c r="CL76" s="2"/>
+      <c r="CM76" s="2"/>
+      <c r="CN76" s="2"/>
+      <c r="CO76" s="2"/>
+      <c r="CP76" s="2"/>
+      <c r="CQ76" s="2"/>
+      <c r="CR76" s="2"/>
+      <c r="CS76" s="2"/>
+      <c r="CT76" s="2"/>
+      <c r="CU76" s="2"/>
+      <c r="CV76" s="2"/>
+      <c r="CW76" s="2"/>
+      <c r="CX76" s="2"/>
+      <c r="CY76" s="2"/>
+      <c r="CZ76" s="2"/>
+      <c r="DA76" s="2"/>
+    </row>
+    <row r="77" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="AT77" s="2"/>
+      <c r="AU77" s="2"/>
+      <c r="AV77" s="6"/>
+      <c r="AW77" s="6"/>
+      <c r="AX77" s="2"/>
+      <c r="AY77" s="2"/>
+      <c r="AZ77" s="2"/>
+      <c r="BA77" s="2"/>
+      <c r="BB77" s="2"/>
+      <c r="BC77" s="6"/>
+      <c r="BD77" s="6"/>
+      <c r="BE77" s="2"/>
+      <c r="BF77" s="2"/>
+      <c r="BG77" s="2"/>
+      <c r="BH77" s="2"/>
+      <c r="BI77" s="2"/>
+      <c r="BJ77" s="6"/>
+      <c r="BK77" s="6"/>
+      <c r="BL77" s="2"/>
+      <c r="BM77" s="2"/>
+      <c r="BN77" s="2"/>
+      <c r="BO77" s="2"/>
+      <c r="BP77" s="2"/>
+      <c r="BQ77" s="6"/>
+      <c r="BR77" s="6"/>
+      <c r="BS77" s="2"/>
+      <c r="BT77" s="2"/>
+      <c r="BU77" s="2"/>
+      <c r="BV77" s="6"/>
+      <c r="BW77" s="2"/>
+      <c r="BX77" s="6"/>
+      <c r="BY77" s="6"/>
+      <c r="BZ77" s="2"/>
+      <c r="CA77" s="2"/>
+      <c r="CB77" s="2"/>
+      <c r="CC77" s="2"/>
+      <c r="CD77" s="2"/>
+      <c r="CE77" s="6"/>
+      <c r="CF77" s="6"/>
+      <c r="CG77" s="2"/>
+      <c r="CH77" s="2"/>
+      <c r="CI77" s="2"/>
+      <c r="CJ77" s="2"/>
+      <c r="CK77" s="2"/>
+      <c r="CL77" s="2"/>
+      <c r="CM77" s="2"/>
+      <c r="CN77" s="2"/>
+      <c r="CO77" s="2"/>
+      <c r="CP77" s="2"/>
+      <c r="CQ77" s="2"/>
+      <c r="CR77" s="2"/>
+      <c r="CS77" s="2"/>
+      <c r="CT77" s="2"/>
+      <c r="CU77" s="2"/>
+      <c r="CV77" s="2"/>
+      <c r="CW77" s="2"/>
+      <c r="CX77" s="2"/>
+      <c r="CY77" s="2"/>
+      <c r="CZ77" s="2"/>
+      <c r="DA77" s="2"/>
+    </row>
+    <row r="78" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="AT78" s="2"/>
+      <c r="AU78" s="2"/>
+      <c r="AV78" s="6"/>
+      <c r="AW78" s="6"/>
+      <c r="AX78" s="2"/>
+      <c r="AY78" s="2"/>
+      <c r="AZ78" s="2"/>
+      <c r="BA78" s="2"/>
+      <c r="BB78" s="2"/>
+      <c r="BC78" s="6"/>
+      <c r="BD78" s="6"/>
+      <c r="BE78" s="2"/>
+      <c r="BF78" s="2"/>
+      <c r="BG78" s="2"/>
+      <c r="BH78" s="2"/>
+      <c r="BI78" s="2"/>
+      <c r="BJ78" s="6"/>
+      <c r="BK78" s="6"/>
+      <c r="BL78" s="2"/>
+      <c r="BM78" s="2"/>
+      <c r="BN78" s="2"/>
+      <c r="BO78" s="2"/>
+      <c r="BP78" s="2"/>
+      <c r="BQ78" s="6"/>
+      <c r="BR78" s="6"/>
+      <c r="BS78" s="2"/>
+      <c r="BT78" s="2"/>
+      <c r="BU78" s="2"/>
+      <c r="BV78" s="6"/>
+      <c r="BW78" s="2"/>
+      <c r="BX78" s="6"/>
+      <c r="BY78" s="6"/>
+      <c r="BZ78" s="2"/>
+      <c r="CA78" s="2"/>
+      <c r="CB78" s="2"/>
+      <c r="CC78" s="2"/>
+      <c r="CD78" s="2"/>
+      <c r="CE78" s="6"/>
+      <c r="CF78" s="6"/>
+      <c r="CG78" s="2"/>
+      <c r="CH78" s="2"/>
+      <c r="CI78" s="2"/>
+      <c r="CJ78" s="2"/>
+      <c r="CK78" s="2"/>
+      <c r="CL78" s="2"/>
+      <c r="CM78" s="2"/>
+      <c r="CN78" s="2"/>
+      <c r="CO78" s="2"/>
+      <c r="CP78" s="2"/>
+      <c r="CQ78" s="2"/>
+      <c r="CR78" s="2"/>
+      <c r="CS78" s="2"/>
+      <c r="CT78" s="2"/>
+      <c r="CU78" s="2"/>
+      <c r="CV78" s="2"/>
+      <c r="CW78" s="2"/>
+      <c r="CX78" s="2"/>
+      <c r="CY78" s="2"/>
+      <c r="CZ78" s="2"/>
+      <c r="DA78" s="2"/>
+    </row>
+    <row r="79" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="AT79" s="2"/>
+      <c r="AU79" s="2"/>
+      <c r="AV79" s="6"/>
+      <c r="AW79" s="6"/>
+      <c r="AX79" s="2"/>
+      <c r="AY79" s="2"/>
+      <c r="AZ79" s="2"/>
+      <c r="BA79" s="2"/>
+      <c r="BB79" s="2"/>
+      <c r="BC79" s="6"/>
+      <c r="BD79" s="6"/>
+      <c r="BE79" s="2"/>
+      <c r="BF79" s="2"/>
+      <c r="BG79" s="2"/>
+      <c r="BH79" s="2"/>
+      <c r="BI79" s="2"/>
+      <c r="BJ79" s="6"/>
+      <c r="BK79" s="6"/>
+      <c r="BL79" s="2"/>
+      <c r="BM79" s="2"/>
+      <c r="BN79" s="2"/>
+      <c r="BO79" s="2"/>
+      <c r="BP79" s="2"/>
+      <c r="BQ79" s="6"/>
+      <c r="BR79" s="6"/>
+      <c r="BS79" s="2"/>
+      <c r="BT79" s="2"/>
+      <c r="BU79" s="2"/>
+      <c r="BV79" s="6"/>
+      <c r="BW79" s="2"/>
+      <c r="BX79" s="6"/>
+      <c r="BY79" s="6"/>
+      <c r="BZ79" s="2"/>
+      <c r="CA79" s="2"/>
+      <c r="CB79" s="2"/>
+      <c r="CC79" s="2"/>
+      <c r="CD79" s="2"/>
+      <c r="CE79" s="6"/>
+      <c r="CF79" s="6"/>
+      <c r="CG79" s="2"/>
+      <c r="CH79" s="2"/>
+      <c r="CI79" s="2"/>
+      <c r="CJ79" s="2"/>
+      <c r="CK79" s="2"/>
+      <c r="CL79" s="2"/>
+      <c r="CM79" s="2"/>
+      <c r="CN79" s="2"/>
+      <c r="CO79" s="2"/>
+      <c r="CP79" s="2"/>
+      <c r="CQ79" s="2"/>
+      <c r="CR79" s="2"/>
+      <c r="CS79" s="2"/>
+      <c r="CT79" s="2"/>
+      <c r="CU79" s="2"/>
+      <c r="CV79" s="2"/>
+      <c r="CW79" s="2"/>
+      <c r="CX79" s="2"/>
+      <c r="CY79" s="2"/>
+      <c r="CZ79" s="2"/>
+      <c r="DA79" s="2"/>
+    </row>
+    <row r="80" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="AT80" s="2"/>
+      <c r="AU80" s="2"/>
+      <c r="AV80" s="6"/>
+      <c r="AW80" s="6"/>
+      <c r="AX80" s="2"/>
+      <c r="AY80" s="2"/>
+      <c r="AZ80" s="2"/>
+      <c r="BA80" s="2"/>
+      <c r="BB80" s="2"/>
+      <c r="BC80" s="6"/>
+      <c r="BD80" s="6"/>
+      <c r="BE80" s="2"/>
+      <c r="BF80" s="2"/>
+      <c r="BG80" s="2"/>
+      <c r="BH80" s="2"/>
+      <c r="BI80" s="2"/>
+      <c r="BJ80" s="6"/>
+      <c r="BK80" s="6"/>
+      <c r="BL80" s="2"/>
+      <c r="BM80" s="2"/>
+      <c r="BN80" s="2"/>
+      <c r="BO80" s="2"/>
+      <c r="BP80" s="2"/>
+      <c r="BQ80" s="6"/>
+      <c r="BR80" s="6"/>
+      <c r="BS80" s="2"/>
+      <c r="BT80" s="2"/>
+      <c r="BU80" s="2"/>
+      <c r="BV80" s="6"/>
+      <c r="BW80" s="2"/>
+      <c r="BX80" s="6"/>
+      <c r="BY80" s="6"/>
+      <c r="BZ80" s="2"/>
+      <c r="CA80" s="2"/>
+      <c r="CB80" s="2"/>
+      <c r="CC80" s="2"/>
+      <c r="CD80" s="2"/>
+      <c r="CE80" s="6"/>
+      <c r="CF80" s="6"/>
+      <c r="CG80" s="2"/>
+      <c r="CH80" s="2"/>
+      <c r="CI80" s="2"/>
+      <c r="CJ80" s="2"/>
+      <c r="CK80" s="2"/>
+      <c r="CL80" s="2"/>
+      <c r="CM80" s="2"/>
+      <c r="CN80" s="2"/>
+      <c r="CO80" s="2"/>
+      <c r="CP80" s="2"/>
+      <c r="CQ80" s="2"/>
+      <c r="CR80" s="2"/>
+      <c r="CS80" s="2"/>
+      <c r="CT80" s="2"/>
+      <c r="CU80" s="2"/>
+      <c r="CV80" s="2"/>
+      <c r="CW80" s="2"/>
+      <c r="CX80" s="2"/>
+      <c r="CY80" s="2"/>
+      <c r="CZ80" s="2"/>
+      <c r="DA80" s="2"/>
+    </row>
+    <row r="81" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="AT81" s="2"/>
+      <c r="AU81" s="2"/>
+      <c r="AV81" s="6"/>
+      <c r="AW81" s="6"/>
+      <c r="AX81" s="2"/>
+      <c r="AY81" s="2"/>
+      <c r="AZ81" s="2"/>
+      <c r="BA81" s="2"/>
+      <c r="BB81" s="2"/>
+      <c r="BC81" s="6"/>
+      <c r="BD81" s="6"/>
+      <c r="BE81" s="2"/>
+      <c r="BF81" s="2"/>
+      <c r="BG81" s="2"/>
+      <c r="BH81" s="2"/>
+      <c r="BI81" s="2"/>
+      <c r="BJ81" s="6"/>
+      <c r="BK81" s="6"/>
+      <c r="BL81" s="2"/>
+      <c r="BM81" s="2"/>
+      <c r="BN81" s="2"/>
+      <c r="BO81" s="2"/>
+      <c r="BP81" s="2"/>
+      <c r="BQ81" s="6"/>
+      <c r="BR81" s="6"/>
+      <c r="BS81" s="2"/>
+      <c r="BT81" s="2"/>
+      <c r="BU81" s="2"/>
+      <c r="BV81" s="6"/>
+      <c r="BW81" s="2"/>
+      <c r="BX81" s="6"/>
+      <c r="BY81" s="6"/>
+      <c r="BZ81" s="2"/>
+      <c r="CA81" s="2"/>
+      <c r="CB81" s="2"/>
+      <c r="CC81" s="2"/>
+      <c r="CD81" s="2"/>
+      <c r="CE81" s="6"/>
+      <c r="CF81" s="6"/>
+      <c r="CG81" s="2"/>
+      <c r="CH81" s="2"/>
+      <c r="CI81" s="2"/>
+      <c r="CJ81" s="2"/>
+      <c r="CK81" s="2"/>
+      <c r="CL81" s="2"/>
+      <c r="CM81" s="2"/>
+      <c r="CN81" s="2"/>
+      <c r="CO81" s="2"/>
+      <c r="CP81" s="2"/>
+      <c r="CQ81" s="2"/>
+      <c r="CR81" s="2"/>
+      <c r="CS81" s="2"/>
+      <c r="CT81" s="2"/>
+      <c r="CU81" s="2"/>
+      <c r="CV81" s="2"/>
+      <c r="CW81" s="2"/>
+      <c r="CX81" s="2"/>
+      <c r="CY81" s="2"/>
+      <c r="CZ81" s="2"/>
+      <c r="DA81" s="2"/>
+    </row>
+    <row r="82" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="AT82" s="2"/>
+      <c r="AU82" s="2"/>
+      <c r="AV82" s="6"/>
+      <c r="AW82" s="6"/>
+      <c r="AX82" s="2"/>
+      <c r="AY82" s="2"/>
+      <c r="AZ82" s="2"/>
+      <c r="BA82" s="2"/>
+      <c r="BB82" s="2"/>
+      <c r="BC82" s="6"/>
+      <c r="BD82" s="6"/>
+      <c r="BE82" s="2"/>
+      <c r="BF82" s="2"/>
+      <c r="BG82" s="2"/>
+      <c r="BH82" s="2"/>
+      <c r="BI82" s="2"/>
+      <c r="BJ82" s="6"/>
+      <c r="BK82" s="6"/>
+      <c r="BL82" s="2"/>
+      <c r="BM82" s="2"/>
+      <c r="BN82" s="2"/>
+      <c r="BO82" s="2"/>
+      <c r="BP82" s="2"/>
+      <c r="BQ82" s="6"/>
+      <c r="BR82" s="6"/>
+      <c r="BS82" s="2"/>
+      <c r="BT82" s="2"/>
+      <c r="BU82" s="2"/>
+      <c r="BV82" s="6"/>
+      <c r="BW82" s="2"/>
+      <c r="BX82" s="6"/>
+      <c r="BY82" s="6"/>
+      <c r="BZ82" s="2"/>
+      <c r="CA82" s="2"/>
+      <c r="CB82" s="2"/>
+      <c r="CC82" s="2"/>
+      <c r="CD82" s="2"/>
+      <c r="CE82" s="6"/>
+      <c r="CF82" s="6"/>
+      <c r="CG82" s="2"/>
+      <c r="CH82" s="2"/>
+      <c r="CI82" s="2"/>
+      <c r="CJ82" s="2"/>
+      <c r="CK82" s="2"/>
+      <c r="CL82" s="2"/>
+      <c r="CM82" s="2"/>
+      <c r="CN82" s="2"/>
+      <c r="CO82" s="2"/>
+      <c r="CP82" s="2"/>
+      <c r="CQ82" s="2"/>
+      <c r="CR82" s="2"/>
+      <c r="CS82" s="2"/>
+      <c r="CT82" s="2"/>
+      <c r="CU82" s="2"/>
+      <c r="CV82" s="2"/>
+      <c r="CW82" s="2"/>
+      <c r="CX82" s="2"/>
+      <c r="CY82" s="2"/>
+      <c r="CZ82" s="2"/>
+      <c r="DA82" s="2"/>
+    </row>
+    <row r="83" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="AT83" s="2"/>
+      <c r="AU83" s="2"/>
+      <c r="AV83" s="6"/>
+      <c r="AW83" s="6"/>
+      <c r="AX83" s="2"/>
+      <c r="AY83" s="2"/>
+      <c r="AZ83" s="2"/>
+      <c r="BA83" s="2"/>
+      <c r="BB83" s="2"/>
+      <c r="BC83" s="6"/>
+      <c r="BD83" s="6"/>
+      <c r="BE83" s="2"/>
+      <c r="BF83" s="2"/>
+      <c r="BG83" s="2"/>
+      <c r="BH83" s="2"/>
+      <c r="BI83" s="2"/>
+      <c r="BJ83" s="6"/>
+      <c r="BK83" s="6"/>
+      <c r="BL83" s="2"/>
+      <c r="BM83" s="2"/>
+      <c r="BN83" s="2"/>
+      <c r="BO83" s="2"/>
+      <c r="BP83" s="2"/>
+      <c r="BQ83" s="6"/>
+      <c r="BR83" s="6"/>
+      <c r="BS83" s="2"/>
+      <c r="BT83" s="2"/>
+      <c r="BU83" s="2"/>
+      <c r="BV83" s="6"/>
+      <c r="BW83" s="2"/>
+      <c r="BX83" s="6"/>
+      <c r="BY83" s="6"/>
+      <c r="BZ83" s="2"/>
+      <c r="CA83" s="2"/>
+      <c r="CB83" s="2"/>
+      <c r="CC83" s="2"/>
+      <c r="CD83" s="2"/>
+      <c r="CE83" s="6"/>
+      <c r="CF83" s="6"/>
+      <c r="CG83" s="2"/>
+      <c r="CH83" s="2"/>
+      <c r="CI83" s="2"/>
+      <c r="CJ83" s="2"/>
+      <c r="CK83" s="2"/>
+      <c r="CL83" s="2"/>
+      <c r="CM83" s="2"/>
+      <c r="CN83" s="2"/>
+      <c r="CO83" s="2"/>
+      <c r="CP83" s="2"/>
+      <c r="CQ83" s="2"/>
+      <c r="CR83" s="2"/>
+      <c r="CS83" s="2"/>
+      <c r="CT83" s="2"/>
+      <c r="CU83" s="2"/>
+      <c r="CV83" s="2"/>
+      <c r="CW83" s="2"/>
+      <c r="CX83" s="2"/>
+      <c r="CY83" s="2"/>
+      <c r="CZ83" s="2"/>
+      <c r="DA83" s="2"/>
+    </row>
+    <row r="84" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="AT84" s="2"/>
+      <c r="AU84" s="2"/>
+      <c r="AV84" s="6"/>
+      <c r="AW84" s="6"/>
+      <c r="AX84" s="2"/>
+      <c r="AY84" s="2"/>
+      <c r="AZ84" s="2"/>
+      <c r="BA84" s="2"/>
+      <c r="BB84" s="2"/>
+      <c r="BC84" s="6"/>
+      <c r="BD84" s="6"/>
+      <c r="BE84" s="2"/>
+      <c r="BF84" s="2"/>
+      <c r="BG84" s="2"/>
+      <c r="BH84" s="2"/>
+      <c r="BI84" s="2"/>
+      <c r="BJ84" s="6"/>
+      <c r="BK84" s="6"/>
+      <c r="BL84" s="2"/>
+      <c r="BM84" s="2"/>
+      <c r="BN84" s="2"/>
+      <c r="BO84" s="2"/>
+      <c r="BP84" s="2"/>
+      <c r="BQ84" s="6"/>
+      <c r="BR84" s="6"/>
+      <c r="BS84" s="2"/>
+      <c r="BT84" s="2"/>
+      <c r="BU84" s="2"/>
+      <c r="BV84" s="6"/>
+      <c r="BW84" s="2"/>
+      <c r="BX84" s="6"/>
+      <c r="BY84" s="6"/>
+      <c r="BZ84" s="2"/>
+      <c r="CA84" s="2"/>
+      <c r="CB84" s="2"/>
+      <c r="CC84" s="2"/>
+      <c r="CD84" s="2"/>
+      <c r="CE84" s="6"/>
+      <c r="CF84" s="6"/>
+      <c r="CG84" s="2"/>
+      <c r="CH84" s="2"/>
+      <c r="CI84" s="2"/>
+      <c r="CJ84" s="2"/>
+      <c r="CK84" s="2"/>
+      <c r="CL84" s="2"/>
+      <c r="CM84" s="2"/>
+      <c r="CN84" s="2"/>
+      <c r="CO84" s="2"/>
+      <c r="CP84" s="2"/>
+      <c r="CQ84" s="2"/>
+      <c r="CR84" s="2"/>
+      <c r="CS84" s="2"/>
+      <c r="CT84" s="2"/>
+      <c r="CU84" s="2"/>
+      <c r="CV84" s="2"/>
+      <c r="CW84" s="2"/>
+      <c r="CX84" s="2"/>
+      <c r="CY84" s="2"/>
+      <c r="CZ84" s="2"/>
+      <c r="DA84" s="2"/>
+    </row>
+    <row r="85" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="AT85" s="2"/>
+      <c r="AU85" s="2"/>
+      <c r="AV85" s="6"/>
+      <c r="AW85" s="6"/>
+      <c r="AX85" s="2"/>
+      <c r="AY85" s="2"/>
+      <c r="AZ85" s="2"/>
+      <c r="BA85" s="2"/>
+      <c r="BB85" s="2"/>
+      <c r="BC85" s="6"/>
+      <c r="BD85" s="6"/>
+      <c r="BE85" s="2"/>
+      <c r="BF85" s="2"/>
+      <c r="BG85" s="2"/>
+      <c r="BH85" s="2"/>
+      <c r="BI85" s="2"/>
+      <c r="BJ85" s="6"/>
+      <c r="BK85" s="6"/>
+      <c r="BL85" s="2"/>
+      <c r="BM85" s="2"/>
+      <c r="BN85" s="2"/>
+      <c r="BO85" s="2"/>
+      <c r="BP85" s="2"/>
+      <c r="BQ85" s="6"/>
+      <c r="BR85" s="6"/>
+      <c r="BS85" s="2"/>
+      <c r="BT85" s="2"/>
+      <c r="BU85" s="2"/>
+      <c r="BV85" s="6"/>
+      <c r="BW85" s="2"/>
+      <c r="BX85" s="6"/>
+      <c r="BY85" s="6"/>
+      <c r="BZ85" s="2"/>
+      <c r="CA85" s="2"/>
+      <c r="CB85" s="2"/>
+      <c r="CC85" s="2"/>
+      <c r="CD85" s="2"/>
+      <c r="CE85" s="6"/>
+      <c r="CF85" s="6"/>
+      <c r="CG85" s="2"/>
+      <c r="CH85" s="2"/>
+      <c r="CI85" s="2"/>
+      <c r="CJ85" s="2"/>
+      <c r="CK85" s="2"/>
+      <c r="CL85" s="2"/>
+      <c r="CM85" s="2"/>
+      <c r="CN85" s="2"/>
+      <c r="CO85" s="2"/>
+      <c r="CP85" s="2"/>
+      <c r="CQ85" s="2"/>
+      <c r="CR85" s="2"/>
+      <c r="CS85" s="2"/>
+      <c r="CT85" s="2"/>
+      <c r="CU85" s="2"/>
+      <c r="CV85" s="2"/>
+      <c r="CW85" s="2"/>
+      <c r="CX85" s="2"/>
+      <c r="CY85" s="2"/>
+      <c r="CZ85" s="2"/>
+      <c r="DA85" s="2"/>
+    </row>
+    <row r="86" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="AT86" s="2"/>
+      <c r="AU86" s="2"/>
+      <c r="AV86" s="6"/>
+      <c r="AW86" s="6"/>
+      <c r="AX86" s="2"/>
+      <c r="AY86" s="2"/>
+      <c r="AZ86" s="2"/>
+      <c r="BA86" s="2"/>
+      <c r="BB86" s="2"/>
+      <c r="BC86" s="6"/>
+      <c r="BD86" s="6"/>
+      <c r="BE86" s="2"/>
+      <c r="BF86" s="2"/>
+      <c r="BG86" s="2"/>
+      <c r="BH86" s="2"/>
+      <c r="BI86" s="2"/>
+      <c r="BJ86" s="6"/>
+      <c r="BK86" s="6"/>
+      <c r="BL86" s="2"/>
+      <c r="BM86" s="2"/>
+      <c r="BN86" s="2"/>
+      <c r="BO86" s="2"/>
+      <c r="BP86" s="2"/>
+      <c r="BQ86" s="6"/>
+      <c r="BR86" s="6"/>
+      <c r="BS86" s="2"/>
+      <c r="BT86" s="2"/>
+      <c r="BU86" s="2"/>
+      <c r="BV86" s="6"/>
+      <c r="BW86" s="2"/>
+      <c r="BX86" s="6"/>
+      <c r="BY86" s="6"/>
+      <c r="BZ86" s="2"/>
+      <c r="CA86" s="2"/>
+      <c r="CB86" s="2"/>
+      <c r="CC86" s="2"/>
+      <c r="CD86" s="2"/>
+      <c r="CE86" s="6"/>
+      <c r="CF86" s="6"/>
+      <c r="CG86" s="2"/>
+      <c r="CH86" s="2"/>
+      <c r="CI86" s="2"/>
+      <c r="CJ86" s="2"/>
+      <c r="CK86" s="2"/>
+      <c r="CL86" s="2"/>
+      <c r="CM86" s="2"/>
+      <c r="CN86" s="2"/>
+      <c r="CO86" s="2"/>
+      <c r="CP86" s="2"/>
+      <c r="CQ86" s="2"/>
+      <c r="CR86" s="2"/>
+      <c r="CS86" s="2"/>
+      <c r="CT86" s="2"/>
+      <c r="CU86" s="2"/>
+      <c r="CV86" s="2"/>
+      <c r="CW86" s="2"/>
+      <c r="CX86" s="2"/>
+      <c r="CY86" s="2"/>
+      <c r="CZ86" s="2"/>
+      <c r="DA86" s="2"/>
+    </row>
+    <row r="87" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="AT87" s="2"/>
+      <c r="AU87" s="2"/>
+      <c r="AV87" s="6"/>
+      <c r="AW87" s="6"/>
+      <c r="AX87" s="2"/>
+      <c r="AY87" s="2"/>
+      <c r="AZ87" s="2"/>
+      <c r="BA87" s="2"/>
+      <c r="BB87" s="2"/>
+      <c r="BC87" s="6"/>
+      <c r="BD87" s="6"/>
+      <c r="BE87" s="2"/>
+      <c r="BF87" s="2"/>
+      <c r="BG87" s="2"/>
+      <c r="BH87" s="2"/>
+      <c r="BI87" s="2"/>
+      <c r="BJ87" s="6"/>
+      <c r="BK87" s="6"/>
+      <c r="BL87" s="2"/>
+      <c r="BM87" s="2"/>
+      <c r="BN87" s="2"/>
+      <c r="BO87" s="2"/>
+      <c r="BP87" s="2"/>
+      <c r="BQ87" s="6"/>
+      <c r="BR87" s="6"/>
+      <c r="BS87" s="2"/>
+      <c r="BT87" s="2"/>
+      <c r="BU87" s="2"/>
+      <c r="BV87" s="6"/>
+      <c r="BW87" s="2"/>
+      <c r="BX87" s="6"/>
+      <c r="BY87" s="6"/>
+      <c r="BZ87" s="2"/>
+      <c r="CA87" s="2"/>
+      <c r="CB87" s="2"/>
+      <c r="CC87" s="2"/>
+      <c r="CD87" s="2"/>
+      <c r="CE87" s="6"/>
+      <c r="CF87" s="6"/>
+      <c r="CG87" s="2"/>
+      <c r="CH87" s="2"/>
+      <c r="CI87" s="2"/>
+      <c r="CJ87" s="2"/>
+      <c r="CK87" s="2"/>
+      <c r="CL87" s="2"/>
+      <c r="CM87" s="2"/>
+      <c r="CN87" s="2"/>
+      <c r="CO87" s="2"/>
+      <c r="CP87" s="2"/>
+      <c r="CQ87" s="2"/>
+      <c r="CR87" s="2"/>
+      <c r="CS87" s="2"/>
+      <c r="CT87" s="2"/>
+      <c r="CU87" s="2"/>
+      <c r="CV87" s="2"/>
+      <c r="CW87" s="2"/>
+      <c r="CX87" s="2"/>
+      <c r="CY87" s="2"/>
+      <c r="CZ87" s="2"/>
+      <c r="DA87" s="2"/>
+    </row>
+    <row r="88" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="AT88" s="2"/>
+      <c r="AU88" s="2"/>
+      <c r="AV88" s="6"/>
+      <c r="AW88" s="6"/>
+      <c r="AX88" s="2"/>
+      <c r="AY88" s="2"/>
+      <c r="AZ88" s="2"/>
+      <c r="BA88" s="2"/>
+      <c r="BB88" s="2"/>
+      <c r="BC88" s="6"/>
+      <c r="BD88" s="6"/>
+      <c r="BE88" s="2"/>
+      <c r="BF88" s="2"/>
+      <c r="BG88" s="2"/>
+      <c r="BH88" s="2"/>
+      <c r="BI88" s="2"/>
+      <c r="BJ88" s="6"/>
+      <c r="BK88" s="6"/>
+      <c r="BL88" s="2"/>
+      <c r="BM88" s="2"/>
+      <c r="BN88" s="2"/>
+      <c r="BO88" s="2"/>
+      <c r="BP88" s="2"/>
+      <c r="BQ88" s="6"/>
+      <c r="BR88" s="6"/>
+      <c r="BS88" s="2"/>
+      <c r="BT88" s="2"/>
+      <c r="BU88" s="2"/>
+      <c r="BV88" s="6"/>
+      <c r="BW88" s="2"/>
+      <c r="BX88" s="6"/>
+      <c r="BY88" s="6"/>
+      <c r="BZ88" s="2"/>
+      <c r="CA88" s="2"/>
+      <c r="CB88" s="2"/>
+      <c r="CC88" s="2"/>
+      <c r="CD88" s="2"/>
+      <c r="CE88" s="6"/>
+      <c r="CF88" s="6"/>
+      <c r="CG88" s="2"/>
+      <c r="CH88" s="2"/>
+      <c r="CI88" s="2"/>
+      <c r="CJ88" s="2"/>
+      <c r="CK88" s="2"/>
+      <c r="CL88" s="2"/>
+      <c r="CM88" s="2"/>
+      <c r="CN88" s="2"/>
+      <c r="CO88" s="2"/>
+      <c r="CP88" s="2"/>
+      <c r="CQ88" s="2"/>
+      <c r="CR88" s="2"/>
+      <c r="CS88" s="2"/>
+      <c r="CT88" s="2"/>
+      <c r="CU88" s="2"/>
+      <c r="CV88" s="2"/>
+      <c r="CW88" s="2"/>
+      <c r="CX88" s="2"/>
+      <c r="CY88" s="2"/>
+      <c r="CZ88" s="2"/>
+      <c r="DA88" s="2"/>
+    </row>
+    <row r="89" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="AT89" s="2"/>
+      <c r="AU89" s="2"/>
+      <c r="AV89" s="6"/>
+      <c r="AW89" s="6"/>
+      <c r="AX89" s="2"/>
+      <c r="AY89" s="2"/>
+      <c r="AZ89" s="2"/>
+      <c r="BA89" s="2"/>
+      <c r="BB89" s="2"/>
+      <c r="BC89" s="6"/>
+      <c r="BD89" s="6"/>
+      <c r="BE89" s="2"/>
+      <c r="BF89" s="2"/>
+      <c r="BG89" s="2"/>
+      <c r="BH89" s="2"/>
+      <c r="BI89" s="2"/>
+      <c r="BJ89" s="6"/>
+      <c r="BK89" s="6"/>
+      <c r="BL89" s="2"/>
+      <c r="BM89" s="2"/>
+      <c r="BN89" s="2"/>
+      <c r="BO89" s="2"/>
+      <c r="BP89" s="2"/>
+      <c r="BQ89" s="6"/>
+      <c r="BR89" s="6"/>
+      <c r="BS89" s="2"/>
+      <c r="BT89" s="2"/>
+      <c r="BU89" s="2"/>
+      <c r="BV89" s="6"/>
+      <c r="BW89" s="2"/>
+      <c r="BX89" s="6"/>
+      <c r="BY89" s="6"/>
+      <c r="BZ89" s="2"/>
+      <c r="CA89" s="2"/>
+      <c r="CB89" s="2"/>
+      <c r="CC89" s="2"/>
+      <c r="CD89" s="2"/>
+      <c r="CE89" s="6"/>
+      <c r="CF89" s="6"/>
+      <c r="CG89" s="2"/>
+      <c r="CH89" s="2"/>
+      <c r="CI89" s="2"/>
+      <c r="CJ89" s="2"/>
+      <c r="CK89" s="2"/>
+      <c r="CL89" s="2"/>
+      <c r="CM89" s="2"/>
+      <c r="CN89" s="2"/>
+      <c r="CO89" s="2"/>
+      <c r="CP89" s="2"/>
+      <c r="CQ89" s="2"/>
+      <c r="CR89" s="2"/>
+      <c r="CS89" s="2"/>
+      <c r="CT89" s="2"/>
+      <c r="CU89" s="2"/>
+      <c r="CV89" s="2"/>
+      <c r="CW89" s="2"/>
+      <c r="CX89" s="2"/>
+      <c r="CY89" s="2"/>
+      <c r="CZ89" s="2"/>
+      <c r="DA89" s="2"/>
+    </row>
+    <row r="90" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="AT90" s="2"/>
+      <c r="AU90" s="2"/>
+      <c r="AV90" s="6"/>
+      <c r="AW90" s="6"/>
+      <c r="AX90" s="2"/>
+      <c r="AY90" s="2"/>
+      <c r="AZ90" s="2"/>
+      <c r="BA90" s="2"/>
+      <c r="BB90" s="2"/>
+      <c r="BC90" s="6"/>
+      <c r="BD90" s="6"/>
+      <c r="BE90" s="2"/>
+      <c r="BF90" s="2"/>
+      <c r="BG90" s="2"/>
+      <c r="BH90" s="2"/>
+      <c r="BI90" s="2"/>
+      <c r="BJ90" s="6"/>
+      <c r="BK90" s="6"/>
+      <c r="BL90" s="2"/>
+      <c r="BM90" s="2"/>
+      <c r="BN90" s="2"/>
+      <c r="BO90" s="2"/>
+      <c r="BP90" s="2"/>
+      <c r="BQ90" s="6"/>
+      <c r="BR90" s="6"/>
+      <c r="BS90" s="2"/>
+      <c r="BT90" s="2"/>
+      <c r="BU90" s="2"/>
+      <c r="BV90" s="6"/>
+      <c r="BW90" s="2"/>
+      <c r="BX90" s="6"/>
+      <c r="BY90" s="6"/>
+      <c r="BZ90" s="2"/>
+      <c r="CA90" s="2"/>
+      <c r="CB90" s="2"/>
+      <c r="CC90" s="2"/>
+      <c r="CD90" s="2"/>
+      <c r="CE90" s="6"/>
+      <c r="CF90" s="6"/>
+      <c r="CG90" s="2"/>
+      <c r="CH90" s="2"/>
+      <c r="CI90" s="2"/>
+      <c r="CJ90" s="2"/>
+      <c r="CK90" s="2"/>
+      <c r="CL90" s="2"/>
+      <c r="CM90" s="2"/>
+      <c r="CN90" s="2"/>
+      <c r="CO90" s="2"/>
+      <c r="CP90" s="2"/>
+      <c r="CQ90" s="2"/>
+      <c r="CR90" s="2"/>
+      <c r="CS90" s="2"/>
+      <c r="CT90" s="2"/>
+      <c r="CU90" s="2"/>
+      <c r="CV90" s="2"/>
+      <c r="CW90" s="2"/>
+      <c r="CX90" s="2"/>
+      <c r="CY90" s="2"/>
+      <c r="CZ90" s="2"/>
+      <c r="DA90" s="2"/>
+    </row>
+    <row r="91" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="AT91" s="2"/>
+      <c r="AU91" s="2"/>
+      <c r="AV91" s="6"/>
+      <c r="AW91" s="6"/>
+      <c r="AX91" s="2"/>
+      <c r="AY91" s="2"/>
+      <c r="AZ91" s="2"/>
+      <c r="BA91" s="2"/>
+      <c r="BB91" s="2"/>
+      <c r="BC91" s="6"/>
+      <c r="BD91" s="6"/>
+      <c r="BE91" s="2"/>
+      <c r="BF91" s="2"/>
+      <c r="BG91" s="2"/>
+      <c r="BH91" s="2"/>
+      <c r="BI91" s="2"/>
+      <c r="BJ91" s="6"/>
+      <c r="BK91" s="6"/>
+      <c r="BL91" s="2"/>
+      <c r="BM91" s="2"/>
+      <c r="BN91" s="2"/>
+      <c r="BO91" s="2"/>
+      <c r="BP91" s="2"/>
+      <c r="BQ91" s="6"/>
+      <c r="BR91" s="6"/>
+      <c r="BS91" s="2"/>
+      <c r="BT91" s="2"/>
+      <c r="BU91" s="2"/>
+      <c r="BV91" s="6"/>
+      <c r="BW91" s="2"/>
+      <c r="BX91" s="6"/>
+      <c r="BY91" s="6"/>
+      <c r="BZ91" s="2"/>
+      <c r="CA91" s="2"/>
+      <c r="CB91" s="2"/>
+      <c r="CC91" s="2"/>
+      <c r="CD91" s="2"/>
+      <c r="CE91" s="6"/>
+      <c r="CF91" s="6"/>
+      <c r="CG91" s="2"/>
+      <c r="CH91" s="2"/>
+      <c r="CI91" s="2"/>
+      <c r="CJ91" s="2"/>
+      <c r="CK91" s="2"/>
+      <c r="CL91" s="2"/>
+      <c r="CM91" s="2"/>
+      <c r="CN91" s="2"/>
+      <c r="CO91" s="2"/>
+      <c r="CP91" s="2"/>
+      <c r="CQ91" s="2"/>
+      <c r="CR91" s="2"/>
+      <c r="CS91" s="2"/>
+      <c r="CT91" s="2"/>
+      <c r="CU91" s="2"/>
+      <c r="CV91" s="2"/>
+      <c r="CW91" s="2"/>
+      <c r="CX91" s="2"/>
+      <c r="CY91" s="2"/>
+      <c r="CZ91" s="2"/>
+      <c r="DA91" s="2"/>
+    </row>
+    <row r="92" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="AT92" s="2"/>
+      <c r="AU92" s="2"/>
+      <c r="AV92" s="6"/>
+      <c r="AW92" s="6"/>
+      <c r="AX92" s="2"/>
+      <c r="AY92" s="2"/>
+      <c r="AZ92" s="2"/>
+      <c r="BA92" s="2"/>
+      <c r="BB92" s="2"/>
+      <c r="BC92" s="6"/>
+      <c r="BD92" s="6"/>
+      <c r="BE92" s="2"/>
+      <c r="BF92" s="2"/>
+      <c r="BG92" s="2"/>
+      <c r="BH92" s="2"/>
+      <c r="BI92" s="2"/>
+      <c r="BJ92" s="6"/>
+      <c r="BK92" s="6"/>
+      <c r="BL92" s="2"/>
+      <c r="BM92" s="2"/>
+      <c r="BN92" s="2"/>
+      <c r="BO92" s="2"/>
+      <c r="BP92" s="2"/>
+      <c r="BQ92" s="6"/>
+      <c r="BR92" s="6"/>
+      <c r="BS92" s="2"/>
+      <c r="BT92" s="2"/>
+      <c r="BU92" s="2"/>
+      <c r="BV92" s="6"/>
+      <c r="BW92" s="2"/>
+      <c r="BX92" s="6"/>
+      <c r="BY92" s="6"/>
+      <c r="BZ92" s="2"/>
+      <c r="CA92" s="2"/>
+      <c r="CB92" s="2"/>
+      <c r="CC92" s="2"/>
+      <c r="CD92" s="2"/>
+      <c r="CE92" s="6"/>
+      <c r="CF92" s="6"/>
+      <c r="CG92" s="2"/>
+      <c r="CH92" s="2"/>
+      <c r="CI92" s="2"/>
+      <c r="CJ92" s="2"/>
+      <c r="CK92" s="2"/>
+      <c r="CL92" s="2"/>
+      <c r="CM92" s="2"/>
+      <c r="CN92" s="2"/>
+      <c r="CO92" s="2"/>
+      <c r="CP92" s="2"/>
+      <c r="CQ92" s="2"/>
+      <c r="CR92" s="2"/>
+      <c r="CS92" s="2"/>
+      <c r="CT92" s="2"/>
+      <c r="CU92" s="2"/>
+      <c r="CV92" s="2"/>
+      <c r="CW92" s="2"/>
+      <c r="CX92" s="2"/>
+      <c r="CY92" s="2"/>
+      <c r="CZ92" s="2"/>
+      <c r="DA92" s="2"/>
+    </row>
+    <row r="93" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="AT93" s="2"/>
+      <c r="AU93" s="2"/>
+      <c r="AV93" s="6"/>
+      <c r="AW93" s="6"/>
+      <c r="AX93" s="2"/>
+      <c r="AY93" s="2"/>
+      <c r="AZ93" s="2"/>
+      <c r="BA93" s="2"/>
+      <c r="BB93" s="2"/>
+      <c r="BC93" s="6"/>
+      <c r="BD93" s="6"/>
+      <c r="BE93" s="2"/>
+      <c r="BF93" s="2"/>
+      <c r="BG93" s="2"/>
+      <c r="BH93" s="2"/>
+      <c r="BI93" s="2"/>
+      <c r="BJ93" s="6"/>
+      <c r="BK93" s="6"/>
+      <c r="BL93" s="2"/>
+      <c r="BM93" s="2"/>
+      <c r="BN93" s="2"/>
+      <c r="BO93" s="2"/>
+      <c r="BP93" s="2"/>
+      <c r="BQ93" s="6"/>
+      <c r="BR93" s="6"/>
+      <c r="BS93" s="2"/>
+      <c r="BT93" s="2"/>
+      <c r="BU93" s="2"/>
+      <c r="BV93" s="6"/>
+      <c r="BW93" s="2"/>
+      <c r="BX93" s="6"/>
+      <c r="BY93" s="6"/>
+      <c r="BZ93" s="2"/>
+      <c r="CA93" s="2"/>
+      <c r="CB93" s="2"/>
+      <c r="CC93" s="2"/>
+      <c r="CD93" s="2"/>
+      <c r="CE93" s="6"/>
+      <c r="CF93" s="6"/>
+      <c r="CG93" s="2"/>
+      <c r="CH93" s="2"/>
+      <c r="CI93" s="2"/>
+      <c r="CJ93" s="2"/>
+      <c r="CK93" s="2"/>
+      <c r="CL93" s="2"/>
+      <c r="CM93" s="2"/>
+      <c r="CN93" s="2"/>
+      <c r="CO93" s="2"/>
+      <c r="CP93" s="2"/>
+      <c r="CQ93" s="2"/>
+      <c r="CR93" s="2"/>
+      <c r="CS93" s="2"/>
+      <c r="CT93" s="2"/>
+      <c r="CU93" s="2"/>
+      <c r="CV93" s="2"/>
+      <c r="CW93" s="2"/>
+      <c r="CX93" s="2"/>
+      <c r="CY93" s="2"/>
+      <c r="CZ93" s="2"/>
+      <c r="DA93" s="2"/>
+    </row>
+    <row r="94" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="AT94" s="2"/>
+      <c r="AU94" s="2"/>
+      <c r="AV94" s="6"/>
+      <c r="AW94" s="6"/>
+      <c r="AX94" s="2"/>
+      <c r="AY94" s="2"/>
+      <c r="AZ94" s="2"/>
+      <c r="BA94" s="2"/>
+      <c r="BB94" s="2"/>
+      <c r="BC94" s="6"/>
+      <c r="BD94" s="6"/>
+      <c r="BE94" s="2"/>
+      <c r="BF94" s="2"/>
+      <c r="BG94" s="2"/>
+      <c r="BH94" s="2"/>
+      <c r="BI94" s="2"/>
+      <c r="BJ94" s="6"/>
+      <c r="BK94" s="6"/>
+      <c r="BL94" s="2"/>
+      <c r="BM94" s="2"/>
+      <c r="BN94" s="2"/>
+      <c r="BO94" s="2"/>
+      <c r="BP94" s="2"/>
+      <c r="BQ94" s="6"/>
+      <c r="BR94" s="6"/>
+      <c r="BS94" s="2"/>
+      <c r="BT94" s="2"/>
+      <c r="BU94" s="2"/>
+      <c r="BV94" s="6"/>
+      <c r="BW94" s="2"/>
+      <c r="BX94" s="6"/>
+      <c r="BY94" s="6"/>
+      <c r="BZ94" s="2"/>
+      <c r="CA94" s="2"/>
+      <c r="CB94" s="2"/>
+      <c r="CC94" s="2"/>
+      <c r="CD94" s="2"/>
+      <c r="CE94" s="6"/>
+      <c r="CF94" s="6"/>
+      <c r="CG94" s="2"/>
+      <c r="CH94" s="2"/>
+      <c r="CI94" s="2"/>
+      <c r="CJ94" s="2"/>
+      <c r="CK94" s="2"/>
+      <c r="CL94" s="2"/>
+      <c r="CM94" s="2"/>
+      <c r="CN94" s="2"/>
+      <c r="CO94" s="2"/>
+      <c r="CP94" s="2"/>
+      <c r="CQ94" s="2"/>
+      <c r="CR94" s="2"/>
+      <c r="CS94" s="2"/>
+      <c r="CT94" s="2"/>
+      <c r="CU94" s="2"/>
+      <c r="CV94" s="2"/>
+      <c r="CW94" s="2"/>
+      <c r="CX94" s="2"/>
+      <c r="CY94" s="2"/>
+      <c r="CZ94" s="2"/>
+      <c r="DA94" s="2"/>
+    </row>
+    <row r="95" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="AT95" s="2"/>
+      <c r="AU95" s="2"/>
+      <c r="AV95" s="6"/>
+      <c r="AW95" s="6"/>
+      <c r="AX95" s="2"/>
+      <c r="AY95" s="2"/>
+      <c r="AZ95" s="2"/>
+      <c r="BA95" s="2"/>
+      <c r="BB95" s="2"/>
+      <c r="BC95" s="6"/>
+      <c r="BD95" s="6"/>
+      <c r="BE95" s="2"/>
+      <c r="BF95" s="2"/>
+      <c r="BG95" s="2"/>
+      <c r="BH95" s="2"/>
+      <c r="BI95" s="2"/>
+      <c r="BJ95" s="6"/>
+      <c r="BK95" s="6"/>
+      <c r="BL95" s="2"/>
+      <c r="BM95" s="2"/>
+      <c r="BN95" s="2"/>
+      <c r="BO95" s="2"/>
+      <c r="BP95" s="2"/>
+      <c r="BQ95" s="6"/>
+      <c r="BR95" s="6"/>
+      <c r="BS95" s="2"/>
+      <c r="BT95" s="2"/>
+      <c r="BU95" s="2"/>
+      <c r="BV95" s="6"/>
+      <c r="BW95" s="2"/>
+      <c r="BX95" s="6"/>
+      <c r="BY95" s="6"/>
+      <c r="BZ95" s="2"/>
+      <c r="CA95" s="2"/>
+      <c r="CB95" s="2"/>
+      <c r="CC95" s="2"/>
+      <c r="CD95" s="2"/>
+      <c r="CE95" s="6"/>
+      <c r="CF95" s="6"/>
+      <c r="CG95" s="2"/>
+      <c r="CH95" s="2"/>
+      <c r="CI95" s="2"/>
+      <c r="CJ95" s="2"/>
+      <c r="CK95" s="2"/>
+      <c r="CL95" s="2"/>
+      <c r="CM95" s="2"/>
+      <c r="CN95" s="2"/>
+      <c r="CO95" s="2"/>
+      <c r="CP95" s="2"/>
+      <c r="CQ95" s="2"/>
+      <c r="CR95" s="2"/>
+      <c r="CS95" s="2"/>
+      <c r="CT95" s="2"/>
+      <c r="CU95" s="2"/>
+      <c r="CV95" s="2"/>
+      <c r="CW95" s="2"/>
+      <c r="CX95" s="2"/>
+      <c r="CY95" s="2"/>
+      <c r="CZ95" s="2"/>
+      <c r="DA95" s="2"/>
+    </row>
+    <row r="96" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="AT96" s="2"/>
+      <c r="AU96" s="2"/>
+      <c r="AV96" s="6"/>
+      <c r="AW96" s="6"/>
+      <c r="AX96" s="2"/>
+      <c r="AY96" s="2"/>
+      <c r="AZ96" s="2"/>
+      <c r="BA96" s="2"/>
+      <c r="BB96" s="2"/>
+      <c r="BC96" s="6"/>
+      <c r="BD96" s="6"/>
+      <c r="BE96" s="2"/>
+      <c r="BF96" s="2"/>
+      <c r="BG96" s="2"/>
+      <c r="BH96" s="2"/>
+      <c r="BI96" s="2"/>
+      <c r="BJ96" s="6"/>
+      <c r="BK96" s="6"/>
+      <c r="BL96" s="2"/>
+      <c r="BM96" s="2"/>
+      <c r="BN96" s="2"/>
+      <c r="BO96" s="2"/>
+      <c r="BP96" s="2"/>
+      <c r="BQ96" s="6"/>
+      <c r="BR96" s="6"/>
+      <c r="BS96" s="2"/>
+      <c r="BT96" s="2"/>
+      <c r="BU96" s="2"/>
+      <c r="BV96" s="6"/>
+      <c r="BW96" s="2"/>
+      <c r="BX96" s="6"/>
+      <c r="BY96" s="6"/>
+      <c r="BZ96" s="2"/>
+      <c r="CA96" s="2"/>
+      <c r="CB96" s="2"/>
+      <c r="CC96" s="2"/>
+      <c r="CD96" s="2"/>
+      <c r="CE96" s="6"/>
+      <c r="CF96" s="6"/>
+      <c r="CG96" s="2"/>
+      <c r="CH96" s="2"/>
+      <c r="CI96" s="2"/>
+      <c r="CJ96" s="2"/>
+      <c r="CK96" s="2"/>
+      <c r="CL96" s="2"/>
+      <c r="CM96" s="2"/>
+      <c r="CN96" s="2"/>
+      <c r="CO96" s="2"/>
+      <c r="CP96" s="2"/>
+      <c r="CQ96" s="2"/>
+      <c r="CR96" s="2"/>
+      <c r="CS96" s="2"/>
+      <c r="CT96" s="2"/>
+      <c r="CU96" s="2"/>
+      <c r="CV96" s="2"/>
+      <c r="CW96" s="2"/>
+      <c r="CX96" s="2"/>
+      <c r="CY96" s="2"/>
+      <c r="CZ96" s="2"/>
+      <c r="DA96" s="2"/>
+    </row>
+    <row r="97" spans="1:105" x14ac:dyDescent="0.4">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="AT97" s="2"/>
+      <c r="AU97" s="2"/>
+      <c r="AV97" s="6"/>
+      <c r="AW97" s="6"/>
+      <c r="AX97" s="2"/>
+      <c r="AY97" s="2"/>
+      <c r="AZ97" s="2"/>
+      <c r="BA97" s="2"/>
+      <c r="BB97" s="2"/>
+      <c r="BC97" s="6"/>
+      <c r="BD97" s="6"/>
+      <c r="BE97" s="2"/>
+      <c r="BF97" s="2"/>
+      <c r="BG97" s="2"/>
+      <c r="BH97" s="2"/>
+      <c r="BI97" s="2"/>
+      <c r="BJ97" s="6"/>
+      <c r="BK97" s="6"/>
+      <c r="BL97" s="2"/>
+      <c r="BM97" s="2"/>
+      <c r="BN97" s="2"/>
+      <c r="BO97" s="2"/>
+      <c r="BP97" s="2"/>
+      <c r="BQ97" s="6"/>
+      <c r="BR97" s="6"/>
+      <c r="BS97" s="2"/>
+      <c r="BT97" s="2"/>
+      <c r="BU97" s="2"/>
+      <c r="BV97" s="6"/>
+      <c r="BW97" s="2"/>
+      <c r="BX97" s="6"/>
+      <c r="BY97" s="6"/>
+      <c r="BZ97" s="2"/>
+      <c r="CA97" s="2"/>
+      <c r="CB97" s="2"/>
+      <c r="CC97" s="2"/>
+      <c r="CD97" s="2"/>
+      <c r="CE97" s="6"/>
+      <c r="CF97" s="6"/>
+      <c r="CG97" s="2"/>
+      <c r="CH97" s="2"/>
+      <c r="CI97" s="2"/>
+      <c r="CJ97" s="2"/>
+      <c r="CK97" s="2"/>
+      <c r="CL97" s="2"/>
+      <c r="CM97" s="2"/>
+      <c r="CN97" s="2"/>
+      <c r="CO97" s="2"/>
+      <c r="CP97" s="2"/>
+      <c r="CQ97" s="2"/>
+      <c r="CR97" s="2"/>
+      <c r="CS97" s="2"/>
+      <c r="CT97" s="2"/>
+      <c r="CU97" s="2"/>
+      <c r="CV97" s="2"/>
+      <c r="CW97" s="2"/>
+      <c r="CX97" s="2"/>
+      <c r="CY97" s="2"/>
+      <c r="CZ97" s="2"/>
+      <c r="DA97" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2544,73 +9484,73 @@
     </row>
     <row r="4" spans="2:32" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="U4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="V4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="X4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Z4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AA4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AB4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AC4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AD4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AE4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AF4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/製造/スケジュール.xlsx
+++ b/DOC/製造/スケジュール.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\製造\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836AF2DC-EB8D-4E41-87A6-C616ADD434DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{EEA2223E-2971-4C40-97BD-3707604C5958}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4965" yWindow="540" windowWidth="20115" windowHeight="13365" xr2:uid="{A861EC69-7AA4-481C-AECD-2394675AA9AB}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="20145" windowHeight="16500" xr2:uid="{A861EC69-7AA4-481C-AECD-2394675AA9AB}"/>
   </bookViews>
   <sheets>
     <sheet name="システム" sheetId="1" r:id="rId1"/>
     <sheet name="馬さん" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -815,12 +811,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -835,6 +825,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1129,15 +1125,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1152,8 +1148,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2924175" y="2990850"/>
-          <a:ext cx="2714625" cy="0"/>
+          <a:off x="2828925" y="4333875"/>
+          <a:ext cx="571500" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1307,6 +1303,210 @@
         <a:xfrm flipV="1">
           <a:off x="9448800" y="3714750"/>
           <a:ext cx="609600" cy="9528"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EEB1DA1-F098-4EA9-AB50-B9A01B770082}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4057650" y="5238750"/>
+          <a:ext cx="1514475" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41A9B9F2-AA65-4893-9255-8AACFEA5F685}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2400300" y="2962276"/>
+          <a:ext cx="3143250" cy="19049"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DB2B326-0146-4625-A828-B80EFE6AB4A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6219825" y="4305300"/>
+          <a:ext cx="1638300" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D8F561E-D9AB-4065-BA90-B560F9803A73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8496300" y="5257800"/>
+          <a:ext cx="1514475" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1632,8 +1832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3E3847-597B-4A0E-93EA-087970AC1C3F}">
   <dimension ref="A2:DB97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BQ16" sqref="BQ16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="BG16" sqref="BG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1680,52 +1880,52 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="9"/>
-      <c r="AQ2" s="9"/>
-      <c r="AR2" s="9"/>
-      <c r="AS2" s="12"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="10"/>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2"/>
       <c r="AV2" s="6"/>
@@ -1920,7 +2120,7 @@
       <c r="AR3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AS3" s="13" t="s">
+      <c r="AS3" s="11" t="s">
         <v>41</v>
       </c>
       <c r="AT3" s="3" t="s">
@@ -2013,97 +2213,97 @@
       <c r="BW3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="BX3" s="14" t="s">
+      <c r="BX3" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="BY3" s="14" t="s">
+      <c r="BY3" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="BZ3" s="14" t="s">
+      <c r="BZ3" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="CA3" s="14" t="s">
+      <c r="CA3" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="CB3" s="14" t="s">
+      <c r="CB3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="CC3" s="14" t="s">
+      <c r="CC3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="CD3" s="14" t="s">
+      <c r="CD3" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="CE3" s="14" t="s">
+      <c r="CE3" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="CF3" s="14" t="s">
+      <c r="CF3" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="CG3" s="14" t="s">
+      <c r="CG3" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="CH3" s="14" t="s">
+      <c r="CH3" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="CI3" s="14" t="s">
+      <c r="CI3" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="CJ3" s="14" t="s">
+      <c r="CJ3" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="CK3" s="14" t="s">
+      <c r="CK3" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="CL3" s="14" t="s">
+      <c r="CL3" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="CM3" s="14" t="s">
+      <c r="CM3" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="CN3" s="14" t="s">
+      <c r="CN3" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="CO3" s="14" t="s">
+      <c r="CO3" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="CP3" s="14" t="s">
+      <c r="CP3" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="CQ3" s="14" t="s">
+      <c r="CQ3" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="CR3" s="14" t="s">
+      <c r="CR3" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="CS3" s="14" t="s">
+      <c r="CS3" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="CT3" s="14" t="s">
+      <c r="CT3" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="CU3" s="14" t="s">
+      <c r="CU3" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="CV3" s="14" t="s">
+      <c r="CV3" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="CW3" s="14" t="s">
+      <c r="CW3" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="CX3" s="14" t="s">
+      <c r="CX3" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="CY3" s="14" t="s">
+      <c r="CY3" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="CZ3" s="14" t="s">
+      <c r="CZ3" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="DA3" s="14" t="s">
+      <c r="DA3" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="DB3" s="11" t="s">
+      <c r="DB3" s="9" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2158,7 +2358,7 @@
       <c r="AP4" s="4"/>
       <c r="AQ4" s="4"/>
       <c r="AR4" s="3"/>
-      <c r="AS4" s="13"/>
+      <c r="AS4" s="11"/>
       <c r="AT4" s="2"/>
       <c r="AU4" s="2"/>
       <c r="AV4" s="6"/>
@@ -2227,7 +2427,9 @@
       <c r="B5" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="6"/>
@@ -2269,7 +2471,7 @@
       <c r="AP5" s="6"/>
       <c r="AQ5" s="6"/>
       <c r="AR5" s="2"/>
-      <c r="AS5" s="12"/>
+      <c r="AS5" s="10"/>
       <c r="AT5" s="2"/>
       <c r="AU5" s="2"/>
       <c r="AV5" s="6"/>
@@ -2382,7 +2584,7 @@
       <c r="AP6" s="6"/>
       <c r="AQ6" s="6"/>
       <c r="AR6" s="2"/>
-      <c r="AS6" s="12"/>
+      <c r="AS6" s="10"/>
       <c r="AT6" s="2"/>
       <c r="AU6" s="2"/>
       <c r="AV6" s="6"/>
@@ -2495,7 +2697,7 @@
       <c r="AP7" s="6"/>
       <c r="AQ7" s="6"/>
       <c r="AR7" s="2"/>
-      <c r="AS7" s="12"/>
+      <c r="AS7" s="10"/>
       <c r="AT7" s="2"/>
       <c r="AU7" s="2"/>
       <c r="AV7" s="6"/>
@@ -2604,7 +2806,7 @@
       <c r="AP8" s="6"/>
       <c r="AQ8" s="6"/>
       <c r="AR8" s="2"/>
-      <c r="AS8" s="12"/>
+      <c r="AS8" s="10"/>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2"/>
       <c r="AV8" s="6"/>
@@ -2719,7 +2921,7 @@
       <c r="AP9" s="6"/>
       <c r="AQ9" s="6"/>
       <c r="AR9" s="2"/>
-      <c r="AS9" s="12"/>
+      <c r="AS9" s="10"/>
       <c r="AT9" s="2"/>
       <c r="AU9" s="2"/>
       <c r="AV9" s="6"/>
@@ -2782,7 +2984,7 @@
       <c r="DA9" s="2"/>
     </row>
     <row r="10" spans="1:106" x14ac:dyDescent="0.4">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>129</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -2830,7 +3032,7 @@
       <c r="AP10" s="6"/>
       <c r="AQ10" s="6"/>
       <c r="AR10" s="2"/>
-      <c r="AS10" s="12"/>
+      <c r="AS10" s="10"/>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2"/>
       <c r="AV10" s="6"/>
@@ -2893,7 +3095,7 @@
       <c r="DA10" s="2"/>
     </row>
     <row r="11" spans="1:106" x14ac:dyDescent="0.4">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
         <v>130</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -2941,7 +3143,7 @@
       <c r="AP11" s="6"/>
       <c r="AQ11" s="6"/>
       <c r="AR11" s="2"/>
-      <c r="AS11" s="12"/>
+      <c r="AS11" s="10"/>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2"/>
       <c r="AV11" s="6"/>
@@ -3004,7 +3206,7 @@
       <c r="DA11" s="2"/>
     </row>
     <row r="12" spans="1:106" x14ac:dyDescent="0.4">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>131</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -3052,7 +3254,7 @@
       <c r="AP12" s="6"/>
       <c r="AQ12" s="6"/>
       <c r="AR12" s="2"/>
-      <c r="AS12" s="12"/>
+      <c r="AS12" s="10"/>
       <c r="AT12" s="2"/>
       <c r="AU12" s="2"/>
       <c r="AV12" s="6"/>
@@ -3115,7 +3317,7 @@
       <c r="DA12" s="2"/>
     </row>
     <row r="13" spans="1:106" x14ac:dyDescent="0.4">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -3163,7 +3365,7 @@
       <c r="AP13" s="6"/>
       <c r="AQ13" s="6"/>
       <c r="AR13" s="2"/>
-      <c r="AS13" s="12"/>
+      <c r="AS13" s="10"/>
       <c r="AT13" s="2"/>
       <c r="AU13" s="2"/>
       <c r="AV13" s="6"/>
@@ -3274,7 +3476,7 @@
       <c r="AP14" s="6"/>
       <c r="AQ14" s="6"/>
       <c r="AR14" s="2"/>
-      <c r="AS14" s="12"/>
+      <c r="AS14" s="10"/>
       <c r="AT14" s="2"/>
       <c r="AU14" s="2"/>
       <c r="AV14" s="6"/>
@@ -3336,12 +3538,12 @@
       <c r="CZ14" s="2"/>
       <c r="DA14" s="2"/>
     </row>
-    <row r="15" spans="1:106" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:106" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3387,7 +3589,7 @@
       <c r="AP15" s="6"/>
       <c r="AQ15" s="6"/>
       <c r="AR15" s="2"/>
-      <c r="AS15" s="12"/>
+      <c r="AS15" s="10"/>
       <c r="AT15" s="2"/>
       <c r="AU15" s="2"/>
       <c r="AV15" s="6"/>
@@ -3449,12 +3651,12 @@
       <c r="CZ15" s="2"/>
       <c r="DA15" s="2"/>
     </row>
-    <row r="16" spans="1:106" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:106" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3500,7 +3702,7 @@
       <c r="AP16" s="6"/>
       <c r="AQ16" s="6"/>
       <c r="AR16" s="2"/>
-      <c r="AS16" s="12"/>
+      <c r="AS16" s="10"/>
       <c r="AT16" s="2"/>
       <c r="AU16" s="2"/>
       <c r="AV16" s="6"/>
@@ -3562,12 +3764,12 @@
       <c r="CZ16" s="2"/>
       <c r="DA16" s="2"/>
     </row>
-    <row r="17" spans="1:105" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:105" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -3611,7 +3813,7 @@
       <c r="AP17" s="6"/>
       <c r="AQ17" s="6"/>
       <c r="AR17" s="2"/>
-      <c r="AS17" s="12"/>
+      <c r="AS17" s="10"/>
       <c r="AT17" s="2"/>
       <c r="AU17" s="2"/>
       <c r="AV17" s="6"/>
@@ -3673,12 +3875,12 @@
       <c r="CZ17" s="2"/>
       <c r="DA17" s="2"/>
     </row>
-    <row r="18" spans="1:105" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:105" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -3724,7 +3926,7 @@
       <c r="AP18" s="6"/>
       <c r="AQ18" s="6"/>
       <c r="AR18" s="2"/>
-      <c r="AS18" s="12"/>
+      <c r="AS18" s="10"/>
       <c r="AT18" s="2"/>
       <c r="AU18" s="2"/>
       <c r="AV18" s="6"/>
@@ -3786,12 +3988,12 @@
       <c r="CZ18" s="2"/>
       <c r="DA18" s="2"/>
     </row>
-    <row r="19" spans="1:105" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:105" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -3835,7 +4037,7 @@
       <c r="AP19" s="6"/>
       <c r="AQ19" s="6"/>
       <c r="AR19" s="2"/>
-      <c r="AS19" s="12"/>
+      <c r="AS19" s="10"/>
       <c r="AT19" s="2"/>
       <c r="AU19" s="2"/>
       <c r="AV19" s="6"/>
@@ -3897,12 +4099,12 @@
       <c r="CZ19" s="2"/>
       <c r="DA19" s="2"/>
     </row>
-    <row r="20" spans="1:105" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:105" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -3946,7 +4148,7 @@
       <c r="AP20" s="6"/>
       <c r="AQ20" s="6"/>
       <c r="AR20" s="2"/>
-      <c r="AS20" s="12"/>
+      <c r="AS20" s="10"/>
       <c r="AT20" s="2"/>
       <c r="AU20" s="2"/>
       <c r="AV20" s="6"/>
@@ -4008,12 +4210,12 @@
       <c r="CZ20" s="2"/>
       <c r="DA20" s="2"/>
     </row>
-    <row r="21" spans="1:105" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:105" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -4057,7 +4259,7 @@
       <c r="AP21" s="6"/>
       <c r="AQ21" s="6"/>
       <c r="AR21" s="2"/>
-      <c r="AS21" s="12"/>
+      <c r="AS21" s="10"/>
       <c r="AT21" s="2"/>
       <c r="AU21" s="2"/>
       <c r="AV21" s="6"/>
@@ -4170,7 +4372,7 @@
       <c r="AP22" s="6"/>
       <c r="AQ22" s="6"/>
       <c r="AR22" s="2"/>
-      <c r="AS22" s="12"/>
+      <c r="AS22" s="10"/>
       <c r="AT22" s="2"/>
       <c r="AU22" s="2"/>
       <c r="AV22" s="6"/>
@@ -4277,7 +4479,7 @@
       <c r="AP23" s="6"/>
       <c r="AQ23" s="6"/>
       <c r="AR23" s="2"/>
-      <c r="AS23" s="12"/>
+      <c r="AS23" s="10"/>
       <c r="AT23" s="2"/>
       <c r="AU23" s="2"/>
       <c r="AV23" s="6"/>
@@ -4384,7 +4586,7 @@
       <c r="AP24" s="6"/>
       <c r="AQ24" s="6"/>
       <c r="AR24" s="2"/>
-      <c r="AS24" s="12"/>
+      <c r="AS24" s="10"/>
       <c r="AT24" s="2"/>
       <c r="AU24" s="2"/>
       <c r="AV24" s="6"/>
@@ -4491,7 +4693,7 @@
       <c r="AP25" s="6"/>
       <c r="AQ25" s="6"/>
       <c r="AR25" s="2"/>
-      <c r="AS25" s="12"/>
+      <c r="AS25" s="10"/>
       <c r="AT25" s="2"/>
       <c r="AU25" s="2"/>
       <c r="AV25" s="6"/>
@@ -4598,7 +4800,7 @@
       <c r="AP26" s="6"/>
       <c r="AQ26" s="6"/>
       <c r="AR26" s="2"/>
-      <c r="AS26" s="12"/>
+      <c r="AS26" s="10"/>
       <c r="AT26" s="2"/>
       <c r="AU26" s="2"/>
       <c r="AV26" s="6"/>
@@ -4705,7 +4907,7 @@
       <c r="AP27" s="6"/>
       <c r="AQ27" s="6"/>
       <c r="AR27" s="2"/>
-      <c r="AS27" s="12"/>
+      <c r="AS27" s="10"/>
       <c r="AT27" s="2"/>
       <c r="AU27" s="2"/>
       <c r="AV27" s="6"/>
@@ -9353,39 +9555,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:32" x14ac:dyDescent="0.4">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
     </row>
     <row r="3" spans="2:32" x14ac:dyDescent="0.4">
       <c r="B3">
